--- a/GA.xlsx
+++ b/GA.xlsx
@@ -11,6 +11,71 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>100000111000111011</t>
+  </si>
+  <si>
+    <t>000000001011100011</t>
+  </si>
+  <si>
+    <t>100010000000100010</t>
+  </si>
+  <si>
+    <t>010010000110110111</t>
+  </si>
+  <si>
+    <t>001100011010101111</t>
+  </si>
+  <si>
+    <t>111111111000101111</t>
+  </si>
+  <si>
+    <t>001010010011111011</t>
+  </si>
+  <si>
+    <t>001011111110101100</t>
+  </si>
+  <si>
+    <t>001111010011000101</t>
+  </si>
+  <si>
+    <t>001001100101100010</t>
+  </si>
+  <si>
+    <t>000000110111000010</t>
+  </si>
+  <si>
+    <t>011100000001110110</t>
+  </si>
+  <si>
+    <t>001001010000011000</t>
+  </si>
+  <si>
+    <t>001001111011110000</t>
+  </si>
+  <si>
+    <t>010110010110010010</t>
+  </si>
+  <si>
+    <t>100110101101010111</t>
+  </si>
+  <si>
+    <t>000101110010010000</t>
+  </si>
+  <si>
+    <t>111000110110111010</t>
+  </si>
+  <si>
+    <t>001100110100110100</t>
+  </si>
+  <si>
+    <t>101010010101010111</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +405,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>134715</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>13.33357366017784</v>
+      </c>
+      <c r="D1">
+        <v>2.776976746053079</v>
+      </c>
+      <c r="E1">
+        <v>0.001808424249414455</v>
+      </c>
+      <c r="F1">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.067657728796878</v>
+      </c>
+      <c r="D2">
+        <v>194.1101611619534</v>
+      </c>
+      <c r="E2">
+        <v>0.1264085207058176</v>
+      </c>
+      <c r="F2">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>139298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13.75316144241883</v>
+      </c>
+      <c r="D3">
+        <v>1.554606388671086</v>
+      </c>
+      <c r="E3">
+        <v>0.001012391585764359</v>
+      </c>
+      <c r="F3">
+        <v>0.129</v>
+      </c>
+      <c r="G3">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>74167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7.790217553014957</v>
+      </c>
+      <c r="D4">
+        <v>51.98096293285364</v>
+      </c>
+      <c r="E4">
+        <v>0.03385106987636607</v>
+      </c>
+      <c r="F4">
+        <v>0.163</v>
+      </c>
+      <c r="G4">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>50863</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5.65666449228093</v>
+      </c>
+      <c r="D5">
+        <v>87.29791840980397</v>
+      </c>
+      <c r="E5">
+        <v>0.05685019609907694</v>
+      </c>
+      <c r="F5">
+        <v>0.22</v>
+      </c>
+      <c r="G5">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>261679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>24.95751936919925</v>
+      </c>
+      <c r="D6">
+        <v>99.15219198797831</v>
+      </c>
+      <c r="E6">
+        <v>0.06456994234053638</v>
+      </c>
+      <c r="F6">
+        <v>0.285</v>
+      </c>
+      <c r="G6">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>42235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4.866744486787745</v>
+      </c>
+      <c r="D7">
+        <v>102.6828672960466</v>
+      </c>
+      <c r="E7">
+        <v>0.06686919056182396</v>
+      </c>
+      <c r="F7">
+        <v>0.351</v>
+      </c>
+      <c r="G7">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>49068</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5.492326707178906</v>
+      </c>
+      <c r="D8">
+        <v>90.3958514430235</v>
+      </c>
+      <c r="E8">
+        <v>0.05886763366973681</v>
+      </c>
+      <c r="F8">
+        <v>0.41</v>
+      </c>
+      <c r="G8">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>62661</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6.7368077728568</v>
+      </c>
+      <c r="D9">
+        <v>68.28034578271981</v>
+      </c>
+      <c r="E9">
+        <v>0.04446556250331466</v>
+      </c>
+      <c r="F9">
+        <v>0.455</v>
+      </c>
+      <c r="G9">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>39266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4.594923381513143</v>
+      </c>
+      <c r="D10">
+        <v>108.2656194365819</v>
+      </c>
+      <c r="E10">
+        <v>0.07050479333154967</v>
+      </c>
+      <c r="F10">
+        <v>0.525</v>
+      </c>
+      <c r="G10">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3522</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1.322449960517733</v>
+      </c>
+      <c r="D11">
+        <v>187.0753750825413</v>
+      </c>
+      <c r="E11">
+        <v>0.1218273236347461</v>
+      </c>
+      <c r="F11">
+        <v>0.647</v>
+      </c>
+      <c r="G11">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>114806</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11.51084331834151</v>
+      </c>
+      <c r="D12">
+        <v>12.17421434916205</v>
+      </c>
+      <c r="E12">
+        <v>0.007928098237727652</v>
+      </c>
+      <c r="F12">
+        <v>0.655</v>
+      </c>
+      <c r="G12">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>37912</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4.470960506288552</v>
+      </c>
+      <c r="D13">
+        <v>110.8606726601354</v>
+      </c>
+      <c r="E13">
+        <v>0.07219474524946383</v>
+      </c>
+      <c r="F13">
+        <v>0.727</v>
+      </c>
+      <c r="G13">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>40688</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4.725111866424051</v>
+      </c>
+      <c r="D14">
+        <v>105.5733261574998</v>
+      </c>
+      <c r="E14">
+        <v>0.06875151669380054</v>
+      </c>
+      <c r="F14">
+        <v>0.796</v>
+      </c>
+      <c r="G14">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>91538</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>9.380586168617892</v>
+      </c>
+      <c r="D15">
+        <v>31.57781180832854</v>
+      </c>
+      <c r="E15">
+        <v>0.02056411912659781</v>
+      </c>
+      <c r="F15">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>158551</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15.51583296139893</v>
+      </c>
+      <c r="D16">
+        <v>0.2660836440655899</v>
+      </c>
+      <c r="E16">
+        <v>0.0001732791298971792</v>
+      </c>
+      <c r="F16">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>23696</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3.169441869513967</v>
+      </c>
+      <c r="D17">
+        <v>139.9621056788092</v>
+      </c>
+      <c r="E17">
+        <v>0.09114619568507874</v>
+      </c>
+      <c r="F17">
+        <v>0.908</v>
+      </c>
+      <c r="G17">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>232890</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>22.32179764479692</v>
+      </c>
+      <c r="D18">
+        <v>53.60872075135378</v>
+      </c>
+      <c r="E18">
+        <v>0.03491109917453485</v>
+      </c>
+      <c r="F18">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>52532</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>5.809466588846545</v>
+      </c>
+      <c r="D19">
+        <v>84.46590438152795</v>
+      </c>
+      <c r="E19">
+        <v>0.05500593044193903</v>
+      </c>
+      <c r="F19">
+        <v>0.998</v>
+      </c>
+      <c r="G19">
+        <v>0.803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>173399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>16.87521314702281</v>
+      </c>
+      <c r="D20">
+        <v>3.516424346767173</v>
+      </c>
+      <c r="E20">
+        <v>0.002289967702813307</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.914</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GA.xlsx
+++ b/GA.xlsx
@@ -14,66 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>100000111000111011</t>
-  </si>
-  <si>
-    <t>000000001011100011</t>
-  </si>
-  <si>
-    <t>100010000000100010</t>
-  </si>
-  <si>
-    <t>010010000110110111</t>
-  </si>
-  <si>
-    <t>001100011010101111</t>
-  </si>
-  <si>
-    <t>111111111000101111</t>
-  </si>
-  <si>
-    <t>001010010011111011</t>
-  </si>
-  <si>
-    <t>001011111110101100</t>
-  </si>
-  <si>
-    <t>001111010011000101</t>
-  </si>
-  <si>
-    <t>001001100101100010</t>
-  </si>
-  <si>
-    <t>000000110111000010</t>
-  </si>
-  <si>
-    <t>011100000001110110</t>
-  </si>
-  <si>
-    <t>001001010000011000</t>
-  </si>
-  <si>
-    <t>001001111011110000</t>
-  </si>
-  <si>
-    <t>010110010110010010</t>
-  </si>
-  <si>
-    <t>100110101101010111</t>
-  </si>
-  <si>
-    <t>000101110010010000</t>
-  </si>
-  <si>
-    <t>111000110110111010</t>
-  </si>
-  <si>
-    <t>001100110100110100</t>
-  </si>
-  <si>
-    <t>101010010101010111</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+  <si>
+    <t>011000111010101011</t>
+  </si>
+  <si>
+    <t>100110111110001000</t>
+  </si>
+  <si>
+    <t>001011011011100100</t>
+  </si>
+  <si>
+    <t>101001100111001101</t>
+  </si>
+  <si>
+    <t>011111111111100001</t>
+  </si>
+  <si>
+    <t>000011100001000111</t>
+  </si>
+  <si>
+    <t>010010011101001100</t>
+  </si>
+  <si>
+    <t>111100110100011001</t>
+  </si>
+  <si>
+    <t>101010000000001001</t>
+  </si>
+  <si>
+    <t>000110000000010110</t>
+  </si>
+  <si>
+    <t>110101100011111100</t>
+  </si>
+  <si>
+    <t>101010010010111000</t>
+  </si>
+  <si>
+    <t>001101000001101000</t>
+  </si>
+  <si>
+    <t>100010001100000110</t>
+  </si>
+  <si>
+    <t>001110111111001000</t>
+  </si>
+  <si>
+    <t>000100100011110000</t>
+  </si>
+  <si>
+    <t>010101010111011111</t>
+  </si>
+  <si>
+    <t>001001101110111100</t>
+  </si>
+  <si>
+    <t>001011000111100011</t>
+  </si>
+  <si>
+    <t>110010001101111010</t>
   </si>
 </sst>
 </file>
@@ -405,464 +405,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1">
-        <v>134715</v>
+        <v>102059</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>13.33357366017784</v>
+        <v>10.34381616140809</v>
       </c>
       <c r="D1">
-        <v>2.776976746053079</v>
+        <v>21.68004793876453</v>
       </c>
       <c r="E1">
-        <v>0.001808424249414455</v>
+        <v>0.01866106677401547</v>
       </c>
       <c r="F1">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>0.019</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>739</v>
+        <v>159624</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.067657728796878</v>
+        <v>15.61406942012566</v>
       </c>
       <c r="D2">
-        <v>194.1101611619534</v>
+        <v>0.3770812527334592</v>
       </c>
       <c r="E2">
-        <v>0.1264085207058176</v>
+        <v>0.000324572088418061</v>
       </c>
       <c r="F2">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.019</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>139298</v>
+        <v>46820</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>13.75316144241883</v>
+        <v>5.286515375195981</v>
       </c>
       <c r="D3">
-        <v>1.554606388671086</v>
+        <v>94.35178355630408</v>
       </c>
       <c r="E3">
-        <v>0.001012391585764359</v>
+        <v>0.08121314759841723</v>
       </c>
       <c r="F3">
-        <v>0.129</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.731</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>74167</v>
+        <v>170445</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.790217553014957</v>
+        <v>16.60476533800254</v>
       </c>
       <c r="D4">
-        <v>51.98096293285364</v>
+        <v>2.575271790054407</v>
       </c>
       <c r="E4">
-        <v>0.03385106987636607</v>
+        <v>0.002216661096469063</v>
       </c>
       <c r="F4">
-        <v>0.163</v>
+        <v>0.102</v>
       </c>
       <c r="G4">
-        <v>0.515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.858</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>50863</v>
+        <v>131041</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5.65666449228093</v>
+        <v>12.99720763094952</v>
       </c>
       <c r="D5">
-        <v>87.29791840980397</v>
+        <v>4.011177273526835</v>
       </c>
       <c r="E5">
-        <v>0.05685019609907694</v>
+        <v>0.003452614457086074</v>
       </c>
       <c r="F5">
-        <v>0.22</v>
+        <v>0.106</v>
       </c>
       <c r="G5">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>261679</v>
+        <v>14407</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>24.95751936919925</v>
+        <v>2.319005275746444</v>
       </c>
       <c r="D6">
-        <v>99.15219198797831</v>
+        <v>160.8076271965465</v>
       </c>
       <c r="E6">
-        <v>0.06456994234053638</v>
+        <v>0.1384149092917895</v>
       </c>
       <c r="F6">
-        <v>0.285</v>
+        <v>0.244</v>
       </c>
       <c r="G6">
-        <v>0.523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.412</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>42235</v>
+        <v>75596</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.866744486787745</v>
+        <v>7.921046909511221</v>
       </c>
       <c r="D7">
-        <v>102.6828672960466</v>
+        <v>50.11157685734064</v>
       </c>
       <c r="E7">
-        <v>0.06686919056182396</v>
+        <v>0.04313346006094358</v>
       </c>
       <c r="F7">
-        <v>0.351</v>
+        <v>0.287</v>
       </c>
       <c r="G7">
-        <v>0.869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.092</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>49068</v>
+        <v>249113</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.492326707178906</v>
+        <v>23.80706332040146</v>
       </c>
       <c r="D8">
-        <v>90.3958514430235</v>
+        <v>77.56436432956075</v>
       </c>
       <c r="E8">
-        <v>0.05886763366973681</v>
+        <v>0.06676340320493224</v>
       </c>
       <c r="F8">
-        <v>0.41</v>
+        <v>0.354</v>
       </c>
       <c r="G8">
-        <v>0.6850000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.768</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>62661</v>
+        <v>172041</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.7368077728568</v>
+        <v>16.75088405946373</v>
       </c>
       <c r="D9">
-        <v>68.28034578271981</v>
+        <v>3.065594989684187</v>
       </c>
       <c r="E9">
-        <v>0.04446556250331466</v>
+        <v>0.002638706010529417</v>
       </c>
       <c r="F9">
-        <v>0.455</v>
+        <v>0.357</v>
       </c>
       <c r="G9">
-        <v>0.954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.914</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>39266</v>
+        <v>24598</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.594923381513143</v>
+        <v>3.25202275094128</v>
       </c>
       <c r="D10">
-        <v>108.2656194365819</v>
+        <v>138.0149694444013</v>
       </c>
       <c r="E10">
-        <v>0.07050479333154967</v>
+        <v>0.11879616539088</v>
       </c>
       <c r="F10">
-        <v>0.525</v>
+        <v>0.476</v>
       </c>
       <c r="G10">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.626</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>3522</v>
+        <v>219388</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.322449960517733</v>
+        <v>21.08564790972866</v>
       </c>
       <c r="D11">
-        <v>187.0753750825413</v>
+        <v>37.03511048118477</v>
       </c>
       <c r="E11">
-        <v>0.1218273236347461</v>
+        <v>0.03187791243010569</v>
       </c>
       <c r="F11">
+        <v>0.507</v>
+      </c>
+      <c r="G11">
         <v>0.647</v>
       </c>
-      <c r="G11">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>114806</v>
+        <v>173240</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>11.51084331834151</v>
+        <v>16.86065620672686</v>
       </c>
       <c r="D12">
-        <v>12.17421434916205</v>
+        <v>3.462041519631195</v>
       </c>
       <c r="E12">
-        <v>0.007928098237727652</v>
+        <v>0.002979946730502171</v>
       </c>
       <c r="F12">
-        <v>0.655</v>
+        <v>0.51</v>
       </c>
       <c r="G12">
-        <v>0.694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>37912</v>
+        <v>53352</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>4.470960506288552</v>
+        <v>5.884540117416829</v>
       </c>
       <c r="D13">
-        <v>110.8606726601354</v>
+        <v>83.09160887098319</v>
       </c>
       <c r="E13">
-        <v>0.07219474524946383</v>
+        <v>0.0715209701510538</v>
       </c>
       <c r="F13">
-        <v>0.727</v>
+        <v>0.582</v>
       </c>
       <c r="G13">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.822</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>40688</v>
+        <v>140038</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>4.725111866424051</v>
+        <v>13.82091072429933</v>
       </c>
       <c r="D14">
-        <v>105.5733261574998</v>
+        <v>1.390251520072328</v>
       </c>
       <c r="E14">
-        <v>0.06875151669380054</v>
+        <v>0.001196656784248082</v>
       </c>
       <c r="F14">
-        <v>0.796</v>
+        <v>0.583</v>
       </c>
       <c r="G14">
-        <v>0.351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>91538</v>
+        <v>61384</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9.380586168617892</v>
+        <v>6.619894485071125</v>
       </c>
       <c r="D15">
-        <v>31.57781180832854</v>
+        <v>70.22616844134134</v>
       </c>
       <c r="E15">
-        <v>0.02056411912659781</v>
+        <v>0.0604470627679714</v>
       </c>
       <c r="F15">
-        <v>0.8159999999999999</v>
+        <v>0.644</v>
       </c>
       <c r="G15">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.725</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>158551</v>
+        <v>18672</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>15.51583296139893</v>
+        <v>2.709479177395544</v>
       </c>
       <c r="D16">
-        <v>0.2660836440655899</v>
+        <v>151.0569020908737</v>
       </c>
       <c r="E16">
-        <v>0.0001732791298971792</v>
+        <v>0.1300219881688301</v>
       </c>
       <c r="F16">
-        <v>0.8169999999999999</v>
+        <v>0.774</v>
       </c>
       <c r="G16">
-        <v>0.8090000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.921</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>23696</v>
+        <v>87519</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3.169441869513967</v>
+        <v>9.012634325539876</v>
       </c>
       <c r="D17">
-        <v>139.9621056788092</v>
+        <v>35.84854771970333</v>
       </c>
       <c r="E17">
-        <v>0.09114619568507874</v>
+        <v>0.03085658042078048</v>
       </c>
       <c r="F17">
-        <v>0.908</v>
+        <v>0.805</v>
       </c>
       <c r="G17">
-        <v>0.637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.982</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>232890</v>
+        <v>39868</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>22.32179764479692</v>
+        <v>4.650038337853767</v>
       </c>
       <c r="D18">
-        <v>53.60872075135378</v>
+        <v>107.1217064078968</v>
       </c>
       <c r="E18">
-        <v>0.03491109917453485</v>
+        <v>0.09220483837814611</v>
       </c>
       <c r="F18">
-        <v>0.9429999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="G18">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.195</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>52532</v>
+        <v>45539</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>5.809466588846545</v>
+        <v>5.169235875075817</v>
       </c>
       <c r="D19">
-        <v>84.46590438152795</v>
+        <v>96.64392327989634</v>
       </c>
       <c r="E19">
-        <v>0.05500593044193903</v>
+        <v>0.08318610321909405</v>
       </c>
       <c r="F19">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="G19">
-        <v>0.803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.834</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>173399</v>
+        <v>205690</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>16.87521314702281</v>
+        <v>19.83155377027042</v>
       </c>
       <c r="D20">
-        <v>3.516424346767173</v>
+        <v>23.34391183501436</v>
       </c>
       <c r="E20">
-        <v>0.002289967702813307</v>
+        <v>0.02009323497578748</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.914</v>
+        <v>0.418</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -14,66 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
-  <si>
-    <t>011000111010101011</t>
-  </si>
-  <si>
-    <t>100110111110001000</t>
-  </si>
-  <si>
-    <t>001011011011100100</t>
-  </si>
-  <si>
-    <t>101001100111001101</t>
-  </si>
-  <si>
-    <t>011111111111100001</t>
-  </si>
-  <si>
-    <t>000011100001000111</t>
-  </si>
-  <si>
-    <t>010010011101001100</t>
-  </si>
-  <si>
-    <t>111100110100011001</t>
-  </si>
-  <si>
-    <t>101010000000001001</t>
-  </si>
-  <si>
-    <t>000110000000010110</t>
-  </si>
-  <si>
-    <t>110101100011111100</t>
-  </si>
-  <si>
-    <t>101010010010111000</t>
-  </si>
-  <si>
-    <t>001101000001101000</t>
-  </si>
-  <si>
-    <t>100010001100000110</t>
-  </si>
-  <si>
-    <t>001110111111001000</t>
-  </si>
-  <si>
-    <t>000100100011110000</t>
-  </si>
-  <si>
-    <t>010101010111011111</t>
-  </si>
-  <si>
-    <t>001001101110111100</t>
-  </si>
-  <si>
-    <t>001011000111100011</t>
-  </si>
-  <si>
-    <t>110010001101111010</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+  <si>
+    <t>101111101100101001</t>
+  </si>
+  <si>
+    <t>100000100010101001</t>
+  </si>
+  <si>
+    <t>000000101101111101</t>
+  </si>
+  <si>
+    <t>111001000110010110</t>
+  </si>
+  <si>
+    <t>011110010111000011</t>
+  </si>
+  <si>
+    <t>001100001101100101</t>
+  </si>
+  <si>
+    <t>011111000111010001</t>
+  </si>
+  <si>
+    <t>100101101010111101</t>
+  </si>
+  <si>
+    <t>111110011111110100</t>
+  </si>
+  <si>
+    <t>001001101110101100</t>
+  </si>
+  <si>
+    <t>101111011101101001</t>
+  </si>
+  <si>
+    <t>100100011100010110</t>
+  </si>
+  <si>
+    <t>010101000000111110</t>
+  </si>
+  <si>
+    <t>110001001001001111</t>
+  </si>
+  <si>
+    <t>110100100000100110</t>
+  </si>
+  <si>
+    <t>001010100100101001</t>
+  </si>
+  <si>
+    <t>100000011010110111</t>
+  </si>
+  <si>
+    <t>011000110101101100</t>
+  </si>
+  <si>
+    <t>001111110101110110</t>
+  </si>
+  <si>
+    <t>011110010000011011</t>
+  </si>
+  <si>
+    <t>000111101100101001</t>
+  </si>
+  <si>
+    <t>101000101101111101</t>
+  </si>
+  <si>
+    <t>000110011111110100</t>
+  </si>
+  <si>
+    <t>111000101101111101</t>
+  </si>
+  <si>
+    <t>000100100000100110</t>
+  </si>
+  <si>
+    <t>110000101101111101</t>
+  </si>
+  <si>
+    <t>111001101110101100</t>
+  </si>
+  <si>
+    <t>001001000110010110</t>
+  </si>
+  <si>
+    <t>001100100000100110</t>
+  </si>
+  <si>
+    <t>110010100100101001</t>
+  </si>
+  <si>
+    <t>001000110101101100</t>
+  </si>
+  <si>
+    <t>011100001101100101</t>
   </si>
 </sst>
 </file>
@@ -405,530 +441,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1">
-        <v>102059</v>
+        <v>195369</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>10.34381616140809</v>
+        <v>18.88663439420469</v>
       </c>
       <c r="D1">
-        <v>21.68004793876453</v>
+        <v>15.10592691421484</v>
       </c>
       <c r="E1">
-        <v>0.01866106677401547</v>
+        <v>0.01754272438464307</v>
       </c>
       <c r="F1">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>159624</v>
+        <v>133289</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>15.61406942012566</v>
+        <v>13.20301896293245</v>
       </c>
       <c r="D2">
-        <v>0.3770812527334592</v>
+        <v>3.229140847580386</v>
       </c>
       <c r="E2">
-        <v>0.000324572088418061</v>
+        <v>0.003750046469176885</v>
       </c>
       <c r="F2">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>46820</v>
+        <v>2941</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.286515375195981</v>
+        <v>1.269257618933178</v>
       </c>
       <c r="D3">
-        <v>94.35178355630408</v>
+        <v>188.5332863352246</v>
       </c>
       <c r="E3">
-        <v>0.08121314759841723</v>
+        <v>0.2189463445899207</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="G3">
-        <v>0.731</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>170445</v>
+        <v>233878</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>16.60476533800254</v>
+        <v>22.41225209141575</v>
       </c>
       <c r="D4">
-        <v>2.575271790054407</v>
+        <v>54.94148106669719</v>
       </c>
       <c r="E4">
-        <v>0.002216661096469063</v>
+        <v>0.06380431105688633</v>
       </c>
       <c r="F4">
-        <v>0.102</v>
+        <v>0.304</v>
       </c>
       <c r="G4">
-        <v>0.858</v>
+        <v>0.015</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>131041</v>
+        <v>124355</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>12.99720763094952</v>
+        <v>12.38508371385084</v>
       </c>
       <c r="D5">
-        <v>4.011177273526835</v>
+        <v>6.837787183568136</v>
       </c>
       <c r="E5">
-        <v>0.003452614457086074</v>
+        <v>0.007940817974519869</v>
       </c>
       <c r="F5">
-        <v>0.106</v>
+        <v>0.312</v>
       </c>
       <c r="G5">
-        <v>0.223</v>
+        <v>0.18</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>14407</v>
+        <v>50021</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.319005275746444</v>
+        <v>5.579576795870956</v>
       </c>
       <c r="D6">
-        <v>160.8076271965465</v>
+        <v>88.74437334489292</v>
       </c>
       <c r="E6">
-        <v>0.1384149092917895</v>
+        <v>0.1030600830467635</v>
       </c>
       <c r="F6">
-        <v>0.244</v>
+        <v>0.415</v>
       </c>
       <c r="G6">
-        <v>0.412</v>
+        <v>0.522</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>75596</v>
+        <v>127441</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>7.921046909511221</v>
+        <v>12.66761652990925</v>
       </c>
       <c r="D7">
-        <v>50.11157685734064</v>
+        <v>5.440012651552578</v>
       </c>
       <c r="E7">
-        <v>0.04313346006094358</v>
+        <v>0.00631756284385006</v>
       </c>
       <c r="F7">
-        <v>0.287</v>
+        <v>0.421</v>
       </c>
       <c r="G7">
-        <v>0.092</v>
+        <v>0.238</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>249113</v>
+        <v>154301</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>23.80706332040146</v>
+        <v>15.12673235600417</v>
       </c>
       <c r="D8">
-        <v>77.56436432956075</v>
+        <v>0.0160610900583665</v>
       </c>
       <c r="E8">
-        <v>0.06676340320493224</v>
+        <v>1.86519687147248E-05</v>
       </c>
       <c r="F8">
-        <v>0.354</v>
+        <v>0.421</v>
       </c>
       <c r="G8">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>172041</v>
+        <v>255988</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>16.75088405946373</v>
+        <v>24.43649077030476</v>
       </c>
       <c r="D9">
-        <v>3.065594989684187</v>
+        <v>89.04735805804688</v>
       </c>
       <c r="E9">
-        <v>0.002638706010529417</v>
+        <v>0.1034119434354576</v>
       </c>
       <c r="F9">
-        <v>0.357</v>
+        <v>0.525</v>
       </c>
       <c r="G9">
-        <v>0.914</v>
+        <v>0.263</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>24598</v>
+        <v>39852</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.25202275094128</v>
+        <v>4.64857348851581</v>
       </c>
       <c r="D10">
-        <v>138.0149694444013</v>
+        <v>107.1520308226577</v>
       </c>
       <c r="E10">
-        <v>0.11879616539088</v>
+        <v>0.1244371533538806</v>
       </c>
       <c r="F10">
-        <v>0.476</v>
+        <v>0.649</v>
       </c>
       <c r="G10">
-        <v>0.626</v>
+        <v>0.631</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>219388</v>
+        <v>194409</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>21.08564790972866</v>
+        <v>18.79874343392728</v>
       </c>
       <c r="D11">
-        <v>37.03511048118477</v>
+        <v>14.43045167680564</v>
       </c>
       <c r="E11">
-        <v>0.03187791243010569</v>
+        <v>0.01675828553585119</v>
       </c>
       <c r="F11">
-        <v>0.507</v>
+        <v>0.666</v>
       </c>
       <c r="G11">
-        <v>0.647</v>
+        <v>0.874</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>173240</v>
+        <v>149270</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>16.86065620672686</v>
+        <v>14.66612879230038</v>
       </c>
       <c r="D12">
-        <v>3.462041519631195</v>
+        <v>0.1114699833308001</v>
       </c>
       <c r="E12">
-        <v>0.002979946730502171</v>
+        <v>0.0001294516520461151</v>
       </c>
       <c r="F12">
-        <v>0.51</v>
+        <v>0.666</v>
       </c>
       <c r="G12">
-        <v>0.9330000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>53352</v>
+        <v>86078</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5.884540117416829</v>
+        <v>8.880706332040145</v>
       </c>
       <c r="D13">
-        <v>83.09160887098319</v>
+        <v>37.44575499473358</v>
       </c>
       <c r="E13">
-        <v>0.0715209701510538</v>
+        <v>0.04348627945692843</v>
       </c>
       <c r="F13">
-        <v>0.582</v>
+        <v>0.71</v>
       </c>
       <c r="G13">
-        <v>0.822</v>
+        <v>0.585</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
-        <v>140038</v>
+        <v>201295</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>13.82091072429933</v>
+        <v>19.42917796775043</v>
       </c>
       <c r="D14">
-        <v>1.390251520072328</v>
+        <v>19.6176174700058</v>
       </c>
       <c r="E14">
-        <v>0.001196656784248082</v>
+        <v>0.02278221378363914</v>
       </c>
       <c r="F14">
-        <v>0.583</v>
+        <v>0.732</v>
       </c>
       <c r="G14">
-        <v>0.63</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>61384</v>
+        <v>215078</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>6.619894485071125</v>
+        <v>20.69105411931655</v>
       </c>
       <c r="D15">
-        <v>70.22616844134134</v>
+        <v>32.38809698898992</v>
       </c>
       <c r="E15">
-        <v>0.0604470627679714</v>
+        <v>0.03761275041561861</v>
       </c>
       <c r="F15">
-        <v>0.644</v>
+        <v>0.77</v>
       </c>
       <c r="G15">
-        <v>0.725</v>
+        <v>0.929</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>18672</v>
+        <v>43305</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2.709479177395544</v>
+        <v>4.964706286263604</v>
       </c>
       <c r="D16">
-        <v>151.0569020908737</v>
+        <v>100.7071199209572</v>
       </c>
       <c r="E16">
-        <v>0.1300219881688301</v>
+        <v>0.1169525881051423</v>
       </c>
       <c r="F16">
-        <v>0.774</v>
+        <v>0.887</v>
       </c>
       <c r="G16">
-        <v>0.921</v>
+        <v>0.349</v>
       </c>
       <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
-        <v>87519</v>
+        <v>132791</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9.012634325539876</v>
+        <v>13.15742552728854</v>
       </c>
       <c r="D17">
-        <v>35.84854771970333</v>
+        <v>3.395080687487915</v>
       </c>
       <c r="E17">
-        <v>0.03085658042078048</v>
+        <v>0.003942754728157687</v>
       </c>
       <c r="F17">
-        <v>0.805</v>
+        <v>0.891</v>
       </c>
       <c r="G17">
-        <v>0.982</v>
+        <v>0.376</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
-        <v>39868</v>
+        <v>101740</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>4.650038337853767</v>
+        <v>10.31461072773257</v>
       </c>
       <c r="D18">
-        <v>107.1217064078968</v>
+        <v>21.95287263267869</v>
       </c>
       <c r="E18">
-        <v>0.09220483837814611</v>
+        <v>0.02549417829394239</v>
       </c>
       <c r="F18">
-        <v>0.897</v>
+        <v>0.916</v>
       </c>
       <c r="G18">
-        <v>0.195</v>
+        <v>0.908</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
-        <v>45539</v>
+        <v>64886</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>5.169235875075817</v>
+        <v>6.940513383916412</v>
       </c>
       <c r="D19">
-        <v>96.64392327989634</v>
+        <v>64.95532451483051</v>
       </c>
       <c r="E19">
-        <v>0.08318610321909405</v>
+        <v>0.07543352763122704</v>
       </c>
       <c r="F19">
-        <v>0.98</v>
+        <v>0.992</v>
       </c>
       <c r="G19">
-        <v>0.834</v>
+        <v>0.99</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
-        <v>205690</v>
+        <v>123931</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>19.83155377027042</v>
+        <v>12.34626520639498</v>
       </c>
       <c r="D20">
-        <v>23.34391183501436</v>
+        <v>7.042308354789869</v>
       </c>
       <c r="E20">
-        <v>0.02009323497578748</v>
+        <v>0.008178331273633677</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.418</v>
+        <v>0.927</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -14,102 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
-  <si>
-    <t>101111101100101001</t>
-  </si>
-  <si>
-    <t>100000100010101001</t>
-  </si>
-  <si>
-    <t>000000101101111101</t>
-  </si>
-  <si>
-    <t>111001000110010110</t>
-  </si>
-  <si>
-    <t>011110010111000011</t>
-  </si>
-  <si>
-    <t>001100001101100101</t>
-  </si>
-  <si>
-    <t>011111000111010001</t>
-  </si>
-  <si>
-    <t>100101101010111101</t>
-  </si>
-  <si>
-    <t>111110011111110100</t>
-  </si>
-  <si>
-    <t>001001101110101100</t>
-  </si>
-  <si>
-    <t>101111011101101001</t>
-  </si>
-  <si>
-    <t>100100011100010110</t>
-  </si>
-  <si>
-    <t>010101000000111110</t>
-  </si>
-  <si>
-    <t>110001001001001111</t>
-  </si>
-  <si>
-    <t>110100100000100110</t>
-  </si>
-  <si>
-    <t>001010100100101001</t>
-  </si>
-  <si>
-    <t>100000011010110111</t>
-  </si>
-  <si>
-    <t>011000110101101100</t>
-  </si>
-  <si>
-    <t>001111110101110110</t>
-  </si>
-  <si>
-    <t>011110010000011011</t>
-  </si>
-  <si>
-    <t>000111101100101001</t>
-  </si>
-  <si>
-    <t>101000101101111101</t>
-  </si>
-  <si>
-    <t>000110011111110100</t>
-  </si>
-  <si>
-    <t>111000101101111101</t>
-  </si>
-  <si>
-    <t>000100100000100110</t>
-  </si>
-  <si>
-    <t>110000101101111101</t>
-  </si>
-  <si>
-    <t>111001101110101100</t>
-  </si>
-  <si>
-    <t>001001000110010110</t>
-  </si>
-  <si>
-    <t>001100100000100110</t>
-  </si>
-  <si>
-    <t>110010100100101001</t>
-  </si>
-  <si>
-    <t>001000110101101100</t>
-  </si>
-  <si>
-    <t>011100001101100101</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+  <si>
+    <t>110011101001110000</t>
+  </si>
+  <si>
+    <t>100100111000001101</t>
+  </si>
+  <si>
+    <t>011010010101111110</t>
+  </si>
+  <si>
+    <t>000101011000011111</t>
+  </si>
+  <si>
+    <t>011011010000110000</t>
+  </si>
+  <si>
+    <t>010111011010100010</t>
+  </si>
+  <si>
+    <t>110101100110100111</t>
+  </si>
+  <si>
+    <t>000100100110010000</t>
+  </si>
+  <si>
+    <t>110011110101001010</t>
+  </si>
+  <si>
+    <t>000110001011100100</t>
+  </si>
+  <si>
+    <t>000100101100001100</t>
+  </si>
+  <si>
+    <t>010101011100001010</t>
+  </si>
+  <si>
+    <t>001001101011011010</t>
+  </si>
+  <si>
+    <t>101001001101000111</t>
+  </si>
+  <si>
+    <t>001110111101010101</t>
+  </si>
+  <si>
+    <t>110110100111110001</t>
+  </si>
+  <si>
+    <t>011001100110110110</t>
+  </si>
+  <si>
+    <t>111000011101010110</t>
+  </si>
+  <si>
+    <t>001110101111000011</t>
+  </si>
+  <si>
+    <t>110010110101010000</t>
+  </si>
+  <si>
+    <t>011100101100001100</t>
+  </si>
+  <si>
+    <t>000001100110110110</t>
+  </si>
+  <si>
+    <t>000110111101010101</t>
+  </si>
+  <si>
+    <t>001100100110010000</t>
+  </si>
+  <si>
+    <t>000001101011011010</t>
+  </si>
+  <si>
+    <t>000011110101001010</t>
+  </si>
+  <si>
+    <t>110101011000011111</t>
+  </si>
+  <si>
+    <t>110110001011100100</t>
+  </si>
+  <si>
+    <t>000101100110100111</t>
+  </si>
+  <si>
+    <t>110110101111000011</t>
+  </si>
+  <si>
+    <t>001110100111110001</t>
   </si>
 </sst>
 </file>
@@ -441,590 +438,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1">
-        <v>195369</v>
+        <v>211568</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>18.88663439420469</v>
+        <v>20.36970279580229</v>
       </c>
       <c r="D1">
-        <v>15.10592691421484</v>
+        <v>28.83370811524693</v>
       </c>
       <c r="E1">
-        <v>0.01754272438464307</v>
+        <v>0.02484516257561468</v>
       </c>
       <c r="F1">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>133289</v>
+        <v>151053</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13.20301896293245</v>
+        <v>14.82936794039894</v>
       </c>
       <c r="D2">
-        <v>3.229140847580386</v>
+        <v>0.02911529976369893</v>
       </c>
       <c r="E2">
-        <v>0.003750046469176885</v>
+        <v>2.508780185939191E-05</v>
       </c>
       <c r="F2">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>2941</v>
+        <v>107902</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.269257618933178</v>
+        <v>10.87876082901317</v>
       </c>
       <c r="D3">
-        <v>188.5332863352246</v>
+        <v>16.98461230447621</v>
       </c>
       <c r="E3">
-        <v>0.2189463445899207</v>
+        <v>0.01463514343357579</v>
       </c>
       <c r="F3">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="G3">
-        <v>0.08500000000000001</v>
+        <v>0.856</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0.86</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>233878</v>
+        <v>22047</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>22.41225209141575</v>
+        <v>3.018470834620798</v>
       </c>
       <c r="D4">
-        <v>54.94148106669719</v>
+        <v>143.5570411408324</v>
       </c>
       <c r="E4">
-        <v>0.06380431105688633</v>
+        <v>0.1236989017077605</v>
       </c>
       <c r="F4">
-        <v>0.304</v>
+        <v>0.163</v>
       </c>
       <c r="G4">
-        <v>0.015</v>
+        <v>0.577</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0.86</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>124355</v>
+        <v>111664</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>12.38508371385084</v>
+        <v>11.22318352960026</v>
       </c>
       <c r="D5">
-        <v>6.837787183568136</v>
+        <v>14.26434265108278</v>
       </c>
       <c r="E5">
-        <v>0.007940817974519869</v>
+        <v>0.01229116667144951</v>
       </c>
       <c r="F5">
-        <v>0.312</v>
+        <v>0.175</v>
       </c>
       <c r="G5">
-        <v>0.18</v>
+        <v>0.332</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0.48</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>50021</v>
+        <v>95906</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.579576795870956</v>
+        <v>9.780490037880089</v>
       </c>
       <c r="D6">
-        <v>88.74437334489292</v>
+        <v>27.243284244669</v>
       </c>
       <c r="E6">
-        <v>0.1030600830467635</v>
+        <v>0.02347474086396004</v>
       </c>
       <c r="F6">
-        <v>0.415</v>
+        <v>0.199</v>
       </c>
       <c r="G6">
-        <v>0.522</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0.48</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>127441</v>
+        <v>219559</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12.66761652990925</v>
+        <v>21.10130348702807</v>
       </c>
       <c r="D7">
-        <v>5.440012651552578</v>
+        <v>37.22590424082092</v>
       </c>
       <c r="E7">
-        <v>0.00631756284385006</v>
+        <v>0.03207647241176004</v>
       </c>
       <c r="F7">
-        <v>0.421</v>
+        <v>0.231</v>
       </c>
       <c r="G7">
-        <v>0.238</v>
+        <v>0.92</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>0.29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
-        <v>154301</v>
+        <v>18832</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>15.12673235600417</v>
+        <v>2.724127670775111</v>
       </c>
       <c r="D8">
-        <v>0.0160610900583665</v>
+        <v>150.6970414434293</v>
       </c>
       <c r="E8">
-        <v>1.86519687147248E-05</v>
+        <v>0.1298512310439292</v>
       </c>
       <c r="F8">
-        <v>0.421</v>
+        <v>0.361</v>
       </c>
       <c r="G8">
-        <v>0.76</v>
+        <v>0.921</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>0.29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
-        <v>255988</v>
+        <v>212298</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>24.43649077030476</v>
+        <v>20.43653654684657</v>
       </c>
       <c r="D9">
-        <v>89.04735805804688</v>
+        <v>29.55592962519841</v>
       </c>
       <c r="E9">
-        <v>0.1034119434354576</v>
+        <v>0.02546747971771206</v>
       </c>
       <c r="F9">
-        <v>0.525</v>
+        <v>0.386</v>
       </c>
       <c r="G9">
-        <v>0.263</v>
+        <v>0.345</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0.65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
-        <v>39852</v>
+        <v>25316</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.64857348851581</v>
+        <v>3.31775786498209</v>
       </c>
       <c r="D10">
-        <v>107.1520308226577</v>
+        <v>136.4747813011878</v>
       </c>
       <c r="E10">
-        <v>0.1244371533538806</v>
+        <v>0.1175963256389659</v>
       </c>
       <c r="F10">
-        <v>0.649</v>
+        <v>0.504</v>
       </c>
       <c r="G10">
-        <v>0.631</v>
+        <v>0.711</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0.65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
-        <v>194409</v>
+        <v>19212</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>18.79874343392728</v>
+        <v>2.758917842551584</v>
       </c>
       <c r="D11">
-        <v>14.43045167680564</v>
+        <v>149.844092385402</v>
       </c>
       <c r="E11">
-        <v>0.01675828553585119</v>
+        <v>0.1291162697988925</v>
       </c>
       <c r="F11">
-        <v>0.666</v>
+        <v>0.633</v>
       </c>
       <c r="G11">
-        <v>0.874</v>
+        <v>0.06</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>0.66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
-        <v>149270</v>
+        <v>87818</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>14.66612879230038</v>
+        <v>9.040008697542945</v>
       </c>
       <c r="D12">
-        <v>0.1114699833308001</v>
+        <v>35.52149632536375</v>
       </c>
       <c r="E12">
-        <v>0.0001294516520461151</v>
+        <v>0.03060783398393654</v>
       </c>
       <c r="F12">
-        <v>0.666</v>
+        <v>0.664</v>
       </c>
       <c r="G12">
-        <v>0.77</v>
+        <v>0.385</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0.66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
-        <v>86078</v>
+        <v>39642</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>8.880706332040145</v>
+        <v>4.629347340955127</v>
       </c>
       <c r="D13">
-        <v>37.44575499473358</v>
+        <v>107.5504365745545</v>
       </c>
       <c r="E13">
-        <v>0.04348627945692843</v>
+        <v>0.09267306414745045</v>
       </c>
       <c r="F13">
-        <v>0.71</v>
+        <v>0.756</v>
       </c>
       <c r="G13">
-        <v>0.585</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0.31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
-        <v>201295</v>
+        <v>168775</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>19.42917796775043</v>
+        <v>16.4518716883533</v>
       </c>
       <c r="D14">
-        <v>19.6176174700058</v>
+        <v>2.107931399441862</v>
       </c>
       <c r="E14">
-        <v>0.02278221378363914</v>
+        <v>0.001816342806414219</v>
       </c>
       <c r="F14">
-        <v>0.732</v>
+        <v>0.758</v>
       </c>
       <c r="G14">
-        <v>0.8159999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0.31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
-        <v>215078</v>
+        <v>61269</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>20.69105411931655</v>
+        <v>6.609365880454561</v>
       </c>
       <c r="D15">
-        <v>32.38809698898992</v>
+        <v>70.40274092808006</v>
       </c>
       <c r="E15">
-        <v>0.03761275041561861</v>
+        <v>0.06066398179296584</v>
       </c>
       <c r="F15">
-        <v>0.77</v>
+        <v>0.819</v>
       </c>
       <c r="G15">
-        <v>0.929</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
-        <v>43305</v>
+        <v>223729</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>4.964706286263604</v>
+        <v>21.48307984573305</v>
       </c>
       <c r="D16">
-        <v>100.7071199209572</v>
+        <v>42.03032428615009</v>
       </c>
       <c r="E16">
-        <v>0.1169525881051423</v>
+        <v>0.03621630058199201</v>
       </c>
       <c r="F16">
-        <v>0.887</v>
+        <v>0.855</v>
       </c>
       <c r="G16">
-        <v>0.349</v>
+        <v>0.307</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0.35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
-        <v>132791</v>
+        <v>104886</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>13.15742552728854</v>
+        <v>10.60263672880832</v>
       </c>
       <c r="D17">
-        <v>3.395080687487915</v>
+        <v>19.33680373882559</v>
       </c>
       <c r="E17">
-        <v>0.003942754728157687</v>
+        <v>0.01666195796474169</v>
       </c>
       <c r="F17">
-        <v>0.891</v>
+        <v>0.872</v>
       </c>
       <c r="G17">
-        <v>0.376</v>
+        <v>0.209</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0.72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
-        <v>101740</v>
+        <v>231254</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>10.31461072773257</v>
+        <v>22.17201679999084</v>
       </c>
       <c r="D18">
-        <v>21.95287263267869</v>
+        <v>51.43782497935089</v>
       </c>
       <c r="E18">
-        <v>0.02549417829394239</v>
+        <v>0.04432246865508794</v>
       </c>
       <c r="F18">
         <v>0.916</v>
       </c>
       <c r="G18">
-        <v>0.908</v>
+        <v>0.464</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>0.72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
-        <v>64886</v>
+        <v>60355</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>6.940513383916412</v>
+        <v>6.52568636202378</v>
       </c>
       <c r="D19">
-        <v>64.95532451483051</v>
+        <v>71.81399163478976</v>
       </c>
       <c r="E19">
-        <v>0.07543352763122704</v>
+        <v>0.06188001523212702</v>
       </c>
       <c r="F19">
-        <v>0.992</v>
+        <v>0.978</v>
       </c>
       <c r="G19">
-        <v>0.99</v>
+        <v>0.853</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>0.8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
-        <v>123931</v>
+        <v>208208</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12.34626520639498</v>
+        <v>20.06208443483137</v>
       </c>
       <c r="D20">
-        <v>7.042308354789869</v>
+        <v>25.62469882536203</v>
       </c>
       <c r="E20">
-        <v>0.008178331273633677</v>
+        <v>0.02208005316980472</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.927</v>
+        <v>0.968</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" t="s">
-        <v>18</v>
+      <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -7,68 +7,135 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GA" sheetId="1" r:id="rId1"/>
-    <sheet name="AG" sheetId="2" r:id="rId2"/>
+    <sheet name="GER 1" sheetId="1" r:id="rId1"/>
+    <sheet name="GER 2" sheetId="2" r:id="rId2"/>
+    <sheet name="GER 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
-  <si>
-    <t>000011100010000111</t>
-  </si>
-  <si>
-    <t>110111001101100000</t>
-  </si>
-  <si>
-    <t>001010110011110001</t>
-  </si>
-  <si>
-    <t>001011100010000111</t>
-  </si>
-  <si>
-    <t>000010110011111001</t>
-  </si>
-  <si>
-    <t>111000110100001111</t>
-  </si>
-  <si>
-    <t>001010110011111001</t>
-  </si>
-  <si>
-    <t>000000110100001111</t>
-  </si>
-  <si>
-    <t>000111001101100000</t>
-  </si>
-  <si>
-    <t>110011100010000111</t>
-  </si>
-  <si>
-    <t>001001001001100110</t>
-  </si>
-  <si>
-    <t>111000010100101100</t>
-  </si>
-  <si>
-    <t>001000110100001111</t>
-  </si>
-  <si>
-    <t>110000110100001111</t>
-  </si>
-  <si>
-    <t>110010110011111001</t>
-  </si>
-  <si>
-    <t>000010110011110001</t>
-  </si>
-  <si>
-    <t>000111001101000000</t>
-  </si>
-  <si>
-    <t>000111001101101000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+  <si>
+    <t>101101100100110000</t>
+  </si>
+  <si>
+    <t>001001110011100011</t>
+  </si>
+  <si>
+    <t>001111001110000101</t>
+  </si>
+  <si>
+    <t>100001000111110111</t>
+  </si>
+  <si>
+    <t>001011010101001001</t>
+  </si>
+  <si>
+    <t>101100111010101010</t>
+  </si>
+  <si>
+    <t>101111111110001101</t>
+  </si>
+  <si>
+    <t>100011111110100001</t>
+  </si>
+  <si>
+    <t>111000111011101101</t>
+  </si>
+  <si>
+    <t>011011000000101011</t>
+  </si>
+  <si>
+    <t>010100110000110101</t>
+  </si>
+  <si>
+    <t>010010100110110101</t>
+  </si>
+  <si>
+    <t>110100100011011010</t>
+  </si>
+  <si>
+    <t>111110111110000100</t>
+  </si>
+  <si>
+    <t>011011010000100111</t>
+  </si>
+  <si>
+    <t>000111111101100101</t>
+  </si>
+  <si>
+    <t>110010100000100010</t>
+  </si>
+  <si>
+    <t>010000111111010000</t>
+  </si>
+  <si>
+    <t>101110001010011111</t>
+  </si>
+  <si>
+    <t>010111100111011111</t>
+  </si>
+  <si>
+    <t>111000111111010000</t>
+  </si>
+  <si>
+    <t>010000111011101101</t>
+  </si>
+  <si>
+    <t>110111001110000101</t>
+  </si>
+  <si>
+    <t>001010100000100010</t>
+  </si>
+  <si>
+    <t>000000111111010000</t>
+  </si>
+  <si>
+    <t>010111111101100101</t>
+  </si>
+  <si>
+    <t>010111111110001101</t>
+  </si>
+  <si>
+    <t>101100110000110101</t>
+  </si>
+  <si>
+    <t>000111111101100001</t>
+  </si>
+  <si>
+    <t>010000101011101101</t>
+  </si>
+  <si>
+    <t>000001110011100011</t>
+  </si>
+  <si>
+    <t>001111111101100101</t>
+  </si>
+  <si>
+    <t>000111001110000101</t>
+  </si>
+  <si>
+    <t>010010100000100010</t>
+  </si>
+  <si>
+    <t>111111111101100001</t>
+  </si>
+  <si>
+    <t>000000111011101101</t>
+  </si>
+  <si>
+    <t>001011001110000101</t>
+  </si>
+  <si>
+    <t>000010100000100010</t>
+  </si>
+  <si>
+    <t>000111011101100101</t>
+  </si>
+  <si>
+    <t>010001110011100011</t>
   </si>
 </sst>
 </file>
@@ -400,249 +467,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K23"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>186672</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>18.09039722594157</v>
+      </c>
+      <c r="D2">
+        <v>9.550555014107323</v>
+      </c>
+      <c r="E2">
+        <v>0.01131214244421006</v>
+      </c>
+      <c r="F2">
+        <v>0.011</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>40163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4.677046497522344</v>
+      </c>
+      <c r="D3">
+        <v>106.5633690143157</v>
+      </c>
+      <c r="E3">
+        <v>0.1262188436006337</v>
+      </c>
+      <c r="F3">
+        <v>0.138</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>14471</v>
+        <v>62341</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.324864673098271</v>
+        <v>6.707510786097664</v>
       </c>
       <c r="D4">
-        <v>160.6590555552722</v>
+        <v>68.76537736268658</v>
       </c>
       <c r="E4">
-        <v>0.0736815376964607</v>
+        <v>0.08144906163123929</v>
       </c>
       <c r="F4">
-        <v>0.074</v>
+        <v>0.219</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.723</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>226144</v>
+        <v>135671</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>21.7041805426809</v>
+        <v>13.42109840812076</v>
       </c>
       <c r="D5">
-        <v>44.9460367488612</v>
+        <v>2.492930236838806</v>
       </c>
       <c r="E5">
-        <v>0.02061317421275633</v>
+        <v>0.002952747971289997</v>
       </c>
       <c r="F5">
-        <v>0.094</v>
+        <v>0.222</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>14471</v>
+        <v>46409</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.324864673098271</v>
+        <v>5.248887057827217</v>
       </c>
       <c r="D6">
-        <v>160.6590555552722</v>
+        <v>95.08420361100956</v>
       </c>
       <c r="E6">
-        <v>0.0736815376964607</v>
+        <v>0.1126223610934876</v>
       </c>
       <c r="F6">
-        <v>0.168</v>
+        <v>0.335</v>
       </c>
       <c r="G6">
-        <v>0.734</v>
+        <v>0.228</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>44273</v>
+        <v>183978</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.053329671209989</v>
+        <v>17.8437532186631</v>
       </c>
       <c r="D7">
-        <v>98.93625062963159</v>
+        <v>8.086932368656718</v>
       </c>
       <c r="E7">
-        <v>0.04537419353748006</v>
+        <v>0.009578556508580926</v>
       </c>
       <c r="F7">
-        <v>0.213</v>
+        <v>0.344</v>
       </c>
       <c r="G7">
-        <v>0.075</v>
+        <v>0.336</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>14471</v>
+        <v>196493</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.324864673098271</v>
+        <v>18.98954006019615</v>
       </c>
       <c r="D8">
-        <v>160.6590555552722</v>
+        <v>15.91642989190992</v>
       </c>
       <c r="E8">
-        <v>0.0736815376964607</v>
+        <v>0.018852194649904</v>
       </c>
       <c r="F8">
-        <v>0.287</v>
+        <v>0.363</v>
       </c>
       <c r="G8">
-        <v>0.017</v>
+        <v>0.743</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>14471</v>
+        <v>147361</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.324864673098271</v>
+        <v>14.49135395566542</v>
       </c>
       <c r="D9">
-        <v>160.6590555552722</v>
+        <v>0.2587207984172166</v>
       </c>
       <c r="E9">
-        <v>0.0736815376964607</v>
+        <v>0.0003064415126296055</v>
       </c>
       <c r="F9">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="G9">
-        <v>0.136</v>
+        <v>0.847</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>47239</v>
+        <v>233197</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.324876117233723</v>
+        <v>22.34990444146897</v>
       </c>
       <c r="D10">
-        <v>93.6080221468744</v>
+        <v>54.02109529872527</v>
       </c>
       <c r="E10">
-        <v>0.04293055868321837</v>
+        <v>0.06398521594910105</v>
       </c>
       <c r="F10">
-        <v>0.404</v>
+        <v>0.427</v>
       </c>
       <c r="G10">
-        <v>0.876</v>
+        <v>0.154</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -653,31 +790,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>11513</v>
+        <v>110635</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.054050651743514</v>
+        <v>11.12897540655291</v>
       </c>
       <c r="D11">
-        <v>167.5976045276225</v>
+        <v>14.9848314030722</v>
       </c>
       <c r="E11">
-        <v>0.07686369855193195</v>
+        <v>0.01774876403346584</v>
       </c>
       <c r="F11">
-        <v>0.481</v>
+        <v>0.445</v>
       </c>
       <c r="G11">
-        <v>0.959</v>
+        <v>0.107</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -688,422 +825,352 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>14471</v>
+        <v>85045</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2.324864673098271</v>
+        <v>8.786131996658312</v>
       </c>
       <c r="D12">
-        <v>160.6590555552722</v>
+        <v>38.61215556295361</v>
       </c>
       <c r="E12">
-        <v>0.0736815376964607</v>
+        <v>0.04573411735348818</v>
       </c>
       <c r="F12">
-        <v>0.554</v>
+        <v>0.491</v>
       </c>
       <c r="G12">
-        <v>0.844</v>
+        <v>0.403</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>0.24</v>
+        <v>0.85</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>232719</v>
+        <v>76213</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>22.30614206749751</v>
+        <v>7.977535162106179</v>
       </c>
       <c r="D13">
-        <v>53.37971191045681</v>
+        <v>49.31501239945509</v>
       </c>
       <c r="E13">
-        <v>0.02448103060087649</v>
+        <v>0.05841110219003998</v>
       </c>
       <c r="F13">
-        <v>0.579</v>
+        <v>0.549</v>
       </c>
       <c r="G13">
-        <v>0.011</v>
+        <v>0.209</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0.24</v>
+        <v>0.85</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>44281</v>
+        <v>215258</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>5.054062095878967</v>
+        <v>20.70753367436857</v>
       </c>
       <c r="D14">
-        <v>98.92168079263149</v>
+        <v>32.57594064405119</v>
       </c>
       <c r="E14">
-        <v>0.04536751151143152</v>
+        <v>0.03858453045663993</v>
       </c>
       <c r="F14">
-        <v>0.624</v>
+        <v>0.588</v>
       </c>
       <c r="G14">
-        <v>0.458</v>
+        <v>0.416</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="J14" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>3343</v>
+        <v>257924</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>1.306061958549341</v>
+        <v>24.61373754019753</v>
       </c>
       <c r="D15">
-        <v>187.5239390830895</v>
+        <v>92.42394949180319</v>
       </c>
       <c r="E15">
-        <v>0.08600232423117862</v>
+        <v>0.1094714265677131</v>
       </c>
       <c r="F15">
-        <v>0.71</v>
+        <v>0.697</v>
       </c>
       <c r="G15">
-        <v>0.512</v>
+        <v>0.898</v>
       </c>
       <c r="H15" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>29536</v>
+        <v>111655</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>3.704111877868186</v>
+        <v>11.22235955184765</v>
       </c>
       <c r="D16">
-        <v>127.5970884677186</v>
+        <v>14.27056735551665</v>
       </c>
       <c r="E16">
-        <v>0.05851864155057467</v>
+        <v>0.01690275491286589</v>
       </c>
       <c r="F16">
-        <v>0.769</v>
+        <v>0.714</v>
       </c>
       <c r="G16">
-        <v>0.882</v>
+        <v>0.885</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>211079</v>
+        <v>32613</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>20.32493333791099</v>
+        <v>3.985820716173996</v>
       </c>
       <c r="D17">
-        <v>28.35491505319585</v>
+        <v>121.3121452962619</v>
       </c>
       <c r="E17">
-        <v>0.01300414555003545</v>
+        <v>0.1436880124534092</v>
       </c>
       <c r="F17">
-        <v>0.782</v>
+        <v>0.858</v>
       </c>
       <c r="G17">
-        <v>0.533</v>
+        <v>0.163</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0.87</v>
+        <v>0.19</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>232719</v>
+        <v>206882</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>22.30614206749751</v>
+        <v>19.9406850459482</v>
       </c>
       <c r="D18">
-        <v>53.37971191045681</v>
+        <v>24.41036872325621</v>
       </c>
       <c r="E18">
-        <v>0.02448103060087649</v>
+        <v>0.02891282943297868</v>
       </c>
       <c r="F18">
-        <v>0.806</v>
+        <v>0.887</v>
       </c>
       <c r="G18">
-        <v>0.615</v>
+        <v>0.777</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>37478</v>
+        <v>69584</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>4.431226467996475</v>
+        <v>7.370629770773967</v>
       </c>
       <c r="D19">
-        <v>111.6989739707783</v>
+        <v>58.2072900946005</v>
       </c>
       <c r="E19">
-        <v>0.05122744020147951</v>
+        <v>0.06894354892139457</v>
       </c>
       <c r="F19">
-        <v>0.857</v>
+        <v>0.956</v>
       </c>
       <c r="G19">
-        <v>0.915</v>
+        <v>0.931</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I19">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>230700</v>
+        <v>189087</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>22.12129639166409</v>
+        <v>18.31149792288942</v>
       </c>
       <c r="D20">
-        <v>50.71286229792797</v>
+        <v>10.96601849330091</v>
       </c>
       <c r="E20">
-        <v>0.02325795867643876</v>
+        <v>0.01298868631810677</v>
       </c>
       <c r="F20">
-        <v>0.881</v>
+        <v>0.969</v>
       </c>
       <c r="G20">
-        <v>0.201</v>
+        <v>0.454</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>0.96</v>
+        <v>0.21</v>
       </c>
       <c r="J20" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>36111</v>
+        <v>96735</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>4.306073402684794</v>
+        <v>9.856387544202972</v>
       </c>
       <c r="D21">
-        <v>114.3600660687656</v>
+        <v>26.45674909543033</v>
       </c>
       <c r="E21">
-        <v>0.05244787161167257</v>
+        <v>0.03133666199882177</v>
       </c>
       <c r="F21">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.789</v>
+        <v>0.35</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>0.96</v>
+        <v>0.21</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>199951</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>19.30613062336206</v>
-      </c>
-      <c r="D22">
-        <v>18.54276094545651</v>
-      </c>
-      <c r="E22">
-        <v>0.008504090447171047</v>
-      </c>
-      <c r="F22">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="G22">
-        <v>0.281</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>0.96</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>29536</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>3.704111877868186</v>
-      </c>
-      <c r="D23">
-        <v>127.5970884677186</v>
-      </c>
-      <c r="E23">
-        <v>0.05851864155057467</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.261</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.96</v>
-      </c>
-      <c r="J23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1113,12 +1180,1426 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>32613</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>3.985820716173996</v>
+      </c>
+      <c r="D2">
+        <v>121.3121452962619</v>
+      </c>
+      <c r="E2">
+        <v>0.07563492055471965</v>
+      </c>
+      <c r="F2">
+        <v>0.076</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>40163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4.677046497522344</v>
+      </c>
+      <c r="D3">
+        <v>106.5633690143157</v>
+      </c>
+      <c r="E3">
+        <v>0.06643944783729251</v>
+      </c>
+      <c r="F3">
+        <v>0.142</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>32613</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3.985820716173996</v>
+      </c>
+      <c r="D4">
+        <v>121.3121452962619</v>
+      </c>
+      <c r="E4">
+        <v>0.07563492055471965</v>
+      </c>
+      <c r="F4">
+        <v>0.218</v>
+      </c>
+      <c r="G4">
+        <v>0.828</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>40163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4.677046497522344</v>
+      </c>
+      <c r="D5">
+        <v>106.5633690143157</v>
+      </c>
+      <c r="E5">
+        <v>0.06643944783729251</v>
+      </c>
+      <c r="F5">
+        <v>0.284</v>
+      </c>
+      <c r="G5">
+        <v>0.999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>46409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5.248887057827217</v>
+      </c>
+      <c r="D6">
+        <v>95.08420361100956</v>
+      </c>
+      <c r="E6">
+        <v>0.05928249120122599</v>
+      </c>
+      <c r="F6">
+        <v>0.343</v>
+      </c>
+      <c r="G6">
+        <v>0.592</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>183978</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>17.8437532186631</v>
+      </c>
+      <c r="D7">
+        <v>8.086932368656718</v>
+      </c>
+      <c r="E7">
+        <v>0.005041988877049305</v>
+      </c>
+      <c r="F7">
+        <v>0.348</v>
+      </c>
+      <c r="G7">
+        <v>0.32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>32609</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>3.985454503839507</v>
+      </c>
+      <c r="D8">
+        <v>121.3202124869894</v>
+      </c>
+      <c r="E8">
+        <v>0.07563995023520452</v>
+      </c>
+      <c r="F8">
+        <v>0.424</v>
+      </c>
+      <c r="G8">
+        <v>0.641</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>0.86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>32613</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>3.985820716173996</v>
+      </c>
+      <c r="D9">
+        <v>121.3121452962619</v>
+      </c>
+      <c r="E9">
+        <v>0.07563492055471965</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>0.86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>62341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>6.707510786097664</v>
+      </c>
+      <c r="D10">
+        <v>68.76537736268658</v>
+      </c>
+      <c r="E10">
+        <v>0.0428733977215584</v>
+      </c>
+      <c r="F10">
+        <v>0.543</v>
+      </c>
+      <c r="G10">
+        <v>0.066</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>40163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4.677046497522344</v>
+      </c>
+      <c r="D11">
+        <v>106.5633690143157</v>
+      </c>
+      <c r="E11">
+        <v>0.06643944783729251</v>
+      </c>
+      <c r="F11">
+        <v>0.609</v>
+      </c>
+      <c r="G11">
+        <v>0.946</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>233197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>22.34990444146897</v>
+      </c>
+      <c r="D12">
+        <v>54.02109529872527</v>
+      </c>
+      <c r="E12">
+        <v>0.03368072703041983</v>
+      </c>
+      <c r="F12">
+        <v>0.643</v>
+      </c>
+      <c r="G12">
+        <v>0.471</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0.29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>62341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6.707510786097664</v>
+      </c>
+      <c r="D13">
+        <v>68.76537736268658</v>
+      </c>
+      <c r="E13">
+        <v>0.0428733977215584</v>
+      </c>
+      <c r="F13">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.487</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>0.29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>233424</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>22.37068699145123</v>
+      </c>
+      <c r="D14">
+        <v>54.32702672594838</v>
+      </c>
+      <c r="E14">
+        <v>0.03387146720022478</v>
+      </c>
+      <c r="F14">
+        <v>0.719</v>
+      </c>
+      <c r="G14">
+        <v>0.311</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>68333</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>7.256096863162472</v>
+      </c>
+      <c r="D15">
+        <v>59.9680357927221</v>
+      </c>
+      <c r="E15">
+        <v>0.03738848745876463</v>
+      </c>
+      <c r="F15">
+        <v>0.757</v>
+      </c>
+      <c r="G15">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>0.72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>226181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>21.70756800677493</v>
+      </c>
+      <c r="D16">
+        <v>44.99146856551057</v>
+      </c>
+      <c r="E16">
+        <v>0.02805099309951298</v>
+      </c>
+      <c r="F16">
+        <v>0.785</v>
+      </c>
+      <c r="G16">
+        <v>0.676</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>43042</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>4.94062782527094</v>
+      </c>
+      <c r="D17">
+        <v>101.1909685497132</v>
+      </c>
+      <c r="E17">
+        <v>0.06308989795227481</v>
+      </c>
+      <c r="F17">
+        <v>0.848</v>
+      </c>
+      <c r="G17">
+        <v>0.252</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>4048</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1.370606882503061</v>
+      </c>
+      <c r="D18">
+        <v>185.7603567512729</v>
+      </c>
+      <c r="E18">
+        <v>0.1158166792845584</v>
+      </c>
+      <c r="F18">
+        <v>0.964</v>
+      </c>
+      <c r="G18">
+        <v>0.345</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>0.62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>98149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>9.985843604444902</v>
+      </c>
+      <c r="D19">
+        <v>25.14176435908609</v>
+      </c>
+      <c r="E19">
+        <v>0.01567522646031019</v>
+      </c>
+      <c r="F19">
+        <v>0.98</v>
+      </c>
+      <c r="G19">
+        <v>0.871</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>0.62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>98189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>9.989505727789794</v>
+      </c>
+      <c r="D20">
+        <v>25.10505285185128</v>
+      </c>
+      <c r="E20">
+        <v>0.01565233780455055</v>
+      </c>
+      <c r="F20">
+        <v>0.995</v>
+      </c>
+      <c r="G20">
+        <v>0.596</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>183349</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>17.78616632906467</v>
+      </c>
+      <c r="D21">
+        <v>7.762722813213701</v>
+      </c>
+      <c r="E21">
+        <v>0.004839852776750952</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>43042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>4.94062782527094</v>
+      </c>
+      <c r="D2">
+        <v>101.1909685497132</v>
+      </c>
+      <c r="E2">
+        <v>0.04927293961104857</v>
+      </c>
+      <c r="F2">
+        <v>0.049</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>40163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4.677046497522344</v>
+      </c>
+      <c r="D3">
+        <v>106.5633690143157</v>
+      </c>
+      <c r="E3">
+        <v>0.05188892369987244</v>
+      </c>
+      <c r="F3">
+        <v>0.101</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>7395</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1.677035053386892</v>
+      </c>
+      <c r="D4">
+        <v>177.5013949686816</v>
+      </c>
+      <c r="E4">
+        <v>0.08643079160638704</v>
+      </c>
+      <c r="F4">
+        <v>0.188</v>
+      </c>
+      <c r="G4">
+        <v>0.475</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0.24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>43042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>4.94062782527094</v>
+      </c>
+      <c r="D5">
+        <v>101.1909685497132</v>
+      </c>
+      <c r="E5">
+        <v>0.04927293961104857</v>
+      </c>
+      <c r="F5">
+        <v>0.237</v>
+      </c>
+      <c r="G5">
+        <v>0.792</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>46409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5.248887057827217</v>
+      </c>
+      <c r="D6">
+        <v>95.08420361100956</v>
+      </c>
+      <c r="E6">
+        <v>0.04629937127430724</v>
+      </c>
+      <c r="F6">
+        <v>0.283</v>
+      </c>
+      <c r="G6">
+        <v>0.339</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>183978</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>17.8437532186631</v>
+      </c>
+      <c r="D7">
+        <v>8.086932368656718</v>
+      </c>
+      <c r="E7">
+        <v>0.003937771680124764</v>
+      </c>
+      <c r="F7">
+        <v>0.287</v>
+      </c>
+      <c r="G7">
+        <v>0.751</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>43042</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>4.94062782527094</v>
+      </c>
+      <c r="D8">
+        <v>101.1909685497132</v>
+      </c>
+      <c r="E8">
+        <v>0.04927293961104857</v>
+      </c>
+      <c r="F8">
+        <v>0.336</v>
+      </c>
+      <c r="G8">
+        <v>0.708</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0.49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>43042</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>4.94062782527094</v>
+      </c>
+      <c r="D9">
+        <v>101.1909685497132</v>
+      </c>
+      <c r="E9">
+        <v>0.04927293961104857</v>
+      </c>
+      <c r="F9">
+        <v>0.386</v>
+      </c>
+      <c r="G9">
+        <v>0.431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0.49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>7395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1.677035053386892</v>
+      </c>
+      <c r="D10">
+        <v>177.5013949686816</v>
+      </c>
+      <c r="E10">
+        <v>0.08643079160638704</v>
+      </c>
+      <c r="F10">
+        <v>0.472</v>
+      </c>
+      <c r="G10">
+        <v>0.458</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0.32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>65381</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>6.98583216030945</v>
+      </c>
+      <c r="D11">
+        <v>64.22688616273031</v>
+      </c>
+      <c r="E11">
+        <v>0.03127401119544744</v>
+      </c>
+      <c r="F11">
+        <v>0.503</v>
+      </c>
+      <c r="G11">
+        <v>0.03</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>65381</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>6.98583216030945</v>
+      </c>
+      <c r="D12">
+        <v>64.22688616273031</v>
+      </c>
+      <c r="E12">
+        <v>0.03127401119544744</v>
+      </c>
+      <c r="F12">
+        <v>0.535</v>
+      </c>
+      <c r="G12">
+        <v>0.555</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0.26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>29573</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>3.707499341962211</v>
+      </c>
+      <c r="D13">
+        <v>127.5205711117839</v>
+      </c>
+      <c r="E13">
+        <v>0.0620936185275317</v>
+      </c>
+      <c r="F13">
+        <v>0.597</v>
+      </c>
+      <c r="G13">
+        <v>0.291</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>0.26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>45957</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>5.207505064029938</v>
+      </c>
+      <c r="D14">
+        <v>95.8929570709993</v>
+      </c>
+      <c r="E14">
+        <v>0.04669317776677819</v>
+      </c>
+      <c r="F14">
+        <v>0.643</v>
+      </c>
+      <c r="G14">
+        <v>0.62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0.92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>98149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>9.985843604444902</v>
+      </c>
+      <c r="D15">
+        <v>25.14176435908609</v>
+      </c>
+      <c r="E15">
+        <v>0.01224228461032922</v>
+      </c>
+      <c r="F15">
+        <v>0.656</v>
+      </c>
+      <c r="G15">
+        <v>0.597</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>0.92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>4048</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1.370606882503061</v>
+      </c>
+      <c r="D16">
+        <v>185.7603567512729</v>
+      </c>
+      <c r="E16">
+        <v>0.0904523296052417</v>
+      </c>
+      <c r="F16">
+        <v>0.746</v>
+      </c>
+      <c r="G16">
+        <v>0.234</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <v>0.02</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>32613</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>3.985820716173996</v>
+      </c>
+      <c r="D17">
+        <v>121.3121452962619</v>
+      </c>
+      <c r="E17">
+        <v>0.0590705484386472</v>
+      </c>
+      <c r="F17">
+        <v>0.805</v>
+      </c>
+      <c r="G17">
+        <v>0.227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>65381</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>6.98583216030945</v>
+      </c>
+      <c r="D18">
+        <v>64.22688616273031</v>
+      </c>
+      <c r="E18">
+        <v>0.03127401119544744</v>
+      </c>
+      <c r="F18">
+        <v>0.836</v>
+      </c>
+      <c r="G18">
+        <v>0.746</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0.63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>75810</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>7.940639269406392</v>
+      </c>
+      <c r="D19">
+        <v>49.83457392464712</v>
+      </c>
+      <c r="E19">
+        <v>0.02426595956856697</v>
+      </c>
+      <c r="F19">
+        <v>0.861</v>
+      </c>
+      <c r="G19">
+        <v>0.257</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>0.63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>261985</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>24.98553461278767</v>
+      </c>
+      <c r="D20">
+        <v>99.71090150318069</v>
+      </c>
+      <c r="E20">
+        <v>0.04855225025260772</v>
+      </c>
+      <c r="F20">
+        <v>0.909</v>
+      </c>
+      <c r="G20">
+        <v>0.611</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>0.57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>3821</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>1.3498243325208</v>
+      </c>
+      <c r="D21">
+        <v>186.3272957530412</v>
+      </c>
+      <c r="E21">
+        <v>0.09072838933268224</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.132</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>0.57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GA.xlsx
+++ b/GA.xlsx
@@ -10,132 +10,164 @@
     <sheet name="GER 1" sheetId="1" r:id="rId1"/>
     <sheet name="GER 2" sheetId="2" r:id="rId2"/>
     <sheet name="GER 3" sheetId="3" r:id="rId3"/>
+    <sheet name="GER 4" sheetId="4" r:id="rId4"/>
+    <sheet name="GER 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
-  <si>
-    <t>101101100100110000</t>
-  </si>
-  <si>
-    <t>001001110011100011</t>
-  </si>
-  <si>
-    <t>001111001110000101</t>
-  </si>
-  <si>
-    <t>100001000111110111</t>
-  </si>
-  <si>
-    <t>001011010101001001</t>
-  </si>
-  <si>
-    <t>101100111010101010</t>
-  </si>
-  <si>
-    <t>101111111110001101</t>
-  </si>
-  <si>
-    <t>100011111110100001</t>
-  </si>
-  <si>
-    <t>111000111011101101</t>
-  </si>
-  <si>
-    <t>011011000000101011</t>
-  </si>
-  <si>
-    <t>010100110000110101</t>
-  </si>
-  <si>
-    <t>010010100110110101</t>
-  </si>
-  <si>
-    <t>110100100011011010</t>
-  </si>
-  <si>
-    <t>111110111110000100</t>
-  </si>
-  <si>
-    <t>011011010000100111</t>
-  </si>
-  <si>
-    <t>000111111101100101</t>
-  </si>
-  <si>
-    <t>110010100000100010</t>
-  </si>
-  <si>
-    <t>010000111111010000</t>
-  </si>
-  <si>
-    <t>101110001010011111</t>
-  </si>
-  <si>
-    <t>010111100111011111</t>
-  </si>
-  <si>
-    <t>111000111111010000</t>
-  </si>
-  <si>
-    <t>010000111011101101</t>
-  </si>
-  <si>
-    <t>110111001110000101</t>
-  </si>
-  <si>
-    <t>001010100000100010</t>
-  </si>
-  <si>
-    <t>000000111111010000</t>
-  </si>
-  <si>
-    <t>010111111101100101</t>
-  </si>
-  <si>
-    <t>010111111110001101</t>
-  </si>
-  <si>
-    <t>101100110000110101</t>
-  </si>
-  <si>
-    <t>000111111101100001</t>
-  </si>
-  <si>
-    <t>010000101011101101</t>
-  </si>
-  <si>
-    <t>000001110011100011</t>
-  </si>
-  <si>
-    <t>001111111101100101</t>
-  </si>
-  <si>
-    <t>000111001110000101</t>
-  </si>
-  <si>
-    <t>010010100000100010</t>
-  </si>
-  <si>
-    <t>111111111101100001</t>
-  </si>
-  <si>
-    <t>000000111011101101</t>
-  </si>
-  <si>
-    <t>001011001110000101</t>
-  </si>
-  <si>
-    <t>000010100000100010</t>
-  </si>
-  <si>
-    <t>000111011101100101</t>
-  </si>
-  <si>
-    <t>010001110011100011</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="50">
+  <si>
+    <t>111101110001011010</t>
+  </si>
+  <si>
+    <t>100110101000011101</t>
+  </si>
+  <si>
+    <t>010000110011110110</t>
+  </si>
+  <si>
+    <t>111000001110000110</t>
+  </si>
+  <si>
+    <t>011001100010001010</t>
+  </si>
+  <si>
+    <t>111101111011011110</t>
+  </si>
+  <si>
+    <t>110111001101100010</t>
+  </si>
+  <si>
+    <t>110100111111011101</t>
+  </si>
+  <si>
+    <t>111110110101101001</t>
+  </si>
+  <si>
+    <t>000110111110010100</t>
+  </si>
+  <si>
+    <t>010001101011100000</t>
+  </si>
+  <si>
+    <t>011011000100010001</t>
+  </si>
+  <si>
+    <t>001010011111000011</t>
+  </si>
+  <si>
+    <t>111010111100110101</t>
+  </si>
+  <si>
+    <t>010101101010000100</t>
+  </si>
+  <si>
+    <t>001000000011010100</t>
+  </si>
+  <si>
+    <t>000010111110110111</t>
+  </si>
+  <si>
+    <t>101111010001010011</t>
+  </si>
+  <si>
+    <t>010101101100001100</t>
+  </si>
+  <si>
+    <t>001011000011000000</t>
+  </si>
+  <si>
+    <t>110000110011110110</t>
+  </si>
+  <si>
+    <t>010111001101100010</t>
+  </si>
+  <si>
+    <t>111010011111000011</t>
+  </si>
+  <si>
+    <t>001000001110000110</t>
+  </si>
+  <si>
+    <t>000100111110010100</t>
+  </si>
+  <si>
+    <t>011111001101100010</t>
+  </si>
+  <si>
+    <t>000000110011110110</t>
+  </si>
+  <si>
+    <t>110110111110010100</t>
+  </si>
+  <si>
+    <t>010010111110110111</t>
+  </si>
+  <si>
+    <t>011000110011110110</t>
+  </si>
+  <si>
+    <t>011111010001010011</t>
+  </si>
+  <si>
+    <t>101111001101100010</t>
+  </si>
+  <si>
+    <t>010000111011110110</t>
+  </si>
+  <si>
+    <t>000010111110110011</t>
+  </si>
+  <si>
+    <t>110010111110110111</t>
+  </si>
+  <si>
+    <t>110101110001011010</t>
+  </si>
+  <si>
+    <t>111110111110010100</t>
+  </si>
+  <si>
+    <t>000000111011110110</t>
+  </si>
+  <si>
+    <t>101000110011110110</t>
+  </si>
+  <si>
+    <t>010111011101100010</t>
+  </si>
+  <si>
+    <t>110110111010010100</t>
+  </si>
+  <si>
+    <t>000111001101100010</t>
+  </si>
+  <si>
+    <t>110000111011110110</t>
+  </si>
+  <si>
+    <t>111000110011110110</t>
+  </si>
+  <si>
+    <t>010101110001011010</t>
+  </si>
+  <si>
+    <t>111110111010010100</t>
+  </si>
+  <si>
+    <t>000000111011010110</t>
+  </si>
+  <si>
+    <t>000000100011110110</t>
+  </si>
+  <si>
+    <t>010000111111110110</t>
+  </si>
+  <si>
+    <t>100000110011110110</t>
   </si>
 </sst>
 </file>
@@ -475,276 +507,276 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>186672</v>
+        <v>253018</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>18.09039722594157</v>
+        <v>24.16457811194653</v>
       </c>
       <c r="D2">
-        <v>9.550555014107323</v>
+        <v>83.98949196996948</v>
       </c>
       <c r="E2">
-        <v>0.01131214244421006</v>
+        <v>0.06453034635859162</v>
       </c>
       <c r="F2">
-        <v>0.011</v>
+        <v>0.065</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>40163</v>
+        <v>158237</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.677046497522344</v>
+        <v>15.48708529314153</v>
       </c>
       <c r="D3">
-        <v>106.5633690143157</v>
+        <v>0.2372520827947695</v>
       </c>
       <c r="E3">
-        <v>0.1262188436006337</v>
+        <v>0.0001822842205369908</v>
       </c>
       <c r="F3">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>62341</v>
+        <v>68854</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.707510786097664</v>
+        <v>7.303796019729689</v>
       </c>
       <c r="D4">
-        <v>68.76537736268658</v>
+        <v>59.23155570592858</v>
       </c>
       <c r="E4">
-        <v>0.08144906163123929</v>
+        <v>0.04550846439728946</v>
       </c>
       <c r="F4">
-        <v>0.219</v>
+        <v>0.11</v>
       </c>
       <c r="G4">
-        <v>0.723</v>
+        <v>0.259</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>135671</v>
+        <v>230278</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.42109840812076</v>
+        <v>22.08266099037548</v>
       </c>
       <c r="D5">
-        <v>2.492930236838806</v>
+        <v>50.16408670458657</v>
       </c>
       <c r="E5">
-        <v>0.002952747971289997</v>
+        <v>0.0385417962876454</v>
       </c>
       <c r="F5">
-        <v>0.222</v>
+        <v>0.149</v>
       </c>
       <c r="G5">
-        <v>0.097</v>
+        <v>0.073</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>46409</v>
+        <v>104586</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.248887057827217</v>
+        <v>10.57517080372163</v>
       </c>
       <c r="D6">
-        <v>95.08420361100956</v>
+        <v>19.57911341623746</v>
       </c>
       <c r="E6">
-        <v>0.1126223610934876</v>
+        <v>0.01504291716153847</v>
       </c>
       <c r="F6">
-        <v>0.335</v>
+        <v>0.164</v>
       </c>
       <c r="G6">
-        <v>0.228</v>
+        <v>0.797</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>183978</v>
+        <v>253662</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>17.8437532186631</v>
+        <v>24.22353829779929</v>
       </c>
       <c r="D7">
-        <v>8.086932368656718</v>
+        <v>85.07365873097024</v>
       </c>
       <c r="E7">
-        <v>0.009578556508580926</v>
+        <v>0.0653633274251144</v>
       </c>
       <c r="F7">
-        <v>0.344</v>
+        <v>0.229</v>
       </c>
       <c r="G7">
-        <v>0.336</v>
+        <v>0.602</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>196493</v>
+        <v>226146</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>18.98954006019615</v>
+        <v>21.70436364884815</v>
       </c>
       <c r="D8">
-        <v>15.91642989190992</v>
+        <v>44.94849193599644</v>
       </c>
       <c r="E8">
-        <v>0.018852194649904</v>
+        <v>0.03453457908714705</v>
       </c>
       <c r="F8">
-        <v>0.363</v>
+        <v>0.264</v>
       </c>
       <c r="G8">
-        <v>0.743</v>
+        <v>0.361</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>147361</v>
+        <v>217053</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>14.49135395566542</v>
+        <v>20.87187145947059</v>
       </c>
       <c r="D9">
-        <v>0.2587207984172166</v>
+        <v>34.47887443654532</v>
       </c>
       <c r="E9">
-        <v>0.0003064415126296055</v>
+        <v>0.02649061992469471</v>
       </c>
       <c r="F9">
-        <v>0.363</v>
+        <v>0.29</v>
       </c>
       <c r="G9">
-        <v>0.847</v>
+        <v>0.751</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -755,241 +787,241 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>233197</v>
+        <v>257385</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>22.34990444146897</v>
+        <v>24.5643904281251</v>
       </c>
       <c r="D10">
-        <v>54.02109529872527</v>
+        <v>91.47756426161112</v>
       </c>
       <c r="E10">
-        <v>0.06398521594910105</v>
+        <v>0.07028354104049991</v>
       </c>
       <c r="F10">
-        <v>0.427</v>
+        <v>0.36</v>
       </c>
       <c r="G10">
-        <v>0.154</v>
+        <v>0.115</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>110635</v>
+        <v>28564</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>11.12897540655291</v>
+        <v>3.615122280587313</v>
       </c>
       <c r="D11">
-        <v>14.9848314030722</v>
+        <v>129.6154406859794</v>
       </c>
       <c r="E11">
-        <v>0.01774876403346584</v>
+        <v>0.09958542532771054</v>
       </c>
       <c r="F11">
-        <v>0.445</v>
+        <v>0.46</v>
       </c>
       <c r="G11">
-        <v>0.107</v>
+        <v>0.803</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>85045</v>
+        <v>72416</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.786131996658312</v>
+        <v>7.629908103592314</v>
       </c>
       <c r="D12">
-        <v>38.61215556295361</v>
+        <v>54.31825456149424</v>
       </c>
       <c r="E12">
-        <v>0.04573411735348818</v>
+        <v>0.04173350377807562</v>
       </c>
       <c r="F12">
-        <v>0.491</v>
+        <v>0.502</v>
       </c>
       <c r="G12">
-        <v>0.403</v>
+        <v>0.664</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>76213</v>
+        <v>110865</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.977535162106179</v>
+        <v>11.15003261578604</v>
       </c>
       <c r="D13">
-        <v>49.31501239945509</v>
+        <v>14.82224885951128</v>
       </c>
       <c r="E13">
-        <v>0.05841110219003998</v>
+        <v>0.01138814904440063</v>
       </c>
       <c r="F13">
-        <v>0.549</v>
+        <v>0.513</v>
       </c>
       <c r="G13">
-        <v>0.209</v>
+        <v>0.195</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="J13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>215258</v>
+        <v>42947</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>20.70753367436857</v>
+        <v>4.931930282326821</v>
       </c>
       <c r="D14">
-        <v>32.57594064405119</v>
+        <v>101.3660278399277</v>
       </c>
       <c r="E14">
-        <v>0.03858453045663993</v>
+        <v>0.0778809912059473</v>
       </c>
       <c r="F14">
-        <v>0.588</v>
+        <v>0.591</v>
       </c>
       <c r="G14">
-        <v>0.416</v>
+        <v>0.894</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I14">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>257924</v>
+        <v>241461</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>24.61373754019753</v>
+        <v>23.10649912452364</v>
       </c>
       <c r="D15">
-        <v>92.42394949180319</v>
+        <v>65.71532805590249</v>
       </c>
       <c r="E15">
-        <v>0.1094714265677131</v>
+        <v>0.05049004084977801</v>
       </c>
       <c r="F15">
-        <v>0.697</v>
+        <v>0.642</v>
       </c>
       <c r="G15">
-        <v>0.898</v>
+        <v>0.803</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>111655</v>
+        <v>88708</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>11.22235955184765</v>
+        <v>9.121490941966789</v>
       </c>
       <c r="D16">
-        <v>14.27056735551665</v>
+        <v>34.55686874537852</v>
       </c>
       <c r="E16">
-        <v>0.01690275491286589</v>
+        <v>0.02655054408478851</v>
       </c>
       <c r="F16">
-        <v>0.714</v>
+        <v>0.668</v>
       </c>
       <c r="G16">
-        <v>0.885</v>
+        <v>0.116</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -1000,31 +1032,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>32613</v>
+        <v>32980</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.985820716173996</v>
+        <v>4.01942069786338</v>
       </c>
       <c r="D17">
-        <v>121.3121452962619</v>
+        <v>120.5731218105111</v>
       </c>
       <c r="E17">
-        <v>0.1436880124534092</v>
+        <v>0.0926380804250002</v>
       </c>
       <c r="F17">
-        <v>0.858</v>
+        <v>0.761</v>
       </c>
       <c r="G17">
-        <v>0.163</v>
+        <v>0.588</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1035,142 +1067,142 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>206882</v>
+        <v>12215</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>19.9406850459482</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D18">
-        <v>24.41036872325621</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E18">
-        <v>0.02891282943297868</v>
+        <v>0.1274923108261462</v>
       </c>
       <c r="F18">
-        <v>0.887</v>
+        <v>0.888</v>
       </c>
       <c r="G18">
-        <v>0.777</v>
+        <v>0.093</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0.26</v>
+        <v>0.91</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>69584</v>
+        <v>193619</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.370629770773967</v>
+        <v>18.72641649786567</v>
       </c>
       <c r="D19">
-        <v>58.2072900946005</v>
+        <v>13.88617991556542</v>
       </c>
       <c r="E19">
-        <v>0.06894354892139457</v>
+        <v>0.01066895368136707</v>
       </c>
       <c r="F19">
-        <v>0.956</v>
+        <v>0.899</v>
       </c>
       <c r="G19">
-        <v>0.931</v>
+        <v>0.039</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.26</v>
+        <v>0.91</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>189087</v>
+        <v>88844</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>18.31149792288942</v>
+        <v>9.133942161339421</v>
       </c>
       <c r="D20">
-        <v>10.96601849330091</v>
+        <v>34.41063456651122</v>
       </c>
       <c r="E20">
-        <v>0.01298868631810677</v>
+        <v>0.02643819024158221</v>
       </c>
       <c r="F20">
-        <v>0.969</v>
+        <v>0.925</v>
       </c>
       <c r="G20">
-        <v>0.454</v>
+        <v>0.351</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>0.21</v>
+        <v>0.74</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>96735</v>
+        <v>45248</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.856387544202972</v>
+        <v>5.142593927741729</v>
       </c>
       <c r="D21">
-        <v>26.45674909543033</v>
+        <v>97.16845447339425</v>
       </c>
       <c r="E21">
-        <v>0.03133666199882177</v>
+        <v>0.07465593463214576</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.35</v>
+        <v>0.747</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>0.21</v>
+        <v>0.74</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1188,276 +1220,276 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>32613</v>
+        <v>12215</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>3.985820716173996</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D2">
-        <v>121.3121452962619</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E2">
-        <v>0.07563492055471965</v>
+        <v>0.08865318489873307</v>
       </c>
       <c r="F2">
-        <v>0.076</v>
+        <v>0.089</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>40163</v>
+        <v>20372</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>4.677046497522344</v>
+        <v>2.86511941955345</v>
       </c>
       <c r="D3">
-        <v>106.5633690143157</v>
+        <v>147.2553267016988</v>
       </c>
       <c r="E3">
-        <v>0.06643944783729251</v>
+        <v>0.07867203875949341</v>
       </c>
       <c r="F3">
-        <v>0.142</v>
+        <v>0.167</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>32613</v>
+        <v>199926</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>3.985820716173996</v>
+        <v>19.3038417962715</v>
       </c>
       <c r="D4">
-        <v>121.3121452962619</v>
+        <v>18.52305420733348</v>
       </c>
       <c r="E4">
-        <v>0.07563492055471965</v>
+        <v>0.009896052463321352</v>
       </c>
       <c r="F4">
-        <v>0.218</v>
+        <v>0.177</v>
       </c>
       <c r="G4">
-        <v>0.828</v>
+        <v>0.67</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>40163</v>
+        <v>127842</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>4.677046497522344</v>
+        <v>12.70432931644179</v>
       </c>
       <c r="D5">
-        <v>106.5633690143157</v>
+        <v>5.270103887348621</v>
       </c>
       <c r="E5">
-        <v>0.06643944783729251</v>
+        <v>0.002815584512823362</v>
       </c>
       <c r="F5">
-        <v>0.284</v>
+        <v>0.18</v>
       </c>
       <c r="G5">
-        <v>0.999</v>
+        <v>0.094</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>46409</v>
+        <v>12215</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>5.248887057827217</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D6">
-        <v>95.08420361100956</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E6">
-        <v>0.05928249120122599</v>
+        <v>0.08865318489873307</v>
       </c>
       <c r="F6">
-        <v>0.343</v>
+        <v>0.269</v>
       </c>
       <c r="G6">
-        <v>0.592</v>
+        <v>0.478</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>183978</v>
+        <v>241461</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>17.8437532186631</v>
+        <v>23.10649912452364</v>
       </c>
       <c r="D7">
-        <v>8.086932368656718</v>
+        <v>65.71532805590249</v>
       </c>
       <c r="E7">
-        <v>0.005041988877049305</v>
+        <v>0.03510880693898282</v>
       </c>
       <c r="F7">
-        <v>0.348</v>
+        <v>0.304</v>
       </c>
       <c r="G7">
-        <v>0.32</v>
+        <v>0.036</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>32609</v>
+        <v>28564</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.985454503839507</v>
+        <v>3.615122280587313</v>
       </c>
       <c r="D8">
-        <v>121.3202124869894</v>
+        <v>129.6154406859794</v>
       </c>
       <c r="E8">
-        <v>0.07563995023520452</v>
+        <v>0.06924782418318151</v>
       </c>
       <c r="F8">
-        <v>0.424</v>
+        <v>0.373</v>
       </c>
       <c r="G8">
-        <v>0.641</v>
+        <v>0.187</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>32613</v>
+        <v>32980</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>3.985820716173996</v>
+        <v>4.01942069786338</v>
       </c>
       <c r="D9">
-        <v>121.3121452962619</v>
+        <v>120.5731218105111</v>
       </c>
       <c r="E9">
-        <v>0.07563492055471965</v>
+        <v>0.06441691125812578</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.437</v>
       </c>
       <c r="G9">
-        <v>0.442</v>
+        <v>0.077</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1468,422 +1500,422 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>62341</v>
+        <v>230278</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>6.707510786097664</v>
+        <v>22.08266099037548</v>
       </c>
       <c r="D10">
-        <v>68.76537736268658</v>
+        <v>50.16408670458657</v>
       </c>
       <c r="E10">
-        <v>0.0428733977215584</v>
+        <v>0.02680046326305352</v>
       </c>
       <c r="F10">
-        <v>0.543</v>
+        <v>0.464</v>
       </c>
       <c r="G10">
-        <v>0.066</v>
+        <v>0.381</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>40163</v>
+        <v>12215</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.677046497522344</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D11">
-        <v>106.5633690143157</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E11">
-        <v>0.06643944783729251</v>
+        <v>0.08865318489873307</v>
       </c>
       <c r="F11">
-        <v>0.609</v>
+        <v>0.553</v>
       </c>
       <c r="G11">
-        <v>0.946</v>
+        <v>0.984</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>233197</v>
+        <v>88708</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>22.34990444146897</v>
+        <v>9.121490941966789</v>
       </c>
       <c r="D12">
-        <v>54.02109529872527</v>
+        <v>34.55686874537852</v>
       </c>
       <c r="E12">
-        <v>0.03368072703041983</v>
+        <v>0.01846221374966248</v>
       </c>
       <c r="F12">
-        <v>0.643</v>
+        <v>0.571</v>
       </c>
       <c r="G12">
-        <v>0.471</v>
+        <v>0.357</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>62341</v>
+        <v>253662</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>6.707510786097664</v>
+        <v>24.22353829779929</v>
       </c>
       <c r="D13">
-        <v>68.76537736268658</v>
+        <v>85.07365873097024</v>
       </c>
       <c r="E13">
-        <v>0.0428733977215584</v>
+        <v>0.04545111084947661</v>
       </c>
       <c r="F13">
-        <v>0.6860000000000001</v>
+        <v>0.617</v>
       </c>
       <c r="G13">
-        <v>0.487</v>
+        <v>0.349</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>233424</v>
+        <v>193619</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>22.37068699145123</v>
+        <v>18.72641649786567</v>
       </c>
       <c r="D14">
-        <v>54.32702672594838</v>
+        <v>13.88617991556542</v>
       </c>
       <c r="E14">
-        <v>0.03387146720022478</v>
+        <v>0.00741877464814357</v>
       </c>
       <c r="F14">
-        <v>0.719</v>
+        <v>0.624</v>
       </c>
       <c r="G14">
-        <v>0.311</v>
+        <v>0.881</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>68333</v>
+        <v>12215</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>7.256096863162472</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D15">
-        <v>59.9680357927221</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E15">
-        <v>0.03738848745876463</v>
+        <v>0.08865318489873307</v>
       </c>
       <c r="F15">
-        <v>0.757</v>
+        <v>0.713</v>
       </c>
       <c r="G15">
-        <v>0.08799999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>226181</v>
+        <v>239555</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>21.70756800677493</v>
+        <v>22.93199894713954</v>
       </c>
       <c r="D16">
-        <v>44.99146856551057</v>
+        <v>62.91660729742272</v>
       </c>
       <c r="E16">
-        <v>0.02805099309951298</v>
+        <v>0.03361357363965268</v>
       </c>
       <c r="F16">
-        <v>0.785</v>
+        <v>0.747</v>
       </c>
       <c r="G16">
-        <v>0.676</v>
+        <v>0.981</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>0.9399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>43042</v>
+        <v>33670</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>4.94062782527094</v>
+        <v>4.082592325562765</v>
       </c>
       <c r="D17">
-        <v>101.1909685497132</v>
+        <v>119.1897903298611</v>
       </c>
       <c r="E17">
-        <v>0.06308989795227481</v>
+        <v>0.0636778581433723</v>
       </c>
       <c r="F17">
-        <v>0.848</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G17">
-        <v>0.252</v>
+        <v>0.323</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I17">
-        <v>0.9399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>4048</v>
+        <v>68854</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1.370606882503061</v>
+        <v>7.303796019729689</v>
       </c>
       <c r="D18">
-        <v>185.7603567512729</v>
+        <v>59.23155570592858</v>
       </c>
       <c r="E18">
-        <v>0.1158166792845584</v>
+        <v>0.03164481279323492</v>
       </c>
       <c r="F18">
-        <v>0.964</v>
+        <v>0.842</v>
       </c>
       <c r="G18">
-        <v>0.345</v>
+        <v>0.393</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>98149</v>
+        <v>253018</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>9.985843604444902</v>
+        <v>24.16457811194653</v>
       </c>
       <c r="D19">
-        <v>25.14176435908609</v>
+        <v>83.98949196996948</v>
       </c>
       <c r="E19">
-        <v>0.01567522646031019</v>
+        <v>0.0448718882749616</v>
       </c>
       <c r="F19">
-        <v>0.98</v>
+        <v>0.887</v>
       </c>
       <c r="G19">
-        <v>0.871</v>
+        <v>0.698</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I19">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>98189</v>
+        <v>257385</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>9.989505727789794</v>
+        <v>24.5643904281251</v>
       </c>
       <c r="D20">
-        <v>25.10505285185128</v>
+        <v>91.47756426161112</v>
       </c>
       <c r="E20">
-        <v>0.01565233780455055</v>
+        <v>0.04887243566945612</v>
       </c>
       <c r="F20">
-        <v>0.995</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G20">
-        <v>0.596</v>
+        <v>0.179</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>183349</v>
+        <v>32980</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>17.78616632906467</v>
+        <v>4.01942069786338</v>
       </c>
       <c r="D21">
-        <v>7.762722813213701</v>
+        <v>120.5731218105111</v>
       </c>
       <c r="E21">
-        <v>0.004839852776750952</v>
+        <v>0.06441691125812578</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.104</v>
+        <v>0.724</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I21">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1901,54 +1933,1480 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>43042</v>
+        <v>69366</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>4.94062782527094</v>
+        <v>7.350671198544306</v>
       </c>
       <c r="D2">
-        <v>101.1909685497132</v>
+        <v>58.51223111277961</v>
       </c>
       <c r="E2">
-        <v>0.04927293961104857</v>
+        <v>0.03502603215804002</v>
       </c>
       <c r="F2">
-        <v>0.049</v>
+        <v>0.035</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>40163</v>
+        <v>12211</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2.117954704111878</v>
+      </c>
+      <c r="D3">
+        <v>165.9470910053133</v>
+      </c>
+      <c r="E3">
+        <v>0.09933766044371194</v>
+      </c>
+      <c r="F3">
+        <v>0.134</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1.303773131458784</v>
+      </c>
+      <c r="D4">
+        <v>187.5866304345504</v>
+      </c>
+      <c r="E4">
+        <v>0.112291314568996</v>
+      </c>
+      <c r="F4">
+        <v>0.247</v>
+      </c>
+      <c r="G4">
+        <v>0.068</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>0.19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>225172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>21.61519094540003</v>
+      </c>
+      <c r="D5">
+        <v>43.76075124410255</v>
+      </c>
+      <c r="E5">
+        <v>0.02619564236717604</v>
+      </c>
+      <c r="F5">
+        <v>0.273</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>0.19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>77751</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>8.118343804717272</v>
+      </c>
+      <c r="D6">
+        <v>47.35719199007315</v>
+      </c>
+      <c r="E6">
+        <v>0.02834850932895797</v>
+      </c>
+      <c r="F6">
+        <v>0.301</v>
+      </c>
+      <c r="G6">
+        <v>0.362</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>0.31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>3318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1.303773131458784</v>
+      </c>
+      <c r="D7">
+        <v>187.5866304345504</v>
+      </c>
+      <c r="E7">
+        <v>0.112291314568996</v>
+      </c>
+      <c r="F7">
+        <v>0.413</v>
+      </c>
+      <c r="G7">
+        <v>0.649</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>12215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2.118320916446367</v>
+      </c>
+      <c r="D8">
+        <v>165.9376560116632</v>
+      </c>
+      <c r="E8">
+        <v>0.09933201255805255</v>
+      </c>
+      <c r="F8">
+        <v>0.513</v>
+      </c>
+      <c r="G8">
+        <v>0.166</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>0.77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>33670</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>4.082592325562765</v>
+      </c>
+      <c r="D9">
+        <v>119.1897903298611</v>
+      </c>
+      <c r="E9">
+        <v>0.07134825231594968</v>
+      </c>
+      <c r="F9">
+        <v>0.584</v>
+      </c>
+      <c r="G9">
+        <v>0.056</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>0.77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>101622</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>10.30380746386514</v>
+      </c>
+      <c r="D10">
+        <v>22.05422433644876</v>
+      </c>
+      <c r="E10">
+        <v>0.01320188883825297</v>
+      </c>
+      <c r="F10">
+        <v>0.597</v>
+      </c>
+      <c r="G10">
+        <v>0.713</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>0.91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>95074</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>9.704317872306337</v>
+      </c>
+      <c r="D11">
+        <v>28.04424919757408</v>
+      </c>
+      <c r="E11">
+        <v>0.0167875802300039</v>
+      </c>
+      <c r="F11">
+        <v>0.614</v>
+      </c>
+      <c r="G11">
+        <v>0.227</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0.91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>241461</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>23.10649912452364</v>
+      </c>
+      <c r="D12">
+        <v>65.71532805590249</v>
+      </c>
+      <c r="E12">
+        <v>0.03933788115728623</v>
+      </c>
+      <c r="F12">
+        <v>0.653</v>
+      </c>
+      <c r="G12">
+        <v>0.965</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0.92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>239555</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>22.93199894713954</v>
+      </c>
+      <c r="D13">
+        <v>62.91660729742272</v>
+      </c>
+      <c r="E13">
+        <v>0.03766253770475334</v>
+      </c>
+      <c r="F13">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.401</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>0.92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>253018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>24.16457811194653</v>
+      </c>
+      <c r="D14">
+        <v>83.98949196996948</v>
+      </c>
+      <c r="E14">
+        <v>0.05027698637926447</v>
+      </c>
+      <c r="F14">
+        <v>0.741</v>
+      </c>
+      <c r="G14">
+        <v>0.991</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>68854</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7.303796019729689</v>
+      </c>
+      <c r="D15">
+        <v>59.23155570592858</v>
+      </c>
+      <c r="E15">
+        <v>0.0354566273661281</v>
+      </c>
+      <c r="F15">
+        <v>0.777</v>
+      </c>
+      <c r="G15">
+        <v>0.392</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>128083</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>12.72639360959476</v>
+      </c>
+      <c r="D16">
+        <v>5.169286018491535</v>
+      </c>
+      <c r="E16">
+        <v>0.003094388555596303</v>
+      </c>
+      <c r="F16">
+        <v>0.78</v>
+      </c>
+      <c r="G16">
+        <v>0.905</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>0.46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>193378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>18.70435220471269</v>
+      </c>
+      <c r="D17">
+        <v>13.7222252565598</v>
+      </c>
+      <c r="E17">
+        <v>0.00821426723909623</v>
+      </c>
+      <c r="F17">
+        <v>0.788</v>
+      </c>
+      <c r="G17">
+        <v>0.266</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>199926</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>19.3038417962715</v>
+      </c>
+      <c r="D18">
+        <v>18.52305420733348</v>
+      </c>
+      <c r="E18">
+        <v>0.0110880935488628</v>
+      </c>
+      <c r="F18">
+        <v>0.799</v>
+      </c>
+      <c r="G18">
+        <v>0.907</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>0.23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>12215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2.118320916446367</v>
+      </c>
+      <c r="D19">
+        <v>165.9376560116632</v>
+      </c>
+      <c r="E19">
+        <v>0.09933201255805255</v>
+      </c>
+      <c r="F19">
+        <v>0.899</v>
+      </c>
+      <c r="G19">
+        <v>0.493</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>0.23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>230278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>22.08266099037548</v>
+      </c>
+      <c r="D20">
+        <v>50.16408670458657</v>
+      </c>
+      <c r="E20">
+        <v>0.03002874579687326</v>
+      </c>
+      <c r="F20">
+        <v>0.929</v>
+      </c>
+      <c r="G20">
+        <v>0.063</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>0.14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>33670</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>4.082592325562765</v>
+      </c>
+      <c r="D21">
+        <v>119.1897903298611</v>
+      </c>
+      <c r="E21">
+        <v>0.07134825231594968</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <v>0.488</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>0.14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>199926</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>19.3038417962715</v>
+      </c>
+      <c r="D2">
+        <v>18.52305420733348</v>
+      </c>
+      <c r="E2">
+        <v>0.01351945440294965</v>
+      </c>
+      <c r="F2">
+        <v>0.014</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>96098</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
       <c r="C3">
-        <v>4.677046497522344</v>
+        <v>9.79806822993557</v>
       </c>
       <c r="D3">
-        <v>106.5633690143157</v>
+        <v>27.06009414040566</v>
       </c>
       <c r="E3">
-        <v>0.05188892369987244</v>
+        <v>0.01975039886920485</v>
+      </c>
+      <c r="F3">
+        <v>0.033</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1.303773131458784</v>
+      </c>
+      <c r="D4">
+        <v>187.5866304345504</v>
+      </c>
+      <c r="E4">
+        <v>0.1369141864174221</v>
+      </c>
+      <c r="F4">
+        <v>0.17</v>
+      </c>
+      <c r="G4">
+        <v>0.638</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>0.41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>12215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2.118320916446367</v>
+      </c>
+      <c r="D5">
+        <v>165.9376560116632</v>
+      </c>
+      <c r="E5">
+        <v>0.1211132110866383</v>
+      </c>
+      <c r="F5">
+        <v>0.291</v>
+      </c>
+      <c r="G5">
+        <v>0.359</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>0.41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>199926</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>19.3038417962715</v>
+      </c>
+      <c r="D6">
+        <v>18.52305420733348</v>
+      </c>
+      <c r="E6">
+        <v>0.01351945440294965</v>
+      </c>
+      <c r="F6">
+        <v>0.305</v>
+      </c>
+      <c r="G6">
+        <v>0.641</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>0.31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>68854</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7.303796019729689</v>
+      </c>
+      <c r="D7">
+        <v>59.23155570592858</v>
+      </c>
+      <c r="E7">
+        <v>0.04323144053992115</v>
+      </c>
+      <c r="F7">
+        <v>0.348</v>
+      </c>
+      <c r="G7">
+        <v>0.873</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>0.31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>95074</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>9.704317872306337</v>
+      </c>
+      <c r="D8">
+        <v>28.04424919757408</v>
+      </c>
+      <c r="E8">
+        <v>0.02046870586501082</v>
+      </c>
+      <c r="F8">
+        <v>0.369</v>
+      </c>
+      <c r="G8">
+        <v>0.395</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0.08</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>193378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>18.70435220471269</v>
+      </c>
+      <c r="D9">
+        <v>13.7222252565598</v>
+      </c>
+      <c r="E9">
+        <v>0.01001546486807862</v>
+      </c>
+      <c r="F9">
+        <v>0.379</v>
+      </c>
+      <c r="G9">
+        <v>0.438</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>0.08</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>224916</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>21.59175335599272</v>
+      </c>
+      <c r="D10">
+        <v>43.45121230624132</v>
+      </c>
+      <c r="E10">
+        <v>0.03171381333508928</v>
+      </c>
+      <c r="F10">
+        <v>0.41</v>
+      </c>
+      <c r="G10">
+        <v>0.586</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>0.82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>199926</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>19.3038417962715</v>
+      </c>
+      <c r="D11">
+        <v>18.52305420733348</v>
+      </c>
+      <c r="E11">
+        <v>0.01351945440294965</v>
+      </c>
+      <c r="F11">
+        <v>0.424</v>
+      </c>
+      <c r="G11">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>0.82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>128083</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>12.72639360959476</v>
+      </c>
+      <c r="D12">
+        <v>5.169286018491535</v>
+      </c>
+      <c r="E12">
+        <v>0.003772915947907384</v>
+      </c>
+      <c r="F12">
+        <v>0.428</v>
+      </c>
+      <c r="G12">
+        <v>0.106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>0.49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>3318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1.303773131458784</v>
+      </c>
+      <c r="D13">
+        <v>187.5866304345504</v>
+      </c>
+      <c r="E13">
+        <v>0.1369141864174221</v>
+      </c>
+      <c r="F13">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.553</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>3318</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>1.303773131458784</v>
+      </c>
+      <c r="D14">
+        <v>187.5866304345504</v>
+      </c>
+      <c r="E14">
+        <v>0.1369141864174221</v>
+      </c>
+      <c r="F14">
+        <v>0.701</v>
+      </c>
+      <c r="G14">
+        <v>0.988</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>208823</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>20.11838958125908</v>
+      </c>
+      <c r="D15">
+        <v>26.19791190554154</v>
+      </c>
+      <c r="E15">
+        <v>0.0191211163933881</v>
+      </c>
+      <c r="F15">
+        <v>0.72</v>
+      </c>
+      <c r="G15">
+        <v>0.107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>0.72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>220250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>21.16456666781108</v>
+      </c>
+      <c r="D16">
+        <v>38.0018822018874</v>
+      </c>
+      <c r="E16">
+        <v>0.02773650111390785</v>
+      </c>
+      <c r="F16">
+        <v>0.748</v>
+      </c>
+      <c r="G16">
+        <v>0.076</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>0.72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>257940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>24.61520238953548</v>
+      </c>
+      <c r="D17">
+        <v>92.45211699172886</v>
+      </c>
+      <c r="E17">
+        <v>0.06747819048280898</v>
+      </c>
+      <c r="F17">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>0.72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>3830</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1.3506483102734</v>
+      </c>
+      <c r="D18">
+        <v>186.3048015498424</v>
+      </c>
+      <c r="E18">
+        <v>0.1359786156975387</v>
+      </c>
+      <c r="F18">
+        <v>0.952</v>
+      </c>
+      <c r="G18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>0.12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>68854</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7.303796019729689</v>
+      </c>
+      <c r="D19">
+        <v>59.23155570592858</v>
+      </c>
+      <c r="E19">
+        <v>0.04323144053992115</v>
+      </c>
+      <c r="F19">
+        <v>0.995</v>
+      </c>
+      <c r="G19">
+        <v>0.221</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0.12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>127842</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>12.70432931644179</v>
+      </c>
+      <c r="D20">
+        <v>5.270103887348621</v>
+      </c>
+      <c r="E20">
+        <v>0.003846500064530889</v>
+      </c>
+      <c r="F20">
+        <v>0.999</v>
+      </c>
+      <c r="G20">
+        <v>0.586</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>0.03</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>167158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>16.30383035213605</v>
+      </c>
+      <c r="D21">
+        <v>1.699973587151206</v>
+      </c>
+      <c r="E21">
+        <v>0.001240762734938732</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.496</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>0.03</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>3830</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1.3506483102734</v>
+      </c>
+      <c r="D2">
+        <v>186.3048015498424</v>
+      </c>
+      <c r="E2">
+        <v>0.09213732535095212</v>
+      </c>
+      <c r="F2">
+        <v>0.092</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>199926</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>19.3038417962715</v>
+      </c>
+      <c r="D3">
+        <v>18.52305420733348</v>
+      </c>
+      <c r="E3">
+        <v>0.009160604867920277</v>
       </c>
       <c r="F3">
         <v>0.101</v>
@@ -1957,646 +3415,646 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>7395</v>
+        <v>68854</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.677035053386892</v>
+        <v>7.303796019729689</v>
       </c>
       <c r="D4">
-        <v>177.5013949686816</v>
+        <v>59.23155570592858</v>
       </c>
       <c r="E4">
-        <v>0.08643079160638704</v>
+        <v>0.02929305672060282</v>
       </c>
       <c r="F4">
-        <v>0.188</v>
+        <v>0.131</v>
       </c>
       <c r="G4">
-        <v>0.475</v>
+        <v>0.576</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>43042</v>
+        <v>29538</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>4.94062782527094</v>
+        <v>3.704294984035431</v>
       </c>
       <c r="D5">
-        <v>101.1909685497132</v>
+        <v>127.5929518076871</v>
       </c>
       <c r="E5">
-        <v>0.04927293961104857</v>
+        <v>0.06310129001183097</v>
       </c>
       <c r="F5">
-        <v>0.237</v>
+        <v>0.194</v>
       </c>
       <c r="G5">
-        <v>0.792</v>
+        <v>0.664</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>46409</v>
+        <v>12215</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>5.248887057827217</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D6">
-        <v>95.08420361100956</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E6">
-        <v>0.04629937127430724</v>
+        <v>0.08206472228699206</v>
       </c>
       <c r="F6">
-        <v>0.283</v>
+        <v>0.276</v>
       </c>
       <c r="G6">
-        <v>0.339</v>
+        <v>0.409</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>183978</v>
+        <v>200438</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>17.8437532186631</v>
+        <v>19.35071697508612</v>
       </c>
       <c r="D7">
-        <v>8.086932368656718</v>
+        <v>18.92873819730248</v>
       </c>
       <c r="E7">
-        <v>0.003937771680124764</v>
+        <v>0.009361236507376148</v>
       </c>
       <c r="F7">
-        <v>0.287</v>
+        <v>0.285</v>
       </c>
       <c r="G7">
-        <v>0.751</v>
+        <v>0.147</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I7">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>43042</v>
+        <v>225172</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>4.94062782527094</v>
+        <v>21.61519094540003</v>
       </c>
       <c r="D8">
-        <v>101.1909685497132</v>
+        <v>43.76075124410255</v>
       </c>
       <c r="E8">
-        <v>0.04927293961104857</v>
+        <v>0.02164194664570292</v>
       </c>
       <c r="F8">
-        <v>0.336</v>
+        <v>0.307</v>
       </c>
       <c r="G8">
-        <v>0.708</v>
+        <v>0.106</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I8">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>43042</v>
+        <v>232694</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>4.94062782527094</v>
+        <v>22.30385324040695</v>
       </c>
       <c r="D9">
-        <v>101.1909685497132</v>
+        <v>53.34627215740312</v>
       </c>
       <c r="E9">
-        <v>0.04927293961104857</v>
+        <v>0.02638248071514208</v>
       </c>
       <c r="F9">
-        <v>0.386</v>
+        <v>0.333</v>
       </c>
       <c r="G9">
-        <v>0.431</v>
+        <v>0.899</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I9">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>7395</v>
+        <v>12215</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>1.677035053386892</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D10">
-        <v>177.5013949686816</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E10">
-        <v>0.08643079160638704</v>
+        <v>0.08206472228699206</v>
       </c>
       <c r="F10">
-        <v>0.472</v>
+        <v>0.415</v>
       </c>
       <c r="G10">
-        <v>0.458</v>
+        <v>0.307</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I10">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>65381</v>
+        <v>3798</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>6.98583216030945</v>
+        <v>1.347718611597487</v>
       </c>
       <c r="D11">
-        <v>64.22688616273031</v>
+        <v>186.3847871081217</v>
       </c>
       <c r="E11">
-        <v>0.03127401119544744</v>
+        <v>0.09217688233147678</v>
       </c>
       <c r="F11">
-        <v>0.503</v>
+        <v>0.507</v>
       </c>
       <c r="G11">
-        <v>0.03</v>
+        <v>0.383</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>0.32</v>
+        <v>0.9</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>65381</v>
+        <v>199926</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>6.98583216030945</v>
+        <v>19.3038417962715</v>
       </c>
       <c r="D12">
-        <v>64.22688616273031</v>
+        <v>18.52305420733348</v>
       </c>
       <c r="E12">
-        <v>0.03127401119544744</v>
+        <v>0.009160604867920277</v>
       </c>
       <c r="F12">
-        <v>0.535</v>
+        <v>0.517</v>
       </c>
       <c r="G12">
-        <v>0.555</v>
+        <v>0.614</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>0.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>29573</v>
+        <v>89178</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>3.707499341962211</v>
+        <v>9.164520891269269</v>
       </c>
       <c r="D13">
-        <v>127.5205711117839</v>
+        <v>34.0528164284328</v>
       </c>
       <c r="E13">
-        <v>0.0620936185275317</v>
+        <v>0.01684087259309509</v>
       </c>
       <c r="F13">
-        <v>0.597</v>
+        <v>0.533</v>
       </c>
       <c r="G13">
-        <v>0.291</v>
+        <v>0.679</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I13">
-        <v>0.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>45957</v>
+        <v>68854</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>5.207505064029938</v>
+        <v>7.303796019729689</v>
       </c>
       <c r="D14">
-        <v>95.8929570709993</v>
+        <v>59.23155570592858</v>
       </c>
       <c r="E14">
-        <v>0.04669317776677819</v>
+        <v>0.02929305672060282</v>
       </c>
       <c r="F14">
-        <v>0.643</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G14">
-        <v>0.62</v>
+        <v>0.436</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>98149</v>
+        <v>3830</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>9.985843604444902</v>
+        <v>1.3506483102734</v>
       </c>
       <c r="D15">
-        <v>25.14176435908609</v>
+        <v>186.3048015498424</v>
       </c>
       <c r="E15">
-        <v>0.01224228461032922</v>
+        <v>0.09213732535095212</v>
       </c>
       <c r="F15">
-        <v>0.656</v>
+        <v>0.655</v>
       </c>
       <c r="G15">
-        <v>0.597</v>
+        <v>0.646</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>4048</v>
+        <v>12215</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>1.370606882503061</v>
+        <v>2.118320916446367</v>
       </c>
       <c r="D16">
-        <v>185.7603567512729</v>
+        <v>165.9376560116632</v>
       </c>
       <c r="E16">
-        <v>0.0904523296052417</v>
+        <v>0.08206472228699206</v>
       </c>
       <c r="F16">
-        <v>0.746</v>
+        <v>0.737</v>
       </c>
       <c r="G16">
-        <v>0.234</v>
+        <v>0.785</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I16">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>32613</v>
+        <v>2294</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>3.985820716173996</v>
+        <v>1.210022773829551</v>
       </c>
       <c r="D17">
-        <v>121.3121452962619</v>
+        <v>190.1634718982997</v>
       </c>
       <c r="E17">
-        <v>0.0590705484386472</v>
+        <v>0.09404563669000671</v>
       </c>
       <c r="F17">
-        <v>0.805</v>
+        <v>0.831</v>
       </c>
       <c r="G17">
-        <v>0.227</v>
+        <v>0.289</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>65381</v>
+        <v>3318</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>6.98583216030945</v>
+        <v>1.303773131458784</v>
       </c>
       <c r="D18">
-        <v>64.22688616273031</v>
+        <v>187.5866304345504</v>
       </c>
       <c r="E18">
-        <v>0.03127401119544744</v>
+        <v>0.09277125579188597</v>
       </c>
       <c r="F18">
-        <v>0.836</v>
+        <v>0.924</v>
       </c>
       <c r="G18">
-        <v>0.746</v>
+        <v>0.117</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>75810</v>
+        <v>199926</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>7.940639269406392</v>
+        <v>19.3038417962715</v>
       </c>
       <c r="D19">
-        <v>49.83457392464712</v>
+        <v>18.52305420733348</v>
       </c>
       <c r="E19">
-        <v>0.02426595956856697</v>
+        <v>0.009160604867920277</v>
       </c>
       <c r="F19">
-        <v>0.861</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G19">
-        <v>0.257</v>
+        <v>0.488</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I19">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>261985</v>
+        <v>225172</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>24.98553461278767</v>
+        <v>21.61519094540003</v>
       </c>
       <c r="D20">
-        <v>99.71090150318069</v>
+        <v>43.76075124410255</v>
       </c>
       <c r="E20">
-        <v>0.04855225025260772</v>
+        <v>0.02164194664570292</v>
       </c>
       <c r="F20">
-        <v>0.909</v>
+        <v>0.955</v>
       </c>
       <c r="G20">
-        <v>0.611</v>
+        <v>0.191</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>3821</v>
+        <v>257684</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>1.3498243325208</v>
+        <v>24.59176480012817</v>
       </c>
       <c r="D21">
-        <v>186.3272957530412</v>
+        <v>92.00195198097788</v>
       </c>
       <c r="E21">
-        <v>0.09072838933268224</v>
+        <v>0.04549970645993372</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.132</v>
+        <v>0.773</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I21">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -16,138 +16,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="44">
-  <si>
-    <t>111000010010110100</t>
-  </si>
-  <si>
-    <t>001110111000111011</t>
-  </si>
-  <si>
-    <t>010111110001111110</t>
-  </si>
-  <si>
-    <t>001100111110101011</t>
-  </si>
-  <si>
-    <t>010110101101001000</t>
-  </si>
-  <si>
-    <t>111101001010100101</t>
-  </si>
-  <si>
-    <t>101110001100011001</t>
-  </si>
-  <si>
-    <t>000111100011000000</t>
-  </si>
-  <si>
-    <t>001101110100011011</t>
-  </si>
-  <si>
-    <t>101011001010001111</t>
-  </si>
-  <si>
-    <t>001101100011000101</t>
-  </si>
-  <si>
-    <t>111000100110101000</t>
-  </si>
-  <si>
-    <t>010110001111110000</t>
-  </si>
-  <si>
-    <t>101000111010111110</t>
-  </si>
-  <si>
-    <t>011101000101101001</t>
-  </si>
-  <si>
-    <t>010100110000000101</t>
-  </si>
-  <si>
-    <t>010011000100000111</t>
-  </si>
-  <si>
-    <t>100111100010101011</t>
-  </si>
-  <si>
-    <t>110101011000111000</t>
-  </si>
-  <si>
-    <t>000011100101000111</t>
-  </si>
-  <si>
-    <t>000011000101000111</t>
-  </si>
-  <si>
-    <t>111111100011000000</t>
-  </si>
-  <si>
-    <t>000000100110101000</t>
-  </si>
-  <si>
-    <t>111001010010110100</t>
-  </si>
-  <si>
-    <t>011101100011000101</t>
-  </si>
-  <si>
-    <t>000011000100000111</t>
-  </si>
-  <si>
-    <t>001100100101000111</t>
-  </si>
-  <si>
-    <t>000011111110101011</t>
-  </si>
-  <si>
-    <t>000111100101000111</t>
-  </si>
-  <si>
-    <t>000011100011000000</t>
-  </si>
-  <si>
-    <t>110101011100111000</t>
-  </si>
-  <si>
-    <t>100111100101111000</t>
-  </si>
-  <si>
-    <t>110101011000000111</t>
-  </si>
-  <si>
-    <t>000000100110111011</t>
-  </si>
-  <si>
-    <t>001110111000101000</t>
-  </si>
-  <si>
-    <t>000111100101111000</t>
-  </si>
-  <si>
-    <t>001000100110101000</t>
-  </si>
-  <si>
-    <t>000100111110101011</t>
-  </si>
-  <si>
-    <t>001100111110111011</t>
-  </si>
-  <si>
-    <t>011110111000101011</t>
-  </si>
-  <si>
-    <t>000000100011000001</t>
-  </si>
-  <si>
-    <t>000111100110101000</t>
-  </si>
-  <si>
-    <t>001110111000101011</t>
-  </si>
-  <si>
-    <t>000000100011000000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Binário</t>
+  </si>
+  <si>
+    <t>Valor Real</t>
+  </si>
+  <si>
+    <t>Função Avaliação</t>
+  </si>
+  <si>
+    <t>Probabilidade de ser Selecionada</t>
+  </si>
+  <si>
+    <t>Segmento da Roleta</t>
+  </si>
+  <si>
+    <t>Aleatório Roleta</t>
+  </si>
+  <si>
+    <t>Individuo Selecionado</t>
+  </si>
+  <si>
+    <t>Probabilidade de Recombinação</t>
+  </si>
+  <si>
+    <t>Ponto de Corte Aleatório</t>
+  </si>
+  <si>
+    <t>Recombinação</t>
+  </si>
+  <si>
+    <t>Mutação</t>
+  </si>
+  <si>
+    <t>011111100111110100</t>
+  </si>
+  <si>
+    <t>000011001010010001</t>
+  </si>
+  <si>
+    <t>010101000110101100</t>
+  </si>
+  <si>
+    <t>010101010100010100</t>
+  </si>
+  <si>
+    <t>110111110110011110</t>
+  </si>
+  <si>
+    <t>110010100111100100</t>
+  </si>
+  <si>
+    <t>011001110100000011</t>
+  </si>
+  <si>
+    <t>001110011100001100</t>
+  </si>
+  <si>
+    <t>001111011010101000</t>
+  </si>
+  <si>
+    <t>010011110111100010</t>
+  </si>
+  <si>
+    <t>101000001010000110</t>
+  </si>
+  <si>
+    <t>000010100110010110</t>
+  </si>
+  <si>
+    <t>110111101000000101</t>
+  </si>
+  <si>
+    <t>100110111111001111</t>
+  </si>
+  <si>
+    <t>011111110110011001</t>
+  </si>
+  <si>
+    <t>000010001010000101</t>
+  </si>
+  <si>
+    <t>010001001100011101</t>
+  </si>
+  <si>
+    <t>100110111010111101</t>
+  </si>
+  <si>
+    <t>001110110000110010</t>
+  </si>
+  <si>
+    <t>000111111000001011</t>
+  </si>
+  <si>
+    <t>000010001010000001</t>
+  </si>
+  <si>
+    <t>011001110100001000</t>
+  </si>
+  <si>
+    <t>001111011010100011</t>
+  </si>
+  <si>
+    <t>110111110110011011</t>
+  </si>
+  <si>
+    <t>000111111000001110</t>
+  </si>
+  <si>
+    <t>000010100110010001</t>
+  </si>
+  <si>
+    <t>000011001010010110</t>
+  </si>
+  <si>
+    <t>000010000010000100</t>
+  </si>
+  <si>
+    <t>010101010100010101</t>
+  </si>
+  <si>
+    <t>010101000110101110</t>
+  </si>
+  <si>
+    <t>000010100110010100</t>
+  </si>
+  <si>
+    <t>001110110000110001</t>
+  </si>
+  <si>
+    <t>000011001010010010</t>
+  </si>
+  <si>
+    <t>010011110111100000</t>
+  </si>
+  <si>
+    <t>001110011100001110</t>
+  </si>
+  <si>
+    <t>000010001010000100</t>
+  </si>
+  <si>
+    <t>110110011100001110</t>
+  </si>
+  <si>
+    <t>000111110110011011</t>
+  </si>
+  <si>
+    <t>000010100111010110</t>
+  </si>
+  <si>
+    <t>000011001010100011</t>
+  </si>
+  <si>
+    <t>001111011010010010</t>
+  </si>
+  <si>
+    <t>011001110100010101</t>
+  </si>
+  <si>
+    <t>010101010100001000</t>
+  </si>
+  <si>
+    <t>010011110110010110</t>
+  </si>
+  <si>
+    <t>000010100111100000</t>
+  </si>
+  <si>
+    <t>001110010100010101</t>
+  </si>
+  <si>
+    <t>010101011100001110</t>
+  </si>
+  <si>
+    <t>000011001010010101</t>
+  </si>
+  <si>
+    <t>111110011100001110</t>
+  </si>
+  <si>
+    <t>110111110100010101</t>
+  </si>
+  <si>
+    <t>010101010110011011</t>
+  </si>
+  <si>
+    <t>110101010100010101</t>
+  </si>
+  <si>
+    <t>011110011100001110</t>
+  </si>
+  <si>
+    <t>001111010010010101</t>
+  </si>
+  <si>
+    <t>110101010100010010</t>
+  </si>
+  <si>
+    <t>110111011010010010</t>
+  </si>
+  <si>
+    <t>001111110110011110</t>
+  </si>
+  <si>
+    <t>001111011010010101</t>
+  </si>
+  <si>
+    <t>010101010100010010</t>
   </si>
 </sst>
 </file>
@@ -479,770 +560,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>230580</v>
+        <v>129524</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>22.11031002162942</v>
+        <v>12.85832160309449</v>
       </c>
       <c r="D2">
-        <v>50.55650860368372</v>
+        <v>4.58678635577174</v>
       </c>
       <c r="E2">
-        <v>0.04971943980357146</v>
+        <v>0.003936273833947527</v>
       </c>
       <c r="F2">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>60987</v>
+        <v>12945</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>6.583547910873072</v>
+        <v>2.185154667490644</v>
       </c>
       <c r="D3">
-        <v>70.83666576856902</v>
+        <v>164.2202608961368</v>
       </c>
       <c r="E3">
-        <v>0.06966381652607745</v>
+        <v>0.1409300250394458</v>
       </c>
       <c r="F3">
-        <v>0.119</v>
+        <v>0.145</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>97406</v>
+        <v>86444</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>9.917819663313534</v>
+        <v>8.914214760645907</v>
       </c>
       <c r="D4">
-        <v>25.82855697460257</v>
+        <v>37.03678197954016</v>
       </c>
       <c r="E4">
-        <v>0.02540091116217425</v>
+        <v>0.03178410863114076</v>
       </c>
       <c r="F4">
-        <v>0.145</v>
+        <v>0.177</v>
       </c>
       <c r="G4">
-        <v>0.947</v>
+        <v>0.284</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>53163</v>
+        <v>87316</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>5.867236584612215</v>
+        <v>8.99404904956455</v>
       </c>
       <c r="D5">
-        <v>83.40736760144556</v>
+        <v>36.07144681903648</v>
       </c>
       <c r="E5">
-        <v>0.08202638408326059</v>
+        <v>0.03095568035073945</v>
       </c>
       <c r="F5">
-        <v>0.227</v>
+        <v>0.208</v>
       </c>
       <c r="G5">
-        <v>0.368</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>93000</v>
+        <v>228766</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>9.514436776873691</v>
+        <v>21.94423272793857</v>
       </c>
       <c r="D6">
-        <v>30.0914038749159</v>
+        <v>48.2223681797731</v>
       </c>
       <c r="E6">
-        <v>0.0295931777111449</v>
+        <v>0.04138331968267301</v>
       </c>
       <c r="F6">
-        <v>0.256</v>
+        <v>0.249</v>
       </c>
       <c r="G6">
-        <v>0.819</v>
+        <v>0.238</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>250533</v>
+        <v>207332</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>23.93706869914512</v>
+        <v>19.98188393357824</v>
       </c>
       <c r="D7">
-        <v>79.87119693323949</v>
+        <v>24.81916752764498</v>
       </c>
       <c r="E7">
-        <v>0.07854876212065108</v>
+        <v>0.02129923483279212</v>
       </c>
       <c r="F7">
-        <v>0.335</v>
+        <v>0.27</v>
       </c>
       <c r="G7">
-        <v>0.833</v>
+        <v>0.98</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>189209</v>
+        <v>105731</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>18.32266739909133</v>
+        <v>10.67999908446916</v>
       </c>
       <c r="D8">
-        <v>11.04011864498437</v>
+        <v>18.66240791018727</v>
       </c>
       <c r="E8">
-        <v>0.0108573263770353</v>
+        <v>0.01601564630166115</v>
       </c>
       <c r="F8">
-        <v>0.346</v>
+        <v>0.286</v>
       </c>
       <c r="G8">
-        <v>0.677</v>
+        <v>0.239</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>30912</v>
+        <v>59148</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>3.830088920932468</v>
+        <v>6.415181790091667</v>
       </c>
       <c r="D9">
-        <v>124.7669135142756</v>
+        <v>73.69910369717371</v>
       </c>
       <c r="E9">
-        <v>0.1227011361599135</v>
+        <v>0.06324686413691927</v>
       </c>
       <c r="F9">
-        <v>0.469</v>
+        <v>0.35</v>
       </c>
       <c r="G9">
-        <v>0.444</v>
+        <v>0.09</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.79</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>56603</v>
+        <v>63144</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>6.182179192272919</v>
+        <v>6.781027912246369</v>
       </c>
       <c r="D10">
-        <v>77.75396379718467</v>
+        <v>67.55150217927329</v>
       </c>
       <c r="E10">
-        <v>0.07646658420992142</v>
+        <v>0.05797113487475353</v>
       </c>
       <c r="F10">
-        <v>0.545</v>
+        <v>0.408</v>
       </c>
       <c r="G10">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>176783</v>
+        <v>81378</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>17.18502878200066</v>
+        <v>8.450406839015347</v>
       </c>
       <c r="D11">
-        <v>4.774350778171306</v>
+        <v>42.89717057441694</v>
       </c>
       <c r="E11">
-        <v>0.004695301409700721</v>
+        <v>0.03681335841378006</v>
       </c>
       <c r="F11">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="G11">
-        <v>0.004</v>
+        <v>0.144</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>55493</v>
+        <v>164486</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>6.080555269452169</v>
+        <v>16.05920051269727</v>
       </c>
       <c r="D12">
-        <v>79.55649430129746</v>
+        <v>1.121905726098152</v>
       </c>
       <c r="E12">
-        <v>0.07823927004936262</v>
+        <v>0.0009627935140774683</v>
       </c>
       <c r="F12">
-        <v>0.628</v>
+        <v>0.445</v>
       </c>
       <c r="G12">
-        <v>0.83</v>
+        <v>0.767</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I12">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>231848</v>
+        <v>10646</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>22.22639933166249</v>
+        <v>1.974674128242982</v>
       </c>
       <c r="D13">
-        <v>52.22084730065206</v>
+        <v>169.6591140654627</v>
       </c>
       <c r="E13">
-        <v>0.05135622189043105</v>
+        <v>0.1455975228814066</v>
       </c>
       <c r="F13">
-        <v>0.679</v>
+        <v>0.591</v>
       </c>
       <c r="G13">
-        <v>0.8169999999999999</v>
+        <v>0.203</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>91120</v>
+        <v>227845</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>9.342316979663771</v>
+        <v>21.85991233792243</v>
       </c>
       <c r="D14">
-        <v>32.00937715860088</v>
+        <v>47.05839728398039</v>
       </c>
       <c r="E14">
-        <v>0.03147939493335405</v>
+        <v>0.04038442681407015</v>
       </c>
       <c r="F14">
-        <v>0.711</v>
+        <v>0.631</v>
       </c>
       <c r="G14">
-        <v>0.791</v>
+        <v>0.176</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>167614</v>
+        <v>159695</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>16.34557855826781</v>
+        <v>15.62056968906284</v>
       </c>
       <c r="D15">
-        <v>1.810581656470089</v>
+        <v>0.385106738983548</v>
       </c>
       <c r="E15">
-        <v>0.001780603688122483</v>
+        <v>0.0003304896854483531</v>
       </c>
       <c r="F15">
-        <v>0.713</v>
+        <v>0.632</v>
       </c>
       <c r="G15">
-        <v>0.5580000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I15">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>119145</v>
+        <v>130457</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>11.90809214817867</v>
+        <v>12.9437406301141</v>
       </c>
       <c r="D16">
-        <v>9.559894164154418</v>
+        <v>4.228202596243568</v>
       </c>
       <c r="E16">
-        <v>0.009401610110168027</v>
+        <v>0.003628545555273036</v>
       </c>
       <c r="F16">
-        <v>0.722</v>
+        <v>0.635</v>
       </c>
       <c r="G16">
-        <v>0.208</v>
+        <v>0.852</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>84997</v>
+        <v>8837</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>8.781737448644442</v>
+        <v>1.809054599970245</v>
       </c>
       <c r="D17">
-        <v>38.66678915759093</v>
+        <v>174.0010405465661</v>
       </c>
       <c r="E17">
-        <v>0.03802657954465932</v>
+        <v>0.1493236636411534</v>
       </c>
       <c r="F17">
-        <v>0.76</v>
+        <v>0.785</v>
       </c>
       <c r="G17">
-        <v>0.886</v>
+        <v>0.14</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I17">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>78087</v>
+        <v>70429</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>8.149105640814364</v>
+        <v>7.447992126434809</v>
       </c>
       <c r="D18">
-        <v>46.93475352072157</v>
+        <v>57.03282292239064</v>
       </c>
       <c r="E18">
-        <v>0.04615765045529564</v>
+        <v>0.04894424791838746</v>
       </c>
       <c r="F18">
-        <v>0.806</v>
+        <v>0.834</v>
       </c>
       <c r="G18">
-        <v>0.372</v>
+        <v>0.976</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I18">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>161963</v>
+        <v>159421</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>15.82821208271821</v>
+        <v>15.59548414415033</v>
       </c>
       <c r="D19">
-        <v>0.6859352539604348</v>
+        <v>0.3546013659344507</v>
       </c>
       <c r="E19">
-        <v>0.0006745781603666434</v>
+        <v>0.0003043106807129633</v>
       </c>
       <c r="F19">
-        <v>0.8070000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="G19">
-        <v>0.98</v>
+        <v>0.547</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>218680</v>
+        <v>60466</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>21.02082832652407</v>
+        <v>6.535848754305856</v>
       </c>
       <c r="D20">
-        <v>36.25037373747465</v>
+        <v>71.64185630998573</v>
       </c>
       <c r="E20">
-        <v>0.03565017293868299</v>
+        <v>0.06148138206907561</v>
       </c>
       <c r="F20">
-        <v>0.842</v>
+        <v>0.895</v>
       </c>
       <c r="G20">
-        <v>0.064</v>
+        <v>0.41</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>14663</v>
+        <v>32267</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>2.342442865153752</v>
+        <v>3.954143349240681</v>
       </c>
       <c r="D21">
-        <v>160.2137526218972</v>
+        <v>122.0109491491239</v>
       </c>
       <c r="E21">
-        <v>0.1575610786661066</v>
+        <v>0.1047069711425423</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.183</v>
+        <v>0.294</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I21">
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1252,770 +1385,822 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>14663</v>
+        <v>8837</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>2.342442865153752</v>
+        <v>1.809054599970245</v>
       </c>
       <c r="D2">
-        <v>160.2137526218972</v>
+        <v>174.0010405465661</v>
       </c>
       <c r="E2">
-        <v>0.08175724186360812</v>
+        <v>0.07882900972737399</v>
       </c>
       <c r="F2">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>30912</v>
+        <v>10646</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>3.830088920932468</v>
+        <v>1.974674128242982</v>
       </c>
       <c r="D3">
-        <v>124.7669135142756</v>
+        <v>169.6591140654627</v>
       </c>
       <c r="E3">
-        <v>0.06366868360443324</v>
+        <v>0.07686195387679219</v>
       </c>
       <c r="F3">
-        <v>0.145</v>
+        <v>0.156</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>14663</v>
+        <v>105736</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>2.342442865153752</v>
+        <v>10.68045684988727</v>
       </c>
       <c r="D4">
-        <v>160.2137526218972</v>
+        <v>18.65845302568577</v>
       </c>
       <c r="E4">
-        <v>0.08175724186360812</v>
+        <v>0.008452980341033714</v>
       </c>
       <c r="F4">
-        <v>0.227</v>
+        <v>0.164</v>
       </c>
       <c r="G4">
-        <v>0.985</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>30912</v>
+        <v>63139</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>3.830088920932468</v>
+        <v>6.780570146828257</v>
       </c>
       <c r="D5">
-        <v>124.7669135142756</v>
+        <v>67.55902711121085</v>
       </c>
       <c r="E5">
-        <v>0.06366868360443324</v>
+        <v>0.03060677791691897</v>
       </c>
       <c r="F5">
-        <v>0.291</v>
+        <v>0.195</v>
       </c>
       <c r="G5">
-        <v>0.639</v>
+        <v>0.435</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I5">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>218680</v>
+        <v>228763</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>21.02082832652407</v>
+        <v>21.9439580686877</v>
       </c>
       <c r="D6">
-        <v>36.25037373747465</v>
+        <v>48.218553659693</v>
       </c>
       <c r="E6">
-        <v>0.01849860280281479</v>
+        <v>0.02184481669500485</v>
       </c>
       <c r="F6">
-        <v>0.309</v>
+        <v>0.217</v>
       </c>
       <c r="G6">
-        <v>0.534</v>
+        <v>0.128</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I6">
-        <v>0.66</v>
+        <v>0.13</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>218680</v>
+        <v>32270</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>21.02082832652407</v>
+        <v>3.954418008491548</v>
       </c>
       <c r="D7">
-        <v>36.25037373747465</v>
+        <v>122.0048815311358</v>
       </c>
       <c r="E7">
-        <v>0.01849860280281479</v>
+        <v>0.05527279585682234</v>
       </c>
       <c r="F7">
-        <v>0.328</v>
+        <v>0.272</v>
       </c>
       <c r="G7">
-        <v>0.607</v>
+        <v>0.598</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I7">
-        <v>0.66</v>
+        <v>0.13</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>260288</v>
+        <v>228766</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>24.83016902988064</v>
+        <v>21.94423272793857</v>
       </c>
       <c r="D8">
-        <v>96.63222315602441</v>
+        <v>48.2223681797731</v>
       </c>
       <c r="E8">
-        <v>0.04931152233248082</v>
+        <v>0.02184654481593766</v>
       </c>
       <c r="F8">
-        <v>0.377</v>
+        <v>0.294</v>
       </c>
       <c r="G8">
-        <v>0.666</v>
+        <v>0.837</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>2472</v>
+        <v>12945</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>1.22631922271432</v>
+        <v>2.185154667490644</v>
       </c>
       <c r="D9">
-        <v>189.714282154569</v>
+        <v>164.2202608961368</v>
       </c>
       <c r="E9">
-        <v>0.09681139226353781</v>
+        <v>0.07439794901771887</v>
       </c>
       <c r="F9">
-        <v>0.474</v>
+        <v>0.368</v>
       </c>
       <c r="G9">
-        <v>0.666</v>
+        <v>0.624</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>230580</v>
+        <v>10641</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>22.11031002162942</v>
+        <v>1.97421636282487</v>
       </c>
       <c r="D10">
-        <v>50.55650860368372</v>
+        <v>169.6710393624993</v>
       </c>
       <c r="E10">
-        <v>0.0257990380603945</v>
+        <v>0.07686735648446136</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.445</v>
       </c>
       <c r="G10">
-        <v>0.833</v>
+        <v>0.22</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>231848</v>
+        <v>12950</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>22.22639933166249</v>
+        <v>2.185612432908756</v>
       </c>
       <c r="D11">
-        <v>52.22084730065206</v>
+        <v>164.2085287196227</v>
       </c>
       <c r="E11">
-        <v>0.02664835180009656</v>
+        <v>0.07439263390090319</v>
       </c>
       <c r="F11">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="G11">
-        <v>0.8110000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>218680</v>
+        <v>8836</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>21.02082832652407</v>
+        <v>1.808963046886623</v>
       </c>
       <c r="D12">
-        <v>36.25037373747465</v>
+        <v>174.0034558984026</v>
       </c>
       <c r="E12">
-        <v>0.01849860280281479</v>
+        <v>0.07883010397251652</v>
       </c>
       <c r="F12">
-        <v>0.545</v>
+        <v>0.598</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>0.275</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I12">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>218680</v>
+        <v>87317</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>21.02082832652407</v>
+        <v>8.994140602648173</v>
       </c>
       <c r="D13">
-        <v>36.25037373747465</v>
+        <v>36.07034710075925</v>
       </c>
       <c r="E13">
-        <v>0.01849860280281479</v>
+        <v>0.01634122263604831</v>
       </c>
       <c r="F13">
-        <v>0.5629999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="G13">
-        <v>0.272</v>
+        <v>0.145</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>121029</v>
+        <v>86446</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>12.08057815772307</v>
+        <v>8.91439786681315</v>
       </c>
       <c r="D14">
-        <v>8.523023893163597</v>
+        <v>37.03455332344834</v>
       </c>
       <c r="E14">
-        <v>0.004349307811840428</v>
+        <v>0.01677804428647523</v>
       </c>
       <c r="F14">
-        <v>0.5679999999999999</v>
+        <v>0.631</v>
       </c>
       <c r="G14">
-        <v>0.859</v>
+        <v>0.042</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>12551</v>
+        <v>10644</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>2.149082752543459</v>
+        <v>1.974491022075737</v>
       </c>
       <c r="D15">
-        <v>165.146074100976</v>
+        <v>169.6638841339856</v>
       </c>
       <c r="E15">
-        <v>0.08427421056020805</v>
+        <v>0.07686411489707577</v>
       </c>
       <c r="F15">
-        <v>0.652</v>
+        <v>0.708</v>
       </c>
       <c r="G15">
-        <v>0.237</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>51527</v>
+        <v>60465</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>5.717455739806136</v>
+        <v>6.535757201222234</v>
       </c>
       <c r="D16">
-        <v>86.16562794245806</v>
+        <v>71.64340615666127</v>
       </c>
       <c r="E16">
-        <v>0.04397040808754133</v>
+        <v>0.03245715510140442</v>
       </c>
       <c r="F16">
-        <v>0.696</v>
+        <v>0.741</v>
       </c>
       <c r="G16">
-        <v>0.109</v>
+        <v>0.871</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>16299</v>
+        <v>12946</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>2.492223709959831</v>
+        <v>2.185246220574267</v>
       </c>
       <c r="D17">
-        <v>156.444467721691</v>
+        <v>164.2179144273061</v>
       </c>
       <c r="E17">
-        <v>0.07983377192300777</v>
+        <v>0.07439688597916634</v>
       </c>
       <c r="F17">
-        <v>0.776</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G17">
-        <v>0.539</v>
+        <v>0.068</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I17">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>31047</v>
+        <v>10646</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>3.842448587221478</v>
+        <v>1.974674128242982</v>
       </c>
       <c r="D18">
-        <v>124.490953528796</v>
+        <v>169.6591140654627</v>
       </c>
       <c r="E18">
-        <v>0.06352786094153251</v>
+        <v>0.07686195387679219</v>
       </c>
       <c r="F18">
-        <v>0.839</v>
+        <v>0.892</v>
       </c>
       <c r="G18">
-        <v>0.8120000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I18">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>14528</v>
+        <v>32267</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>2.330083198864742</v>
+        <v>3.954143349240681</v>
       </c>
       <c r="D19">
-        <v>160.5267917476895</v>
+        <v>122.0109491491239</v>
       </c>
       <c r="E19">
-        <v>0.08191698604974285</v>
+        <v>0.0552755447157711</v>
       </c>
       <c r="F19">
-        <v>0.921</v>
+        <v>0.947</v>
       </c>
       <c r="G19">
-        <v>0.632</v>
+        <v>0.602</v>
       </c>
       <c r="H19" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I19">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>53163</v>
+        <v>81376</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>5.867236584612215</v>
+        <v>8.450223732848102</v>
       </c>
       <c r="D20">
-        <v>83.40736760144556</v>
+        <v>42.89956914974626</v>
       </c>
       <c r="E20">
-        <v>0.04256286501378815</v>
+        <v>0.01943511684288165</v>
       </c>
       <c r="F20">
-        <v>0.964</v>
+        <v>0.967</v>
       </c>
       <c r="G20">
-        <v>0.471</v>
+        <v>0.91</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>60987</v>
+        <v>59150</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>6.583547910873072</v>
+        <v>6.415364896258912</v>
       </c>
       <c r="D21">
-        <v>70.83666576856902</v>
+        <v>73.69595986438378</v>
       </c>
       <c r="E21">
-        <v>0.03614802300848752</v>
+        <v>0.03338703905890129</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.224</v>
+        <v>0.869</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I21">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2025,770 +2210,822 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>60987</v>
+        <v>12946</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>6.583547910873072</v>
+        <v>2.185246220574267</v>
       </c>
       <c r="D2">
-        <v>70.83666576856902</v>
+        <v>164.2179144273061</v>
       </c>
       <c r="E2">
-        <v>0.03304847452272566</v>
+        <v>0.08251820262989461</v>
       </c>
       <c r="F2">
-        <v>0.033</v>
+        <v>0.083</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>2472</v>
+        <v>87317</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>1.22631922271432</v>
+        <v>8.994140602648173</v>
       </c>
       <c r="D3">
-        <v>189.714282154569</v>
+        <v>36.07034710075925</v>
       </c>
       <c r="E3">
-        <v>0.08851020234163003</v>
+        <v>0.0181250640124812</v>
       </c>
       <c r="F3">
-        <v>0.122</v>
+        <v>0.101</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>60987</v>
+        <v>228766</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>6.583547910873072</v>
+        <v>21.94423272793857</v>
       </c>
       <c r="D4">
-        <v>70.83666576856902</v>
+        <v>48.2223681797731</v>
       </c>
       <c r="E4">
-        <v>0.03304847452272566</v>
+        <v>0.02423135845214604</v>
       </c>
       <c r="F4">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="G4">
-        <v>0.453</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>0.6899999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>2472</v>
+        <v>10641</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>1.22631922271432</v>
+        <v>1.97421636282487</v>
       </c>
       <c r="D5">
-        <v>189.714282154569</v>
+        <v>169.6710393624993</v>
       </c>
       <c r="E5">
-        <v>0.08851020234163003</v>
+        <v>0.08525835476212497</v>
       </c>
       <c r="F5">
-        <v>0.243</v>
+        <v>0.21</v>
       </c>
       <c r="G5">
-        <v>0.044</v>
+        <v>0.609</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>0.6899999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>53163</v>
+        <v>255758</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>5.867236584612215</v>
+        <v>24.41543356107163</v>
       </c>
       <c r="D6">
-        <v>83.40736760144556</v>
+        <v>88.65038914295393</v>
       </c>
       <c r="E6">
-        <v>0.03891326946682842</v>
+        <v>0.04454611910051697</v>
       </c>
       <c r="F6">
-        <v>0.282</v>
+        <v>0.255</v>
       </c>
       <c r="G6">
-        <v>0.897</v>
+        <v>0.288</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>53163</v>
+        <v>32155</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>5.867236584612215</v>
+        <v>3.943889403874984</v>
       </c>
       <c r="D7">
-        <v>83.40736760144556</v>
+        <v>122.2375815137479</v>
       </c>
       <c r="E7">
-        <v>0.03891326946682842</v>
+        <v>0.06142341750908555</v>
       </c>
       <c r="F7">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="G7">
-        <v>0.792</v>
+        <v>0.361</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I7">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>218680</v>
+        <v>228763</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>21.02082832652407</v>
+        <v>21.9439580686877</v>
       </c>
       <c r="D8">
-        <v>36.25037373747465</v>
+        <v>48.218553659693</v>
       </c>
       <c r="E8">
-        <v>0.01691242155321472</v>
+        <v>0.02422944168598808</v>
       </c>
       <c r="F8">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="G8">
-        <v>0.901</v>
+        <v>0.535</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>2472</v>
+        <v>10646</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>1.22631922271432</v>
+        <v>1.974674128242982</v>
       </c>
       <c r="D9">
-        <v>189.714282154569</v>
+        <v>169.6591140654627</v>
       </c>
       <c r="E9">
-        <v>0.08851020234163003</v>
+        <v>0.08525236239472268</v>
       </c>
       <c r="F9">
         <v>0.426</v>
       </c>
       <c r="G9">
-        <v>0.273</v>
+        <v>0.034</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>218680</v>
+        <v>87317</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>21.02082832652407</v>
+        <v>8.994140602648173</v>
       </c>
       <c r="D10">
-        <v>36.25037373747465</v>
+        <v>36.07034710075925</v>
       </c>
       <c r="E10">
-        <v>0.01691242155321472</v>
+        <v>0.0181250640124812</v>
       </c>
       <c r="F10">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="G10">
-        <v>0.481</v>
+        <v>0.478</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>14663</v>
+        <v>10646</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>2.342442865153752</v>
+        <v>1.974674128242982</v>
       </c>
       <c r="D11">
-        <v>160.2137526218972</v>
+        <v>169.6591140654627</v>
       </c>
       <c r="E11">
-        <v>0.07474688516556925</v>
+        <v>0.08525236239472268</v>
       </c>
       <c r="F11">
-        <v>0.518</v>
+        <v>0.529</v>
       </c>
       <c r="G11">
-        <v>0.511</v>
+        <v>0.52</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>53163</v>
+        <v>12963</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>5.867236584612215</v>
+        <v>2.186802622995846</v>
       </c>
       <c r="D12">
-        <v>83.40736760144556</v>
+        <v>164.1780270220661</v>
       </c>
       <c r="E12">
-        <v>0.03891326946682842</v>
+        <v>0.08249815952436955</v>
       </c>
       <c r="F12">
-        <v>0.5570000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="G12">
-        <v>0.575</v>
+        <v>0.902</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I12">
-        <v>0.34</v>
+        <v>0.99</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>53163</v>
+        <v>63122</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>5.867236584612215</v>
+        <v>6.779013744406678</v>
       </c>
       <c r="D13">
-        <v>83.40736760144556</v>
+        <v>67.58461501465429</v>
       </c>
       <c r="E13">
-        <v>0.03891326946682842</v>
+        <v>0.03396073428341704</v>
       </c>
       <c r="F13">
-        <v>0.596</v>
+        <v>0.645</v>
       </c>
       <c r="G13">
-        <v>0.258</v>
+        <v>0.924</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I13">
-        <v>0.34</v>
+        <v>0.99</v>
       </c>
       <c r="J13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>31096</v>
+        <v>105749</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>3.846934688318971</v>
+        <v>10.68164703997437</v>
       </c>
       <c r="D14">
-        <v>124.3908658466227</v>
+        <v>18.64817228736216</v>
       </c>
       <c r="E14">
-        <v>0.05803390541026786</v>
+        <v>0.009370559021238324</v>
       </c>
       <c r="F14">
-        <v>0.654</v>
+        <v>0.655</v>
       </c>
       <c r="G14">
-        <v>0.522</v>
+        <v>0.388</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>0.85</v>
+        <v>0.23</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>218631</v>
+        <v>87304</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>21.01634222542658</v>
+        <v>8.992950412561083</v>
       </c>
       <c r="D15">
-        <v>36.19637377345086</v>
+        <v>36.08464474595007</v>
       </c>
       <c r="E15">
-        <v>0.01688722815349855</v>
+        <v>0.01813224846605985</v>
       </c>
       <c r="F15">
-        <v>0.671</v>
+        <v>0.673</v>
       </c>
       <c r="G15">
-        <v>0.727</v>
+        <v>0.491</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I15">
-        <v>0.85</v>
+        <v>0.23</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>30912</v>
+        <v>81302</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>3.830088920932468</v>
+        <v>8.443448804660051</v>
       </c>
       <c r="D16">
-        <v>124.7669135142756</v>
+        <v>42.98836357711372</v>
       </c>
       <c r="E16">
-        <v>0.05820934847536583</v>
+        <v>0.02160131255323021</v>
       </c>
       <c r="F16">
-        <v>0.729</v>
+        <v>0.695</v>
       </c>
       <c r="G16">
-        <v>0.8110000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I16">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>60987</v>
+        <v>10720</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C17">
-        <v>6.583547910873072</v>
+        <v>1.981449056431032</v>
       </c>
       <c r="D17">
-        <v>70.83666576856902</v>
+        <v>169.4826686703005</v>
       </c>
       <c r="E17">
-        <v>0.03304847452272566</v>
+        <v>0.08516369997977308</v>
       </c>
       <c r="F17">
-        <v>0.762</v>
+        <v>0.78</v>
       </c>
       <c r="G17">
-        <v>0.699</v>
+        <v>0.291</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>2491</v>
+        <v>58645</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>1.228058731303144</v>
+        <v>6.369130589029652</v>
       </c>
       <c r="D18">
-        <v>189.6663663084356</v>
+        <v>74.49190678922365</v>
       </c>
       <c r="E18">
-        <v>0.08848784745517405</v>
+        <v>0.03743159374637794</v>
       </c>
       <c r="F18">
-        <v>0.851</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="G18">
-        <v>0.952</v>
+        <v>0.63</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I18">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>60968</v>
+        <v>87822</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>6.581808402284249</v>
+        <v>9.040374909877432</v>
       </c>
       <c r="D19">
-        <v>70.86594977585207</v>
+        <v>35.51713121481843</v>
       </c>
       <c r="E19">
-        <v>0.03306213682258289</v>
+        <v>0.01784707740710174</v>
       </c>
       <c r="F19">
-        <v>0.884</v>
+        <v>0.835</v>
       </c>
       <c r="G19">
-        <v>0.619</v>
+        <v>0.326</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I19">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>30912</v>
+        <v>12949</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C20">
-        <v>3.830088920932468</v>
+        <v>2.185520879825134</v>
       </c>
       <c r="D20">
-        <v>124.7669135142756</v>
+        <v>164.2108751213976</v>
       </c>
       <c r="E20">
-        <v>0.05820934847536583</v>
+        <v>0.08251466543437391</v>
       </c>
       <c r="F20">
-        <v>0.9419999999999999</v>
+        <v>0.917</v>
       </c>
       <c r="G20">
-        <v>0.157</v>
+        <v>0.051</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>30912</v>
+        <v>12946</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>3.830088920932468</v>
+        <v>2.185246220574267</v>
       </c>
       <c r="D21">
-        <v>124.7669135142756</v>
+        <v>164.2179144273061</v>
       </c>
       <c r="E21">
-        <v>0.05820934847536583</v>
+        <v>0.08251820262989461</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.859</v>
+        <v>0.91</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="58">
   <si>
     <t>Decimal</t>
   </si>
@@ -57,202 +57,139 @@
     <t>Mutação</t>
   </si>
   <si>
-    <t>010100000110000011</t>
-  </si>
-  <si>
-    <t>011100000010100101</t>
-  </si>
-  <si>
-    <t>111111010110011110</t>
-  </si>
-  <si>
-    <t>100001110111111010</t>
-  </si>
-  <si>
-    <t>000010111001001000</t>
-  </si>
-  <si>
-    <t>110101110011010101</t>
-  </si>
-  <si>
-    <t>111001000101111011</t>
-  </si>
-  <si>
-    <t>110111010100100000</t>
-  </si>
-  <si>
-    <t>101001101001110111</t>
-  </si>
-  <si>
-    <t>010010000010001001</t>
-  </si>
-  <si>
-    <t>001100000010000111</t>
-  </si>
-  <si>
-    <t>100010001011101010</t>
-  </si>
-  <si>
-    <t>010001101111101101</t>
-  </si>
-  <si>
-    <t>101010110100000001</t>
-  </si>
-  <si>
-    <t>110000110101111010</t>
-  </si>
-  <si>
-    <t>100010100101110101</t>
-  </si>
-  <si>
-    <t>001001000000110010</t>
-  </si>
-  <si>
-    <t>100111100110101100</t>
-  </si>
-  <si>
-    <t>101000010010010010</t>
-  </si>
-  <si>
-    <t>010110011101111000</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>I18</t>
-  </si>
-  <si>
-    <t>I16</t>
-  </si>
-  <si>
-    <t>I21</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>001001000000111000</t>
-  </si>
-  <si>
-    <t>010100011101111010</t>
-  </si>
-  <si>
-    <t>001101000000110010</t>
-  </si>
-  <si>
-    <t>001000000010000111</t>
-  </si>
-  <si>
-    <t>000010110101111011</t>
-  </si>
-  <si>
-    <t>111001001001001000</t>
-  </si>
-  <si>
-    <t>010110010110011110</t>
-  </si>
-  <si>
-    <t>111111011101111000</t>
-  </si>
-  <si>
-    <t>001001000000110000</t>
-  </si>
-  <si>
-    <t>010110011101111010</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I20</t>
-  </si>
-  <si>
-    <t>I15</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>I19</t>
-  </si>
-  <si>
-    <t>001000000000110010</t>
-  </si>
-  <si>
-    <t>001001000011000111</t>
-  </si>
-  <si>
-    <t>111111010110001000</t>
-  </si>
-  <si>
-    <t>000010111001011110</t>
-  </si>
-  <si>
-    <t>001001000000111110</t>
-  </si>
-  <si>
-    <t>111111010110010010</t>
-  </si>
-  <si>
-    <t>001001000001110000</t>
-  </si>
-  <si>
-    <t>001001000010000111</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I14</t>
-  </si>
-  <si>
-    <t>000010101001000111</t>
-  </si>
-  <si>
-    <t>001001000010001000</t>
-  </si>
-  <si>
-    <t>001010111001011000</t>
-  </si>
-  <si>
-    <t>000001000010000111</t>
-  </si>
-  <si>
-    <t>000010111110010010</t>
-  </si>
-  <si>
-    <t>111111010001001000</t>
-  </si>
-  <si>
-    <t>000000000010000111</t>
-  </si>
-  <si>
-    <t>001110110101111011</t>
-  </si>
-  <si>
-    <t>000010111001000111</t>
-  </si>
-  <si>
-    <t>001010111001001000</t>
+    <t>101000001101100100</t>
+  </si>
+  <si>
+    <t>100010100010100111</t>
+  </si>
+  <si>
+    <t>101010010000000000</t>
+  </si>
+  <si>
+    <t>100100101111001111</t>
+  </si>
+  <si>
+    <t>000101000001011101</t>
+  </si>
+  <si>
+    <t>011100010011001001</t>
+  </si>
+  <si>
+    <t>111001001000100111</t>
+  </si>
+  <si>
+    <t>000101101101011011</t>
+  </si>
+  <si>
+    <t>100010111011111010</t>
+  </si>
+  <si>
+    <t>101010101101101000</t>
+  </si>
+  <si>
+    <t>011111111111001111</t>
+  </si>
+  <si>
+    <t>101110010000111110</t>
+  </si>
+  <si>
+    <t>011101000110110011</t>
+  </si>
+  <si>
+    <t>110111110111010101</t>
+  </si>
+  <si>
+    <t>110011101000011000</t>
+  </si>
+  <si>
+    <t>110010011100100000</t>
+  </si>
+  <si>
+    <t>110000011111000111</t>
+  </si>
+  <si>
+    <t>101011000011001001</t>
+  </si>
+  <si>
+    <t>101101110111101110</t>
+  </si>
+  <si>
+    <t>010100111000000100</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>i9</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i21</t>
+  </si>
+  <si>
+    <t>i15</t>
+  </si>
+  <si>
+    <t>i18</t>
+  </si>
+  <si>
+    <t>i11</t>
+  </si>
+  <si>
+    <t>100010101010100111</t>
+  </si>
+  <si>
+    <t>110111110111000111</t>
+  </si>
+  <si>
+    <t>110000011111010101</t>
+  </si>
+  <si>
+    <t>000101000001011100</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i12</t>
+  </si>
+  <si>
+    <t>i16</t>
+  </si>
+  <si>
+    <t>i19</t>
+  </si>
+  <si>
+    <t>i13</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>010101000001011101</t>
+  </si>
+  <si>
+    <t>000101000001111101</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i14</t>
+  </si>
+  <si>
+    <t>000001000001011101</t>
   </si>
 </sst>
 </file>
@@ -648,22 +585,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>82307</v>
+        <v>164708</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>8.53545965370046</v>
+        <v>16.07952529726142</v>
       </c>
       <c r="D2">
-        <v>41.79028188893457</v>
+        <v>1.165374867427356</v>
       </c>
       <c r="E2">
-        <v>0.05057741809728693</v>
+        <v>0.002077161886762673</v>
       </c>
       <c r="F2">
-        <v>0.051</v>
+        <v>0.002</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -678,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -689,22 +626,22 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>114853</v>
+        <v>141479</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>11.51514631327176</v>
+        <v>13.95283871779906</v>
       </c>
       <c r="D3">
-        <v>12.14420521790338</v>
+        <v>1.096546750940711</v>
       </c>
       <c r="E3">
-        <v>0.01469773633969647</v>
+        <v>0.001954482786415048</v>
       </c>
       <c r="F3">
-        <v>0.065</v>
+        <v>0.004</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -713,587 +650,587 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>259486</v>
+        <v>173056</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>24.75674345681555</v>
+        <v>16.84381043934036</v>
       </c>
       <c r="D4">
-        <v>95.1940428821131</v>
+        <v>3.399636936220488</v>
       </c>
       <c r="E4">
-        <v>0.1152102519914934</v>
+        <v>0.006059506232819981</v>
       </c>
       <c r="F4">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <v>0.8090000000000001</v>
+        <v>0.485</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>138746</v>
+        <v>150479</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>13.70262414025932</v>
+        <v>14.77681647039974</v>
       </c>
       <c r="D5">
-        <v>1.683184121437857</v>
+        <v>0.04981088788482904</v>
       </c>
       <c r="E5">
-        <v>0.002037102962620085</v>
+        <v>8.878282924410587E-05</v>
       </c>
       <c r="F5">
-        <v>0.183</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
-        <v>0.208</v>
+        <v>0.499</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D6">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E6">
-        <v>0.2018779769801773</v>
+        <v>0.2616721622327608</v>
       </c>
       <c r="F6">
-        <v>0.384</v>
+        <v>0.272</v>
       </c>
       <c r="G6">
-        <v>0.931</v>
+        <v>0.304</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>220373</v>
+        <v>115913</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
-        <v>21.17582769709662</v>
+        <v>11.6121925819114</v>
       </c>
       <c r="D7">
-        <v>38.14084774422577</v>
+        <v>11.47723910205615</v>
       </c>
       <c r="E7">
-        <v>0.04616062672349326</v>
+        <v>0.02045700855097543</v>
       </c>
       <c r="F7">
-        <v>0.431</v>
+        <v>0.292</v>
       </c>
       <c r="G7">
-        <v>0.965</v>
+        <v>0.272</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>233851</v>
+        <v>234023</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8">
-        <v>22.40978015815795</v>
+        <v>22.42552728854099</v>
       </c>
       <c r="D8">
-        <v>54.90484199223126</v>
+        <v>55.13845551286687</v>
       </c>
       <c r="E8">
-        <v>0.06644954337438555</v>
+        <v>0.09827867537517976</v>
       </c>
       <c r="F8">
-        <v>0.497</v>
+        <v>0.391</v>
       </c>
       <c r="G8">
-        <v>0.629</v>
+        <v>0.271</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>226592</v>
+        <v>23387</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>21.74519632414369</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D9">
-        <v>45.49767345124157</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E9">
-        <v>0.05506435344736421</v>
+        <v>0.2506626951789686</v>
       </c>
       <c r="F9">
-        <v>0.552</v>
+        <v>0.641</v>
       </c>
       <c r="G9">
-        <v>0.866</v>
+        <v>0.245</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>170615</v>
+        <v>143098</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10">
-        <v>16.62032936221833</v>
+        <v>14.10106316018356</v>
       </c>
       <c r="D10">
-        <v>2.625467242066854</v>
+        <v>0.8080874419791606</v>
       </c>
       <c r="E10">
-        <v>0.003177517556729061</v>
+        <v>0.001440333477721311</v>
       </c>
       <c r="F10">
-        <v>0.555</v>
+        <v>0.643</v>
       </c>
       <c r="G10">
-        <v>0.359</v>
+        <v>0.003</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>73865</v>
+        <v>174952</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>7.762568521761024</v>
+        <v>17.01739508588824</v>
       </c>
       <c r="D11">
-        <v>52.38041440220442</v>
+        <v>4.069882932566002</v>
       </c>
       <c r="E11">
-        <v>0.06339431082016529</v>
+        <v>0.007254151387162095</v>
       </c>
       <c r="F11">
-        <v>0.619</v>
+        <v>0.65</v>
       </c>
       <c r="G11">
-        <v>0.488</v>
+        <v>0.981</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J11">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>49287</v>
+        <v>131023</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12">
-        <v>5.512376832492189</v>
+        <v>12.99555967544432</v>
       </c>
       <c r="D12">
-        <v>90.01499336863095</v>
+        <v>4.01778101470489</v>
       </c>
       <c r="E12">
-        <v>0.1089422169185045</v>
+        <v>0.007161285030564537</v>
       </c>
       <c r="F12">
-        <v>0.728</v>
+        <v>0.657</v>
       </c>
       <c r="G12">
-        <v>0.973</v>
+        <v>0.138</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>0.17</v>
+        <v>0.96</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>140010</v>
+        <v>189502</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13">
-        <v>13.81834723795791</v>
+        <v>18.34949245259267</v>
       </c>
       <c r="D13">
-        <v>1.396303250041703</v>
+        <v>11.21909968997524</v>
       </c>
       <c r="E13">
-        <v>0.001689900380563341</v>
+        <v>0.01999690136724194</v>
       </c>
       <c r="F13">
-        <v>0.729</v>
+        <v>0.677</v>
       </c>
       <c r="G13">
-        <v>0.103</v>
+        <v>0.468</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>0.17</v>
+        <v>0.96</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>72685</v>
+        <v>119219</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>7.654535883086712</v>
+        <v>11.91486707636671</v>
       </c>
       <c r="D14">
-        <v>53.9558430928607</v>
+        <v>9.518045156486062</v>
       </c>
       <c r="E14">
-        <v>0.065301000891832</v>
+        <v>0.01696494509031559</v>
       </c>
       <c r="F14">
-        <v>0.795</v>
+        <v>0.694</v>
       </c>
       <c r="G14">
-        <v>0.919</v>
+        <v>0.775</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>175361</v>
+        <v>228821</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>17.05484029708975</v>
+        <v>21.94926814753779</v>
       </c>
       <c r="D15">
-        <v>4.222368646543909</v>
+        <v>48.29232778638335</v>
       </c>
       <c r="E15">
-        <v>0.005110195355099372</v>
+        <v>0.08607615069163865</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="G15">
-        <v>0.09</v>
+        <v>0.905</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J15">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>200058</v>
+        <v>211480</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16">
-        <v>19.31592680330964</v>
+        <v>20.36164612444353</v>
       </c>
       <c r="D16">
-        <v>18.6272241715266</v>
+        <v>28.7472491637603</v>
       </c>
       <c r="E16">
-        <v>0.02254392318814792</v>
+        <v>0.0512390407423603</v>
       </c>
       <c r="F16">
-        <v>0.822</v>
+        <v>0.831</v>
       </c>
       <c r="G16">
-        <v>0.437</v>
+        <v>0.092</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>141685</v>
+        <v>206624</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17">
-        <v>13.97169865302526</v>
+        <v>19.91706435037365</v>
       </c>
       <c r="D17">
-        <v>1.057403660190071</v>
+        <v>24.17752182571544</v>
       </c>
       <c r="E17">
-        <v>0.001279741236519288</v>
+        <v>0.04309396766348175</v>
       </c>
       <c r="F17">
-        <v>0.824</v>
+        <v>0.874</v>
       </c>
       <c r="G17">
-        <v>0.534</v>
+        <v>0.525</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -1304,166 +1241,166 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>36914</v>
+        <v>198599</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>4.379590528833499</v>
+        <v>19.18235085430471</v>
       </c>
       <c r="D18">
-        <v>112.7930973352431</v>
+        <v>17.49205866850335</v>
       </c>
       <c r="E18">
-        <v>0.1365098148314503</v>
+        <v>0.0311778111942994</v>
       </c>
       <c r="F18">
-        <v>0.96</v>
+        <v>0.906</v>
       </c>
       <c r="G18">
-        <v>0.171</v>
+        <v>0.571</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J18">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>162220</v>
+        <v>176329</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19">
-        <v>15.85174122520914</v>
+        <v>17.14346368203614</v>
       </c>
       <c r="D19">
-        <v>0.7254631147207682</v>
+        <v>4.59443655620792</v>
       </c>
       <c r="E19">
-        <v>0.0008780043974077098</v>
+        <v>0.008189114741054883</v>
       </c>
       <c r="F19">
-        <v>0.961</v>
+        <v>0.914</v>
       </c>
       <c r="G19">
-        <v>0.622</v>
+        <v>0.081</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>165010</v>
+        <v>187886</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20">
-        <v>16.10717432851535</v>
+        <v>18.20154266945903</v>
       </c>
       <c r="D20">
-        <v>1.225834993723421</v>
+        <v>10.24987546436688</v>
       </c>
       <c r="E20">
-        <v>0.001483588197864038</v>
+        <v>0.0182693580012132</v>
       </c>
       <c r="F20">
-        <v>0.962</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G20">
-        <v>0.15</v>
+        <v>0.003</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="K20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>92024</v>
+        <v>85508</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
-        <v>9.425080967258328</v>
+        <v>8.828521074375436</v>
       </c>
       <c r="D21">
-        <v>31.07972222162534</v>
+        <v>38.08715212942813</v>
       </c>
       <c r="E21">
-        <v>0.03761477630919996</v>
+        <v>0.06788646553982033</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.289</v>
+        <v>0.65</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J21">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="K21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1537,69 +1474,69 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D2">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E2">
-        <v>0.08694560227331199</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F2">
-        <v>0.08699999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>36914</v>
+        <v>23387</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>4.379590528833499</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D3">
-        <v>112.7930973352431</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E3">
-        <v>0.05879258473005293</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F3">
-        <v>0.146</v>
+        <v>0.141</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1608,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -1619,37 +1556,37 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>11848</v>
+        <v>23387</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>2.084720934756984</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D4">
-        <v>166.8044333331045</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E4">
-        <v>0.08694560227331199</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F4">
-        <v>0.233</v>
+        <v>0.21</v>
       </c>
       <c r="G4">
-        <v>0.399</v>
+        <v>0.318</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -1660,37 +1597,37 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>200058</v>
+        <v>23387</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>19.31592680330964</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D5">
-        <v>18.6272241715266</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E5">
-        <v>0.009709305633616834</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F5">
-        <v>0.242</v>
+        <v>0.279</v>
       </c>
       <c r="G5">
-        <v>0.133</v>
+        <v>0.626</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1701,447 +1638,447 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>36912</v>
+        <v>234023</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>4.379407422666254</v>
+        <v>22.42552728854099</v>
       </c>
       <c r="D6">
-        <v>112.7969866937166</v>
+        <v>55.13845551286687</v>
       </c>
       <c r="E6">
-        <v>0.05879461202997645</v>
+        <v>0.02707214414571421</v>
       </c>
       <c r="F6">
-        <v>0.301</v>
+        <v>0.306</v>
       </c>
       <c r="G6">
-        <v>0.91</v>
+        <v>0.149</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>0.07000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>92026</v>
+        <v>20573</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>9.425264073425573</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D7">
-        <v>31.07768065103963</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E7">
-        <v>0.01619901586228424</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F7">
-        <v>0.317</v>
+        <v>0.378</v>
       </c>
       <c r="G7">
-        <v>0.184</v>
+        <v>0.215</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0.07000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>53298</v>
+        <v>20573</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>5.879596250901225</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D8">
-        <v>83.18176454657497</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E8">
-        <v>0.04335789206643016</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F8">
-        <v>0.361</v>
+        <v>0.45</v>
       </c>
       <c r="G8">
-        <v>0.88</v>
+        <v>0.132</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>32903</v>
+        <v>20573</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>4.012371110424462</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D9">
-        <v>120.727988615035</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E9">
-        <v>0.06292858931643604</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F9">
-        <v>0.424</v>
+        <v>0.523</v>
       </c>
       <c r="G9">
-        <v>0.694</v>
+        <v>0.356</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>11643</v>
+        <v>85508</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>2.065952552614413</v>
+        <v>8.828521074375436</v>
       </c>
       <c r="D10">
-        <v>167.2895833712216</v>
+        <v>38.08715212942813</v>
       </c>
       <c r="E10">
-        <v>0.08719848321546762</v>
+        <v>0.0187002131807448</v>
       </c>
       <c r="F10">
-        <v>0.511</v>
+        <v>0.541</v>
       </c>
       <c r="G10">
-        <v>0.7</v>
+        <v>0.129</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>0.67</v>
+        <v>0.06</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>234056</v>
+        <v>141479</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>22.42854854030052</v>
+        <v>13.95283871779906</v>
       </c>
       <c r="D11">
-        <v>55.18333341560101</v>
+        <v>1.096546750940711</v>
       </c>
       <c r="E11">
-        <v>0.02876391270540768</v>
+        <v>0.0005383877990027149</v>
       </c>
       <c r="F11">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="G11">
-        <v>0.514</v>
+        <v>0.589</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>0.67</v>
+        <v>0.06</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>91550</v>
+        <v>20573</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>9.381684805621358</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D12">
-        <v>31.56546562338592</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E12">
-        <v>0.01645327024481511</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F12">
-        <v>0.556</v>
+        <v>0.614</v>
       </c>
       <c r="G12">
-        <v>0.862</v>
+        <v>0.172</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>0.73</v>
+        <v>0.02</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>259960</v>
+        <v>23387</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>24.80013961845252</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D13">
-        <v>96.04273654116275</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E13">
-        <v>0.05006158053289079</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F13">
-        <v>0.606</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G13">
-        <v>0.852</v>
+        <v>0.052</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>0.73</v>
+        <v>0.02</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>259486</v>
+        <v>228807</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>24.75674345681555</v>
+        <v>21.94798640436708</v>
       </c>
       <c r="D14">
-        <v>95.1940428821131</v>
+        <v>48.27451507526982</v>
       </c>
       <c r="E14">
-        <v>0.04961920511242306</v>
+        <v>0.02370205364887645</v>
       </c>
       <c r="F14">
-        <v>0.656</v>
+        <v>0.707</v>
       </c>
       <c r="G14">
-        <v>0.994</v>
+        <v>0.753</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>36914</v>
+        <v>198613</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>4.379590528833499</v>
+        <v>19.18363259747542</v>
       </c>
       <c r="D15">
-        <v>112.7930973352431</v>
+        <v>17.50278171065895</v>
       </c>
       <c r="E15">
-        <v>0.05879258473005293</v>
+        <v>0.00859359996602293</v>
       </c>
       <c r="F15">
         <v>0.715</v>
       </c>
       <c r="G15">
-        <v>0.8120000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>233851</v>
+        <v>20573</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>22.40978015815795</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D16">
-        <v>54.90484199223126</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E16">
-        <v>0.02861875106881927</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F16">
-        <v>0.743</v>
+        <v>0.787</v>
       </c>
       <c r="G16">
-        <v>0.089</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -2152,207 +2089,207 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>226592</v>
+        <v>23387</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>21.74519632414369</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D17">
-        <v>45.49767345124157</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E17">
-        <v>0.02371533262759864</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F17">
-        <v>0.767</v>
+        <v>0.856</v>
       </c>
       <c r="G17">
-        <v>0.876</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.99</v>
+      </c>
+      <c r="K17">
         <v>15</v>
       </c>
-      <c r="J17">
-        <v>0.82</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>259486</v>
+        <v>23387</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>24.75674345681555</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D18">
-        <v>95.1940428821131</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E18">
-        <v>0.04961920511242306</v>
+        <v>0.06904831175158528</v>
       </c>
       <c r="F18">
-        <v>0.8169999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="G18">
-        <v>0.345</v>
+        <v>0.967</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J18">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>49287</v>
+        <v>20573</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>5.512376832492189</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D19">
-        <v>90.01499336863095</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E19">
-        <v>0.04691966307894618</v>
+        <v>0.07208101317852196</v>
       </c>
       <c r="F19">
-        <v>0.863</v>
+        <v>0.997</v>
       </c>
       <c r="G19">
-        <v>0.275</v>
+        <v>0.301</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="K19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>259486</v>
+        <v>141479</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>24.75674345681555</v>
+        <v>13.95283871779906</v>
       </c>
       <c r="D20">
-        <v>95.1940428821131</v>
+        <v>1.096546750940711</v>
       </c>
       <c r="E20">
-        <v>0.04961920511242306</v>
+        <v>0.0005383877990027149</v>
       </c>
       <c r="F20">
-        <v>0.913</v>
+        <v>0.998</v>
       </c>
       <c r="G20">
-        <v>0.892</v>
+        <v>0.025</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>11848</v>
+        <v>174952</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>2.084720934756984</v>
+        <v>17.01739508588824</v>
       </c>
       <c r="D21">
-        <v>166.8044333331045</v>
+        <v>4.069882932566002</v>
       </c>
       <c r="E21">
-        <v>0.08694560227331199</v>
+        <v>0.001998250701470911</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9330000000000001</v>
+        <v>0.616</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2426,69 +2363,69 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>11643</v>
+        <v>20573</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>2.065952552614413</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D2">
-        <v>167.2895833712216</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E2">
-        <v>0.07014090917444887</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D3">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E3">
-        <v>0.06993749624177369</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F3">
-        <v>0.14</v>
+        <v>0.101</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -2497,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -2508,37 +2445,37 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D4">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E4">
-        <v>0.06993749624177369</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F4">
-        <v>0.21</v>
+        <v>0.151</v>
       </c>
       <c r="G4">
-        <v>0.354</v>
+        <v>0.229</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -2549,37 +2486,37 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D5">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E5">
-        <v>0.06993749624177369</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F5">
-        <v>0.28</v>
+        <v>0.202</v>
       </c>
       <c r="G5">
-        <v>0.144</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -2590,160 +2527,160 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>32818</v>
+        <v>20573</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>4.004589098316568</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D6">
-        <v>120.8990608968589</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E6">
-        <v>0.05069036504696997</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F6">
-        <v>0.331</v>
+        <v>0.252</v>
       </c>
       <c r="G6">
-        <v>0.421</v>
+        <v>0.021</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>36999</v>
+        <v>20573</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>4.387372540941394</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D7">
-        <v>112.6278615847647</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E7">
-        <v>0.04722242981739871</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F7">
-        <v>0.378</v>
+        <v>0.303</v>
       </c>
       <c r="G7">
-        <v>0.349</v>
+        <v>0.016</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>259464</v>
+        <v>20573</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>24.75472928897586</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D8">
-        <v>95.15474350120354</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E8">
-        <v>0.03989632879069056</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F8">
-        <v>0.418</v>
+        <v>0.353</v>
       </c>
       <c r="G8">
-        <v>0.095</v>
+        <v>0.274</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>11870</v>
+        <v>20573</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.086735102596674</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D9">
-        <v>166.7524103105089</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E9">
-        <v>0.06991568411199654</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F9">
-        <v>0.488</v>
+        <v>0.403</v>
       </c>
       <c r="G9">
-        <v>0.08500000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -2754,283 +2691,283 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>259486</v>
+        <v>20573</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>24.75674345681555</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D10">
-        <v>95.1940428821131</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E10">
-        <v>0.03991280617231492</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F10">
-        <v>0.528</v>
+        <v>0.454</v>
       </c>
       <c r="G10">
-        <v>0.913</v>
+        <v>0.878</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>36914</v>
+        <v>20573</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>4.379590528833499</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D11">
-        <v>112.7930973352431</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E11">
-        <v>0.04729170959880002</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F11">
-        <v>0.575</v>
+        <v>0.504</v>
       </c>
       <c r="G11">
-        <v>0.06</v>
+        <v>0.784</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>36914</v>
+        <v>20573</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>4.379590528833499</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D12">
-        <v>112.7930973352431</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E12">
-        <v>0.04729170959880002</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F12">
-        <v>0.622</v>
+        <v>0.555</v>
       </c>
       <c r="G12">
-        <v>0.668</v>
+        <v>0.473</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
       </c>
       <c r="J12">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>234056</v>
+        <v>20573</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>22.42854854030052</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D13">
-        <v>55.18333341560101</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E13">
-        <v>0.02313717984734279</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F13">
-        <v>0.645</v>
+        <v>0.605</v>
       </c>
       <c r="G13">
-        <v>0.083</v>
+        <v>0.339</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>49287</v>
+        <v>20573</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>5.512376832492189</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D14">
-        <v>90.01499336863095</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E14">
-        <v>0.03774134256881589</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F14">
-        <v>0.6830000000000001</v>
+        <v>0.656</v>
       </c>
       <c r="G14">
-        <v>0.443</v>
+        <v>0.924</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>49287</v>
+        <v>20573</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>5.512376832492189</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D15">
-        <v>90.01499336863095</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E15">
-        <v>0.03774134256881589</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F15">
-        <v>0.721</v>
+        <v>0.706</v>
       </c>
       <c r="G15">
-        <v>0.904</v>
+        <v>0.266</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>11848</v>
+        <v>20573</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2.084720934756984</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D16">
-        <v>166.8044333331045</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E16">
-        <v>0.06993749624177369</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F16">
-        <v>0.791</v>
+        <v>0.756</v>
       </c>
       <c r="G16">
-        <v>0.899</v>
+        <v>0.441</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
       </c>
       <c r="J16">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -3041,160 +2978,160 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>259486</v>
+        <v>23387</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>24.75674345681555</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D17">
-        <v>95.1940428821131</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E17">
-        <v>0.03991280617231492</v>
+        <v>0.04830277787065543</v>
       </c>
       <c r="F17">
-        <v>0.831</v>
+        <v>0.805</v>
       </c>
       <c r="G17">
-        <v>0.251</v>
+        <v>0.84</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>36926</v>
+        <v>23387</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>4.380689165836967</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D18">
-        <v>112.7697625925724</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E18">
-        <v>0.04728192584518373</v>
+        <v>0.04830277787065543</v>
       </c>
       <c r="F18">
-        <v>0.878</v>
+        <v>0.853</v>
       </c>
       <c r="G18">
-        <v>0.744</v>
+        <v>0.144</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J18">
-        <v>0.26</v>
+        <v>0.64</v>
       </c>
       <c r="K18">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>259474</v>
+        <v>23387</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>24.75564481981209</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D19">
-        <v>95.17260585032641</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E19">
-        <v>0.0399038180878854</v>
+        <v>0.04830277787065543</v>
       </c>
       <c r="F19">
-        <v>0.918</v>
+        <v>0.901</v>
       </c>
       <c r="G19">
-        <v>0.249</v>
+        <v>0.509</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>0.26</v>
+        <v>0.64</v>
       </c>
       <c r="K19">
         <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>53298</v>
+        <v>23387</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>5.879596250901225</v>
+        <v>3.141151966674677</v>
       </c>
       <c r="D20">
-        <v>83.18176454657497</v>
+        <v>140.6322766775039</v>
       </c>
       <c r="E20">
-        <v>0.03487631730832196</v>
+        <v>0.04830277787065543</v>
       </c>
       <c r="F20">
-        <v>0.953</v>
+        <v>0.95</v>
       </c>
       <c r="G20">
-        <v>0.722</v>
+        <v>0.059</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
       </c>
       <c r="J20">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -3205,37 +3142,37 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>36912</v>
+        <v>20573</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>4.379407422666254</v>
+        <v>2.883521589361532</v>
       </c>
       <c r="D21">
-        <v>112.7969866937166</v>
+        <v>146.8090490754681</v>
       </c>
       <c r="E21">
-        <v>0.04729334032280532</v>
+        <v>0.05042430553233616</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.519</v>
+        <v>0.322</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="J21">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="70">
   <si>
     <t>Decimal</t>
   </si>
@@ -57,139 +57,175 @@
     <t>Mutação</t>
   </si>
   <si>
-    <t>101000001101100100</t>
-  </si>
-  <si>
-    <t>100010100010100111</t>
-  </si>
-  <si>
-    <t>101010010000000000</t>
-  </si>
-  <si>
-    <t>100100101111001111</t>
-  </si>
-  <si>
-    <t>000101000001011101</t>
-  </si>
-  <si>
-    <t>011100010011001001</t>
-  </si>
-  <si>
-    <t>111001001000100111</t>
-  </si>
-  <si>
-    <t>000101101101011011</t>
-  </si>
-  <si>
-    <t>100010111011111010</t>
-  </si>
-  <si>
-    <t>101010101101101000</t>
-  </si>
-  <si>
-    <t>011111111111001111</t>
-  </si>
-  <si>
-    <t>101110010000111110</t>
-  </si>
-  <si>
-    <t>011101000110110011</t>
-  </si>
-  <si>
-    <t>110111110111010101</t>
-  </si>
-  <si>
-    <t>110011101000011000</t>
-  </si>
-  <si>
-    <t>110010011100100000</t>
-  </si>
-  <si>
-    <t>110000011111000111</t>
-  </si>
-  <si>
-    <t>101011000011001001</t>
-  </si>
-  <si>
-    <t>101101110111101110</t>
-  </si>
-  <si>
-    <t>010100111000000100</t>
+    <t>110010011001001111</t>
+  </si>
+  <si>
+    <t>111101101000111101</t>
+  </si>
+  <si>
+    <t>010000110011100101</t>
+  </si>
+  <si>
+    <t>111111100010111100</t>
+  </si>
+  <si>
+    <t>111110110010010000</t>
+  </si>
+  <si>
+    <t>101010011100100001</t>
+  </si>
+  <si>
+    <t>001010000100101011</t>
+  </si>
+  <si>
+    <t>110000000011011000</t>
+  </si>
+  <si>
+    <t>011010100111010111</t>
+  </si>
+  <si>
+    <t>010111110101010101</t>
+  </si>
+  <si>
+    <t>101110011110000001</t>
+  </si>
+  <si>
+    <t>011010010011001110</t>
+  </si>
+  <si>
+    <t>000000100001110110</t>
+  </si>
+  <si>
+    <t>001011010011011110</t>
+  </si>
+  <si>
+    <t>110111011011101111</t>
+  </si>
+  <si>
+    <t>101011000101000101</t>
+  </si>
+  <si>
+    <t>111010111011010101</t>
+  </si>
+  <si>
+    <t>000001101101100110</t>
+  </si>
+  <si>
+    <t>111011111001101000</t>
+  </si>
+  <si>
+    <t>000011100110011111</t>
+  </si>
+  <si>
+    <t>i14</t>
+  </si>
+  <si>
+    <t>i19</t>
+  </si>
+  <si>
+    <t>i15</t>
   </si>
   <si>
     <t>i6</t>
   </si>
   <si>
-    <t>i9</t>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i21</t>
+  </si>
+  <si>
+    <t>i5</t>
   </si>
   <si>
     <t>i8</t>
   </si>
   <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>i21</t>
-  </si>
-  <si>
-    <t>i15</t>
+    <t>000001001101100110</t>
+  </si>
+  <si>
+    <t>111110110010010001</t>
+  </si>
+  <si>
+    <t>000011100110011110</t>
+  </si>
+  <si>
+    <t>000000100001110111</t>
+  </si>
+  <si>
+    <t>101010000100101011</t>
+  </si>
+  <si>
+    <t>011111100010111100</t>
+  </si>
+  <si>
+    <t>111111100010111110</t>
+  </si>
+  <si>
+    <t>000000100001110100</t>
+  </si>
+  <si>
+    <t>001010100010111100</t>
+  </si>
+  <si>
+    <t>111111000100101011</t>
+  </si>
+  <si>
+    <t>000010000100101011</t>
+  </si>
+  <si>
+    <t>001001101101100110</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>i17</t>
   </si>
   <si>
     <t>i18</t>
   </si>
   <si>
-    <t>i11</t>
-  </si>
-  <si>
-    <t>100010101010100111</t>
-  </si>
-  <si>
-    <t>110111110111000111</t>
-  </si>
-  <si>
-    <t>110000011111010101</t>
-  </si>
-  <si>
-    <t>000101000001011100</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>i7</t>
+    <t>i16</t>
+  </si>
+  <si>
+    <t>000000100001100110</t>
+  </si>
+  <si>
+    <t>000001101101110110</t>
+  </si>
+  <si>
+    <t>000000110001110100</t>
+  </si>
+  <si>
+    <t>001011010011011111</t>
+  </si>
+  <si>
+    <t>111111000100101010</t>
+  </si>
+  <si>
+    <t>100010000100101011</t>
+  </si>
+  <si>
+    <t>i4</t>
   </si>
   <si>
     <t>i12</t>
   </si>
   <si>
-    <t>i16</t>
-  </si>
-  <si>
-    <t>i19</t>
-  </si>
-  <si>
     <t>i13</t>
   </si>
   <si>
-    <t>i4</t>
-  </si>
-  <si>
-    <t>i5</t>
-  </si>
-  <si>
-    <t>010101000001011101</t>
-  </si>
-  <si>
-    <t>000101000001111101</t>
-  </si>
-  <si>
-    <t>i10</t>
-  </si>
-  <si>
-    <t>i14</t>
-  </si>
-  <si>
-    <t>000001000001011101</t>
+    <t>000000000001110100</t>
+  </si>
+  <si>
+    <t>000001111101110110</t>
   </si>
 </sst>
 </file>
@@ -585,22 +621,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>164708</v>
+        <v>206415</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>16.07952529726142</v>
+        <v>19.8979</v>
       </c>
       <c r="D2">
-        <v>1.165374867427356</v>
+        <v>23.9894</v>
       </c>
       <c r="E2">
-        <v>0.002077161886762673</v>
+        <v>0.0176</v>
       </c>
       <c r="F2">
-        <v>0.002</v>
+        <v>0.0176</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,39 +645,39 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>141479</v>
+        <v>252477</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>13.95283871779906</v>
+        <v>24.115</v>
       </c>
       <c r="D3">
-        <v>1.096546750940711</v>
+        <v>83.08320000000001</v>
       </c>
       <c r="E3">
-        <v>0.001954482786415048</v>
+        <v>0.061</v>
       </c>
       <c r="F3">
-        <v>0.004</v>
+        <v>0.0786</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -650,180 +686,180 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>173056</v>
+        <v>68837</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>16.84381043934036</v>
+        <v>7.3022</v>
       </c>
       <c r="D4">
-        <v>3.399636936220488</v>
+        <v>59.2561</v>
       </c>
       <c r="E4">
-        <v>0.006059506232819981</v>
+        <v>0.0435</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.1221</v>
       </c>
       <c r="G4">
-        <v>0.485</v>
+        <v>0.787</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>150479</v>
+        <v>260284</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>14.77681647039974</v>
+        <v>24.8298</v>
       </c>
       <c r="D5">
-        <v>0.04981088788482904</v>
+        <v>96.625</v>
       </c>
       <c r="E5">
-        <v>8.878282924410587E-05</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.1931</v>
       </c>
       <c r="G5">
-        <v>0.499</v>
+        <v>0.585</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>20573</v>
+        <v>257168</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
-        <v>2.883521589361532</v>
+        <v>24.5445</v>
       </c>
       <c r="D6">
-        <v>146.8090490754681</v>
+        <v>91.0975</v>
       </c>
       <c r="E6">
-        <v>0.2616721622327608</v>
+        <v>0.0669</v>
       </c>
       <c r="F6">
-        <v>0.272</v>
+        <v>0.26</v>
       </c>
       <c r="G6">
-        <v>0.304</v>
+        <v>0.209</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>115913</v>
+        <v>173857</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
-        <v>11.6121925819114</v>
+        <v>16.9171</v>
       </c>
       <c r="D7">
-        <v>11.47723910205615</v>
+        <v>3.6753</v>
       </c>
       <c r="E7">
-        <v>0.02045700855097543</v>
+        <v>0.0027</v>
       </c>
       <c r="F7">
-        <v>0.292</v>
+        <v>0.2627</v>
       </c>
       <c r="G7">
-        <v>0.272</v>
+        <v>0.018</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -831,78 +867,78 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>234023</v>
+        <v>41259</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8">
-        <v>22.42552728854099</v>
+        <v>4.7774</v>
       </c>
       <c r="D8">
-        <v>55.13845551286687</v>
+        <v>104.5016</v>
       </c>
       <c r="E8">
-        <v>0.09827867537517976</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="F8">
-        <v>0.391</v>
+        <v>0.3395</v>
       </c>
       <c r="G8">
-        <v>0.271</v>
+        <v>0.74</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>23387</v>
+        <v>196824</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>3.141151966674677</v>
+        <v>19.0198</v>
       </c>
       <c r="D9">
-        <v>140.6322766775039</v>
+        <v>16.1588</v>
       </c>
       <c r="E9">
-        <v>0.2506626951789686</v>
+        <v>0.0119</v>
       </c>
       <c r="F9">
-        <v>0.641</v>
+        <v>0.3514</v>
       </c>
       <c r="G9">
-        <v>0.245</v>
+        <v>0.213</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -913,494 +949,494 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>143098</v>
+        <v>109015</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10">
-        <v>14.10106316018356</v>
+        <v>10.9807</v>
       </c>
       <c r="D10">
-        <v>0.8080874419791606</v>
+        <v>16.1548</v>
       </c>
       <c r="E10">
-        <v>0.001440333477721311</v>
+        <v>0.0119</v>
       </c>
       <c r="F10">
-        <v>0.643</v>
+        <v>0.3633</v>
       </c>
       <c r="G10">
-        <v>0.003</v>
+        <v>0.966</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>174952</v>
+        <v>97621</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>17.01739508588824</v>
+        <v>9.9375</v>
       </c>
       <c r="D11">
-        <v>4.069882932566002</v>
+        <v>25.6289</v>
       </c>
       <c r="E11">
-        <v>0.007254151387162095</v>
+        <v>0.0188</v>
       </c>
       <c r="F11">
-        <v>0.65</v>
+        <v>0.3821</v>
       </c>
       <c r="G11">
-        <v>0.981</v>
+        <v>0.526</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>131023</v>
+        <v>190337</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12">
-        <v>12.99555967544432</v>
+        <v>18.4259</v>
       </c>
       <c r="D12">
-        <v>4.01778101470489</v>
+        <v>11.7368</v>
       </c>
       <c r="E12">
-        <v>0.007161285030564537</v>
+        <v>0.0086</v>
       </c>
       <c r="F12">
-        <v>0.657</v>
+        <v>0.3907</v>
       </c>
       <c r="G12">
-        <v>0.138</v>
+        <v>0.178</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>0.96</v>
+        <v>0.05</v>
       </c>
       <c r="K12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>189502</v>
+        <v>107726</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13">
-        <v>18.34949245259267</v>
+        <v>10.8626</v>
       </c>
       <c r="D13">
-        <v>11.21909968997524</v>
+        <v>17.1181</v>
       </c>
       <c r="E13">
-        <v>0.01999690136724194</v>
+        <v>0.0126</v>
       </c>
       <c r="F13">
-        <v>0.677</v>
+        <v>0.4033</v>
       </c>
       <c r="G13">
-        <v>0.468</v>
+        <v>0.327</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>0.96</v>
+        <v>0.05</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>119219</v>
+        <v>2166</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>11.91486707636671</v>
+        <v>1.1983</v>
       </c>
       <c r="D14">
-        <v>9.518045156486062</v>
+        <v>190.4869</v>
       </c>
       <c r="E14">
-        <v>0.01696494509031559</v>
+        <v>0.1399</v>
       </c>
       <c r="F14">
-        <v>0.694</v>
+        <v>0.5432</v>
       </c>
       <c r="G14">
-        <v>0.775</v>
+        <v>0.154</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>228821</v>
+        <v>46302</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>21.94926814753779</v>
+        <v>5.2391</v>
       </c>
       <c r="D15">
-        <v>48.29232778638335</v>
+        <v>95.2752</v>
       </c>
       <c r="E15">
-        <v>0.08607615069163865</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F15">
-        <v>0.78</v>
+        <v>0.6132</v>
       </c>
       <c r="G15">
-        <v>0.905</v>
+        <v>0.45</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>211480</v>
+        <v>227055</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16">
-        <v>20.36164612444353</v>
+        <v>21.7876</v>
       </c>
       <c r="D16">
-        <v>28.7472491637603</v>
+        <v>46.0715</v>
       </c>
       <c r="E16">
-        <v>0.0512390407423603</v>
+        <v>0.0338</v>
       </c>
       <c r="F16">
-        <v>0.831</v>
+        <v>0.647</v>
       </c>
       <c r="G16">
-        <v>0.092</v>
+        <v>0.267</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J16">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>206624</v>
+        <v>176453</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17">
-        <v>19.91706435037365</v>
+        <v>17.1548</v>
       </c>
       <c r="D17">
-        <v>24.17752182571544</v>
+        <v>4.6432</v>
       </c>
       <c r="E17">
-        <v>0.04309396766348175</v>
+        <v>0.0034</v>
       </c>
       <c r="F17">
-        <v>0.874</v>
+        <v>0.6504</v>
       </c>
       <c r="G17">
-        <v>0.525</v>
+        <v>0.146</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>198599</v>
+        <v>241365</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>19.18235085430471</v>
+        <v>23.0977</v>
       </c>
       <c r="D18">
-        <v>17.49205866850335</v>
+        <v>65.5727</v>
       </c>
       <c r="E18">
-        <v>0.0311778111942994</v>
+        <v>0.0482</v>
       </c>
       <c r="F18">
-        <v>0.906</v>
+        <v>0.6986</v>
       </c>
       <c r="G18">
-        <v>0.571</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J18">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>176329</v>
+        <v>7014</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19">
-        <v>17.14346368203614</v>
+        <v>1.6422</v>
       </c>
       <c r="D19">
-        <v>4.59443655620792</v>
+        <v>178.4308</v>
       </c>
       <c r="E19">
-        <v>0.008189114741054883</v>
+        <v>0.1311</v>
       </c>
       <c r="F19">
-        <v>0.914</v>
+        <v>0.8297</v>
       </c>
       <c r="G19">
-        <v>0.081</v>
+        <v>0.289</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="K19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>187886</v>
+        <v>245352</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20">
-        <v>18.20154266945903</v>
+        <v>23.4627</v>
       </c>
       <c r="D20">
-        <v>10.24987546436688</v>
+        <v>71.6173</v>
       </c>
       <c r="E20">
-        <v>0.0182693580012132</v>
+        <v>0.0526</v>
       </c>
       <c r="F20">
-        <v>0.9320000000000001</v>
+        <v>0.8823</v>
       </c>
       <c r="G20">
-        <v>0.003</v>
+        <v>0.575</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J20">
-        <v>0.78</v>
+        <v>0.01</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>85508</v>
+        <v>14751</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
-        <v>8.828521074375436</v>
+        <v>2.3505</v>
       </c>
       <c r="D21">
-        <v>38.08715212942813</v>
+        <v>160.0099</v>
       </c>
       <c r="E21">
-        <v>0.06788646553982033</v>
+        <v>0.1176</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.9999</v>
       </c>
       <c r="G21">
-        <v>0.65</v>
+        <v>0.467</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J21">
-        <v>0.78</v>
+        <v>0.01</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1474,822 +1510,822 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>20573</v>
+        <v>2166</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>2.883521589361532</v>
+        <v>1.1983</v>
       </c>
       <c r="D2">
-        <v>146.8090490754681</v>
+        <v>190.4869</v>
       </c>
       <c r="E2">
-        <v>0.07208101317852196</v>
+        <v>0.0764</v>
       </c>
       <c r="F2">
-        <v>0.07199999999999999</v>
+        <v>0.0764</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>23387</v>
+        <v>7014</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>3.141151966674677</v>
+        <v>1.6422</v>
       </c>
       <c r="D3">
-        <v>140.6322766775039</v>
+        <v>178.4308</v>
       </c>
       <c r="E3">
-        <v>0.06904831175158528</v>
+        <v>0.0716</v>
       </c>
       <c r="F3">
-        <v>0.141</v>
+        <v>0.148</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>23387</v>
+        <v>7014</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>3.141151966674677</v>
+        <v>1.6422</v>
       </c>
       <c r="D4">
-        <v>140.6322766775039</v>
+        <v>178.4308</v>
       </c>
       <c r="E4">
-        <v>0.06904831175158528</v>
+        <v>0.0716</v>
       </c>
       <c r="F4">
-        <v>0.21</v>
+        <v>0.2196</v>
       </c>
       <c r="G4">
-        <v>0.318</v>
+        <v>0.081</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>0.9399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>23387</v>
+        <v>46302</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>3.141151966674677</v>
+        <v>5.2391</v>
       </c>
       <c r="D5">
-        <v>140.6322766775039</v>
+        <v>95.2752</v>
       </c>
       <c r="E5">
-        <v>0.06904831175158528</v>
+        <v>0.0382</v>
       </c>
       <c r="F5">
-        <v>0.279</v>
+        <v>0.2578</v>
       </c>
       <c r="G5">
-        <v>0.626</v>
+        <v>0.491</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>0.9399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>234023</v>
+        <v>252477</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>22.42552728854099</v>
+        <v>24.115</v>
       </c>
       <c r="D6">
-        <v>55.13845551286687</v>
+        <v>83.08320000000001</v>
       </c>
       <c r="E6">
-        <v>0.02707214414571421</v>
+        <v>0.0333</v>
       </c>
       <c r="F6">
-        <v>0.306</v>
+        <v>0.2911</v>
       </c>
       <c r="G6">
-        <v>0.149</v>
+        <v>0.661</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>20573</v>
+        <v>257168</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7">
-        <v>2.883521589361532</v>
+        <v>24.5445</v>
       </c>
       <c r="D7">
-        <v>146.8090490754681</v>
+        <v>91.0975</v>
       </c>
       <c r="E7">
-        <v>0.07208101317852196</v>
+        <v>0.0365</v>
       </c>
       <c r="F7">
-        <v>0.378</v>
+        <v>0.3276</v>
       </c>
       <c r="G7">
-        <v>0.215</v>
+        <v>0.917</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>20573</v>
+        <v>7014</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>2.883521589361532</v>
+        <v>1.6422</v>
       </c>
       <c r="D8">
-        <v>146.8090490754681</v>
+        <v>178.4308</v>
       </c>
       <c r="E8">
-        <v>0.07208101317852196</v>
+        <v>0.0716</v>
       </c>
       <c r="F8">
-        <v>0.45</v>
+        <v>0.3992</v>
       </c>
       <c r="G8">
-        <v>0.132</v>
+        <v>0.746</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J8">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>20573</v>
+        <v>257168</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2.883521589361532</v>
+        <v>24.5445</v>
       </c>
       <c r="D9">
-        <v>146.8090490754681</v>
+        <v>91.0975</v>
       </c>
       <c r="E9">
-        <v>0.07208101317852196</v>
+        <v>0.0365</v>
       </c>
       <c r="F9">
-        <v>0.523</v>
+        <v>0.4357</v>
       </c>
       <c r="G9">
-        <v>0.356</v>
+        <v>0.927</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>85508</v>
+        <v>14750</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>8.828521074375436</v>
+        <v>2.3504</v>
       </c>
       <c r="D10">
-        <v>38.08715212942813</v>
+        <v>160.0124</v>
       </c>
       <c r="E10">
-        <v>0.0187002131807448</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="F10">
-        <v>0.541</v>
+        <v>0.4999</v>
       </c>
       <c r="G10">
-        <v>0.129</v>
+        <v>0.283</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>141479</v>
+        <v>2167</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1.1984</v>
+      </c>
+      <c r="D11">
+        <v>190.4842</v>
+      </c>
+      <c r="E11">
+        <v>0.0764</v>
+      </c>
+      <c r="F11">
+        <v>0.5763</v>
+      </c>
+      <c r="G11">
+        <v>0.655</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>13.95283871779906</v>
-      </c>
-      <c r="D11">
-        <v>1.096546750940711</v>
-      </c>
-      <c r="E11">
-        <v>0.0005383877990027149</v>
-      </c>
-      <c r="F11">
-        <v>0.542</v>
-      </c>
-      <c r="G11">
-        <v>0.589</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
       <c r="J11">
-        <v>0.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>20573</v>
+        <v>172331</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>2.883521589361532</v>
+        <v>16.7774</v>
       </c>
       <c r="D12">
-        <v>146.8090490754681</v>
+        <v>3.1592</v>
       </c>
       <c r="E12">
-        <v>0.07208101317852196</v>
+        <v>0.0013</v>
       </c>
       <c r="F12">
-        <v>0.614</v>
+        <v>0.5776</v>
       </c>
       <c r="G12">
-        <v>0.172</v>
+        <v>0.388</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J12">
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>23387</v>
+        <v>129212</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>3.141151966674677</v>
+        <v>12.8298</v>
       </c>
       <c r="D13">
-        <v>140.6322766775039</v>
+        <v>4.7098</v>
       </c>
       <c r="E13">
-        <v>0.06904831175158528</v>
+        <v>0.0019</v>
       </c>
       <c r="F13">
-        <v>0.6830000000000001</v>
+        <v>0.5795</v>
       </c>
       <c r="G13">
-        <v>0.052</v>
+        <v>0.83</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>228807</v>
+        <v>260286</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>21.94798640436708</v>
+        <v>24.83</v>
       </c>
       <c r="D14">
-        <v>48.27451507526982</v>
+        <v>96.6289</v>
       </c>
       <c r="E14">
-        <v>0.02370205364887645</v>
+        <v>0.0387</v>
       </c>
       <c r="F14">
-        <v>0.707</v>
+        <v>0.6182</v>
       </c>
       <c r="G14">
-        <v>0.753</v>
+        <v>0.729</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J14">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>198613</v>
+        <v>2164</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>19.18363259747542</v>
+        <v>1.1981</v>
       </c>
       <c r="D15">
-        <v>17.50278171065895</v>
+        <v>190.4924</v>
       </c>
       <c r="E15">
-        <v>0.00859359996602293</v>
+        <v>0.0764</v>
       </c>
       <c r="F15">
-        <v>0.715</v>
+        <v>0.6946</v>
       </c>
       <c r="G15">
-        <v>0.221</v>
+        <v>0.976</v>
       </c>
       <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
         <v>49</v>
       </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
       <c r="J15">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>20573</v>
+        <v>43196</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>2.883521589361532</v>
+        <v>4.9547</v>
       </c>
       <c r="D16">
-        <v>146.8090490754681</v>
+        <v>100.9081</v>
       </c>
       <c r="E16">
-        <v>0.07208101317852196</v>
+        <v>0.0405</v>
       </c>
       <c r="F16">
-        <v>0.787</v>
+        <v>0.7351</v>
       </c>
       <c r="G16">
-        <v>0.742</v>
+        <v>0.106</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>23387</v>
+        <v>258347</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>3.141151966674677</v>
+        <v>24.6525</v>
       </c>
       <c r="D17">
-        <v>140.6322766775039</v>
+        <v>93.1708</v>
       </c>
       <c r="E17">
-        <v>0.06904831175158528</v>
+        <v>0.0374</v>
       </c>
       <c r="F17">
-        <v>0.856</v>
+        <v>0.7725</v>
       </c>
       <c r="G17">
-        <v>0.9379999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J17">
-        <v>0.99</v>
+        <v>0.76</v>
       </c>
       <c r="K17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>23387</v>
+        <v>8491</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>3.141151966674677</v>
+        <v>1.7774</v>
       </c>
       <c r="D18">
-        <v>140.6322766775039</v>
+        <v>174.8372</v>
       </c>
       <c r="E18">
-        <v>0.06904831175158528</v>
+        <v>0.0701</v>
       </c>
       <c r="F18">
-        <v>0.925</v>
+        <v>0.8426</v>
       </c>
       <c r="G18">
-        <v>0.967</v>
+        <v>0.796</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J18">
-        <v>0.05</v>
+        <v>0.79</v>
       </c>
       <c r="K18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>20573</v>
+        <v>39782</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C19">
-        <v>2.883521589361532</v>
+        <v>4.6422</v>
       </c>
       <c r="D19">
-        <v>146.8090490754681</v>
+        <v>107.284</v>
       </c>
       <c r="E19">
-        <v>0.07208101317852196</v>
+        <v>0.043</v>
       </c>
       <c r="F19">
-        <v>0.997</v>
+        <v>0.8856000000000001</v>
       </c>
       <c r="G19">
-        <v>0.301</v>
+        <v>0.116</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J19">
-        <v>0.05</v>
+        <v>0.79</v>
       </c>
       <c r="K19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>141479</v>
+        <v>46302</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>13.95283871779906</v>
+        <v>5.2391</v>
       </c>
       <c r="D20">
-        <v>1.096546750940711</v>
+        <v>95.2752</v>
       </c>
       <c r="E20">
-        <v>0.0005383877990027149</v>
+        <v>0.0382</v>
       </c>
       <c r="F20">
-        <v>0.998</v>
+        <v>0.9238</v>
       </c>
       <c r="G20">
-        <v>0.025</v>
+        <v>0.134</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J20">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="K20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>174952</v>
+        <v>2166</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>17.01739508588824</v>
+        <v>1.1983</v>
       </c>
       <c r="D21">
-        <v>4.069882932566002</v>
+        <v>190.4869</v>
       </c>
       <c r="E21">
-        <v>0.001998250701470911</v>
+        <v>0.0764</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1.0002</v>
       </c>
       <c r="G21">
-        <v>0.616</v>
+        <v>0.796</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J21">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2363,822 +2399,822 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>20573</v>
+        <v>2164</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>2.883521589361532</v>
+        <v>1.1981</v>
       </c>
       <c r="D2">
-        <v>146.8090490754681</v>
+        <v>190.4924</v>
       </c>
       <c r="E2">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F2">
-        <v>0.05</v>
+        <v>0.0595</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>20573</v>
+        <v>2166</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>2.883521589361532</v>
+        <v>1.1983</v>
       </c>
       <c r="D3">
-        <v>146.8090490754681</v>
+        <v>190.4869</v>
       </c>
       <c r="E3">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F3">
-        <v>0.101</v>
+        <v>0.119</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>20573</v>
+        <v>2150</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>2.883521589361532</v>
+        <v>1.1968</v>
       </c>
       <c r="D4">
-        <v>146.8090490754681</v>
+        <v>190.5283</v>
       </c>
       <c r="E4">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F4">
-        <v>0.151</v>
+        <v>0.1785</v>
       </c>
       <c r="G4">
-        <v>0.229</v>
+        <v>0.548</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>20573</v>
+        <v>7030</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>2.883521589361532</v>
+        <v>1.6436</v>
       </c>
       <c r="D5">
-        <v>146.8090490754681</v>
+        <v>178.3934</v>
       </c>
       <c r="E5">
-        <v>0.05042430553233616</v>
+        <v>0.0557</v>
       </c>
       <c r="F5">
-        <v>0.202</v>
+        <v>0.2342</v>
       </c>
       <c r="G5">
-        <v>0.464</v>
+        <v>0.595</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J5">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>20573</v>
+        <v>2164</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>2.883521589361532</v>
+        <v>1.1981</v>
       </c>
       <c r="D6">
-        <v>146.8090490754681</v>
+        <v>190.4924</v>
       </c>
       <c r="E6">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F6">
-        <v>0.252</v>
+        <v>0.2937</v>
       </c>
       <c r="G6">
-        <v>0.021</v>
+        <v>0.269</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>20573</v>
+        <v>14750</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>2.883521589361532</v>
+        <v>2.3504</v>
       </c>
       <c r="D7">
-        <v>146.8090490754681</v>
+        <v>160.0124</v>
       </c>
       <c r="E7">
-        <v>0.05042430553233616</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
-        <v>0.303</v>
+        <v>0.3437</v>
       </c>
       <c r="G7">
-        <v>0.016</v>
+        <v>0.283</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>20573</v>
+        <v>46303</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>2.883521589361532</v>
+        <v>5.2392</v>
       </c>
       <c r="D8">
-        <v>146.8090490754681</v>
+        <v>95.2732</v>
       </c>
       <c r="E8">
-        <v>0.05042430553233616</v>
+        <v>0.0297</v>
       </c>
       <c r="F8">
-        <v>0.353</v>
+        <v>0.3734</v>
       </c>
       <c r="G8">
-        <v>0.274</v>
+        <v>0.888</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J8">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>20573</v>
+        <v>258346</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>2.883521589361532</v>
+        <v>24.6524</v>
       </c>
       <c r="D9">
-        <v>146.8090490754681</v>
+        <v>93.1688</v>
       </c>
       <c r="E9">
-        <v>0.05042430553233616</v>
+        <v>0.0291</v>
       </c>
       <c r="F9">
-        <v>0.403</v>
+        <v>0.4025</v>
       </c>
       <c r="G9">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J9">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>20573</v>
+        <v>2166</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>2.883521589361532</v>
+        <v>1.1983</v>
       </c>
       <c r="D10">
-        <v>146.8090490754681</v>
+        <v>190.4869</v>
       </c>
       <c r="E10">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F10">
-        <v>0.454</v>
+        <v>0.462</v>
       </c>
       <c r="G10">
-        <v>0.878</v>
+        <v>0.264</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J10">
-        <v>0.77</v>
+        <v>0.61</v>
       </c>
       <c r="K10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>20573</v>
+        <v>252477</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>2.883521589361532</v>
+        <v>24.115</v>
       </c>
       <c r="D11">
-        <v>146.8090490754681</v>
+        <v>83.08320000000001</v>
       </c>
       <c r="E11">
-        <v>0.05042430553233616</v>
+        <v>0.0259</v>
       </c>
       <c r="F11">
-        <v>0.504</v>
+        <v>0.4879</v>
       </c>
       <c r="G11">
-        <v>0.784</v>
+        <v>0.502</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>0.77</v>
+        <v>0.61</v>
       </c>
       <c r="K11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>20573</v>
+        <v>2164</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>2.883521589361532</v>
+        <v>1.1981</v>
       </c>
       <c r="D12">
-        <v>146.8090490754681</v>
+        <v>190.4924</v>
       </c>
       <c r="E12">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F12">
-        <v>0.555</v>
+        <v>0.5474</v>
       </c>
       <c r="G12">
-        <v>0.473</v>
+        <v>0.347</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>20573</v>
+        <v>7014</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>2.883521589361532</v>
+        <v>1.6422</v>
       </c>
       <c r="D13">
-        <v>146.8090490754681</v>
+        <v>178.4308</v>
       </c>
       <c r="E13">
-        <v>0.05042430553233616</v>
+        <v>0.0557</v>
       </c>
       <c r="F13">
-        <v>0.605</v>
+        <v>0.6031</v>
       </c>
       <c r="G13">
-        <v>0.339</v>
+        <v>0.988</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>20573</v>
+        <v>8491</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>2.883521589361532</v>
+        <v>1.7774</v>
       </c>
       <c r="D14">
-        <v>146.8090490754681</v>
+        <v>174.8372</v>
       </c>
       <c r="E14">
-        <v>0.05042430553233616</v>
+        <v>0.0546</v>
       </c>
       <c r="F14">
-        <v>0.656</v>
+        <v>0.6577</v>
       </c>
       <c r="G14">
-        <v>0.924</v>
+        <v>0.094</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="K14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>20573</v>
+        <v>43196</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>2.883521589361532</v>
+        <v>4.9547</v>
       </c>
       <c r="D15">
-        <v>146.8090490754681</v>
+        <v>100.9081</v>
       </c>
       <c r="E15">
-        <v>0.05042430553233616</v>
+        <v>0.0315</v>
       </c>
       <c r="F15">
-        <v>0.706</v>
+        <v>0.6892</v>
       </c>
       <c r="G15">
-        <v>0.266</v>
+        <v>0.014</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>20573</v>
+        <v>2166</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>2.883521589361532</v>
+        <v>1.1983</v>
       </c>
       <c r="D16">
-        <v>146.8090490754681</v>
+        <v>190.4869</v>
       </c>
       <c r="E16">
-        <v>0.05042430553233616</v>
+        <v>0.0595</v>
       </c>
       <c r="F16">
-        <v>0.756</v>
+        <v>0.7487</v>
       </c>
       <c r="G16">
-        <v>0.441</v>
+        <v>0.003</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>23387</v>
+        <v>7014</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>3.141151966674677</v>
+        <v>1.6422</v>
       </c>
       <c r="D17">
-        <v>140.6322766775039</v>
+        <v>178.4308</v>
       </c>
       <c r="E17">
-        <v>0.04830277787065543</v>
+        <v>0.0557</v>
       </c>
       <c r="F17">
-        <v>0.805</v>
+        <v>0.8044</v>
       </c>
       <c r="G17">
-        <v>0.84</v>
+        <v>0.734</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>23387</v>
+        <v>46302</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>3.141151966674677</v>
+        <v>5.2391</v>
       </c>
       <c r="D18">
-        <v>140.6322766775039</v>
+        <v>95.2752</v>
       </c>
       <c r="E18">
-        <v>0.04830277787065543</v>
+        <v>0.0297</v>
       </c>
       <c r="F18">
-        <v>0.853</v>
+        <v>0.8341</v>
       </c>
       <c r="G18">
-        <v>0.144</v>
+        <v>0.412</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="K18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>23387</v>
+        <v>8491</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>3.141151966674677</v>
+        <v>1.7774</v>
       </c>
       <c r="D19">
-        <v>140.6322766775039</v>
+        <v>174.8372</v>
       </c>
       <c r="E19">
-        <v>0.04830277787065543</v>
+        <v>0.0546</v>
       </c>
       <c r="F19">
-        <v>0.901</v>
+        <v>0.8887</v>
       </c>
       <c r="G19">
-        <v>0.509</v>
+        <v>0.221</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>23387</v>
+        <v>7014</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>3.141151966674677</v>
+        <v>1.6422</v>
       </c>
       <c r="D20">
-        <v>140.6322766775039</v>
+        <v>178.4308</v>
       </c>
       <c r="E20">
-        <v>0.04830277787065543</v>
+        <v>0.0557</v>
       </c>
       <c r="F20">
-        <v>0.95</v>
+        <v>0.9444</v>
       </c>
       <c r="G20">
-        <v>0.059</v>
+        <v>0.712</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>20573</v>
+        <v>7014</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>2.883521589361532</v>
+        <v>1.6422</v>
       </c>
       <c r="D21">
-        <v>146.8090490754681</v>
+        <v>178.4308</v>
       </c>
       <c r="E21">
-        <v>0.05042430553233616</v>
+        <v>0.0557</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1.0001</v>
       </c>
       <c r="G21">
-        <v>0.322</v>
+        <v>0.626</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J21">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Code\IA_AlgoritmoGenetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9F246-F95B-4CEC-8211-242BF2ED366D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFBA71D-3494-47AC-99E9-67D80DB37CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,12 +619,15 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="11" max="13" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Code\IA_AlgoritmoGenetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFBA71D-3494-47AC-99E9-67D80DB37CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E51C7-5668-4856-B3D0-69D345404679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GER 1" sheetId="1" r:id="rId1"/>
@@ -246,6 +246,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,9 +278,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,6 +1495,18 @@
         <v>50</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>AVERAGE(D2:D21)</f>
+        <v>42.292169999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f>LARGE(D2:D21,1)</f>
+        <v>181.92339999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1498,9 +1514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1564,7 +1582,7 @@
       <c r="E2">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>8.6499999999999994E-2</v>
       </c>
       <c r="G2">
@@ -1605,7 +1623,7 @@
       <c r="E3">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.1326</v>
       </c>
       <c r="G3">
@@ -1646,7 +1664,7 @@
       <c r="E4">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.1542</v>
       </c>
       <c r="G4">
@@ -1687,7 +1705,7 @@
       <c r="E5">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.1633</v>
       </c>
       <c r="G5">
@@ -1728,7 +1746,7 @@
       <c r="E6">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.19289999999999999</v>
       </c>
       <c r="G6">
@@ -1769,7 +1787,7 @@
       <c r="E7">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.27960000000000002</v>
       </c>
       <c r="G7">
@@ -1810,7 +1828,7 @@
       <c r="E8">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.31969999999999998</v>
       </c>
       <c r="G8">
@@ -1851,7 +1869,7 @@
       <c r="E9">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.34129999999999999</v>
       </c>
       <c r="G9">
@@ -1892,7 +1910,7 @@
       <c r="E10">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.3629</v>
       </c>
       <c r="G10">
@@ -1933,7 +1951,7 @@
       <c r="E11">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.39710000000000001</v>
       </c>
       <c r="G11">
@@ -1974,7 +1992,7 @@
       <c r="E12">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.48359999999999997</v>
       </c>
       <c r="G12">
@@ -2015,7 +2033,7 @@
       <c r="E13">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.57010000000000005</v>
       </c>
       <c r="G13">
@@ -2056,7 +2074,7 @@
       <c r="E14">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.61519999999999997</v>
       </c>
       <c r="G14">
@@ -2097,7 +2115,7 @@
       <c r="E15">
         <v>8.72E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.70240000000000002</v>
       </c>
       <c r="G15">
@@ -2138,7 +2156,7 @@
       <c r="E16">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.78890000000000005</v>
       </c>
       <c r="G16">
@@ -2179,7 +2197,7 @@
       <c r="E17">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.87539999999999996</v>
       </c>
       <c r="G17">
@@ -2220,7 +2238,7 @@
       <c r="E18">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.92100000000000004</v>
       </c>
       <c r="G18">
@@ -2261,7 +2279,7 @@
       <c r="E19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.92569999999999997</v>
       </c>
       <c r="G19">
@@ -2302,7 +2320,7 @@
       <c r="E20">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.95979999999999999</v>
       </c>
       <c r="G20">
@@ -2343,7 +2361,7 @@
       <c r="E21">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.99990000000000001</v>
       </c>
       <c r="G21">
@@ -2366,6 +2384,18 @@
       </c>
       <c r="M21" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>AVERAGE(D2:D21)</f>
+        <v>105.13188499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>LARGE(D2:D21,1)</f>
+        <v>183.42099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2375,9 +2405,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3245,6 +3277,12 @@
         <v>20</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>AVERAGE(D2:D21)</f>
+        <v>155.69884000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GA.xlsx
+++ b/GA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Code\IA_AlgoritmoGenetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E51C7-5668-4856-B3D0-69D345404679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224066B7-1923-46A4-8282-6D2461D10F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,7 +281,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2405,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,6 +3283,12 @@
         <v>155.69884000000002</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>LARGE(D2:D21,1)</f>
+        <v>183.42099999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
